--- a/CodeForBigDataset/CorrelationMatrix.xlsx
+++ b/CodeForBigDataset/CorrelationMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/GitHub/WIFS2019/CodeForBigDataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353F8989-8761-A64D-B2F8-11C86F127ECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192CBA0F-5C2B-D342-975A-7C54FED9C256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="960" windowWidth="27060" windowHeight="16540" activeTab="1" xr2:uid="{55118236-F365-C948-9E6E-FBE87E48F168}"/>
+    <workbookView xWindow="1740" yWindow="960" windowWidth="27060" windowHeight="16540" xr2:uid="{55118236-F365-C948-9E6E-FBE87E48F168}"/>
   </bookViews>
   <sheets>
     <sheet name="Portrait" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,8 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,1573 +392,2592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8583839-AAC1-6841-B64D-C120DD42DBBE}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W22"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0.45852230125281201</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.95977262639803596</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.98401540363677498</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.97616938925209895</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.98137486122975104</v>
+      </c>
+      <c r="G1">
+        <v>0.32349052254753202</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.943149557875398</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.97081423220053897</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.95678372979580295</v>
+      </c>
+      <c r="K1">
+        <v>0.113172987127676</v>
+      </c>
+      <c r="L1">
+        <v>0.34115959471486701</v>
+      </c>
+      <c r="M1">
+        <v>0.22907779885357399</v>
+      </c>
+      <c r="N1">
+        <v>2.5794023288139602E-2</v>
+      </c>
+      <c r="O1">
+        <v>1.6629435943890301E-2</v>
+      </c>
+      <c r="P1">
+        <v>0.10173352688390599</v>
+      </c>
+      <c r="Q1">
+        <v>0.29079711141890202</v>
+      </c>
+      <c r="R1">
+        <v>0.198303551289088</v>
+      </c>
+      <c r="S1">
+        <v>5.4098252545088203E-2</v>
+      </c>
+      <c r="T1">
+        <v>5.7616138312173101E-4</v>
+      </c>
+      <c r="U1">
+        <v>0.153351903346443</v>
+      </c>
+      <c r="V1">
+        <v>3.8087336675637198E-2</v>
+      </c>
+      <c r="W1">
+        <v>0.28204034182511301</v>
+      </c>
+      <c r="X1">
+        <v>0.22123013290885299</v>
+      </c>
+      <c r="Y1">
+        <v>0.28950048544475099</v>
+      </c>
+      <c r="Z1">
+        <v>0.36225121594022403</v>
+      </c>
+      <c r="AA1">
+        <v>2.8701061199676799E-2</v>
+      </c>
+      <c r="AB1">
+        <v>7.9374798906019506E-2</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>0.50604064653033698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.45852230125281201</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.21001477442536801</v>
+      </c>
+      <c r="D2">
+        <v>0.37187766622141699</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.58872663558469995</v>
+      </c>
+      <c r="F2">
+        <v>0.43356675232776998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.83198900960697098</v>
+      </c>
+      <c r="H2">
+        <v>0.22485428264132701</v>
+      </c>
+      <c r="I2">
+        <v>0.36513893280976301</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.555768084101815</v>
+      </c>
+      <c r="K2">
+        <v>1.20306848564432E-3</v>
+      </c>
+      <c r="L2">
+        <v>0.14265613661262999</v>
+      </c>
+      <c r="M2">
+        <v>4.4404440573825997E-2</v>
+      </c>
+      <c r="N2">
+        <v>8.0660677562544806E-3</v>
+      </c>
+      <c r="O2">
+        <v>5.4934721740359502E-2</v>
+      </c>
+      <c r="P2">
+        <v>2.3230563325491699E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.111653601159766</v>
+      </c>
+      <c r="R2">
+        <v>5.5075828053192902E-2</v>
+      </c>
+      <c r="S2">
+        <v>1.8748265391059699E-2</v>
+      </c>
+      <c r="T2">
+        <v>1.47872029919292E-2</v>
+      </c>
+      <c r="U2">
+        <v>3.7826804352279003E-2</v>
+      </c>
+      <c r="V2">
+        <v>1.7142564275032399E-2</v>
+      </c>
+      <c r="W2">
+        <v>0.10216814481931701</v>
+      </c>
+      <c r="X2">
+        <v>7.5768095391635301E-2</v>
+      </c>
+      <c r="Y2">
+        <v>0.35094567654212</v>
+      </c>
+      <c r="Z2">
+        <v>9.93367989840057E-2</v>
+      </c>
+      <c r="AA2">
+        <v>5.7863509974196998E-3</v>
+      </c>
+      <c r="AB2">
+        <v>0.29467312776758497</v>
+      </c>
+      <c r="AC2">
+        <v>0.13444547066568699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.95977262639803596</v>
+      </c>
+      <c r="B3">
+        <v>0.21001477442536801</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.96210848370451496</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88664900697462201</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.94662956888954497</v>
+      </c>
+      <c r="G3">
+        <v>0.109678068076419</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.97318464003975602</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.95257944820042295</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.87702762477229301</v>
+      </c>
+      <c r="K3">
+        <v>0.12575706464198499</v>
+      </c>
+      <c r="L3">
+        <v>0.33104145704724802</v>
+      </c>
+      <c r="M3">
+        <v>0.23863021470945001</v>
+      </c>
+      <c r="N3">
+        <v>3.0022181442773001E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.9649318399810799E-4</v>
+      </c>
+      <c r="P3">
+        <v>0.105308603384593</v>
+      </c>
+      <c r="Q3">
+        <v>0.28622987983189302</v>
+      </c>
+      <c r="R3">
+        <v>0.20124607582510701</v>
+      </c>
+      <c r="S3">
+        <v>5.2952396689144199E-2</v>
+      </c>
+      <c r="T3">
+        <v>5.60587823879831E-3</v>
+      </c>
+      <c r="U3">
+        <v>0.157682632490383</v>
+      </c>
+      <c r="V3">
+        <v>5.15444342931973E-2</v>
+      </c>
+      <c r="W3">
+        <v>0.27914045336700499</v>
+      </c>
+      <c r="X3">
+        <v>0.222041978383481</v>
+      </c>
+      <c r="Y3">
+        <v>0.20266403291301199</v>
+      </c>
+      <c r="Z3">
+        <v>0.35864187491738803</v>
+      </c>
+      <c r="AA3">
+        <v>2.8808248651910302E-2</v>
+      </c>
+      <c r="AB3">
+        <v>4.9020154766130503E-3</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.51722745623779698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.98401540363677498</v>
+      </c>
+      <c r="B4">
+        <v>0.37187766622141699</v>
+      </c>
+      <c r="C4">
+        <v>0.96210848370451496</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.95077432614761404</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.96697598837610099</v>
+      </c>
+      <c r="G4">
+        <v>0.24883538309894501</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.94522706795046796</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.97700074125868597</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.93349421972059798</v>
+      </c>
+      <c r="K4">
+        <v>0.120083364197064</v>
+      </c>
+      <c r="L4">
+        <v>0.35029566246730698</v>
+      </c>
+      <c r="M4">
+        <v>0.23868195888145399</v>
+      </c>
+      <c r="N4">
+        <v>3.0113716672844199E-2</v>
+      </c>
+      <c r="O4">
+        <v>1.51112313089502E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.10628413420221999</v>
+      </c>
+      <c r="Q4">
+        <v>0.30255468416822101</v>
+      </c>
+      <c r="R4">
+        <v>0.205781864542148</v>
+      </c>
+      <c r="S4">
+        <v>5.7241409371948299E-2</v>
+      </c>
+      <c r="T4">
+        <v>7.0101573736183504E-4</v>
+      </c>
+      <c r="U4">
+        <v>0.15681216165957201</v>
+      </c>
+      <c r="V4">
+        <v>3.5219300710328597E-2</v>
+      </c>
+      <c r="W4">
+        <v>0.28321363400245497</v>
+      </c>
+      <c r="X4">
+        <v>0.224279883312649</v>
+      </c>
+      <c r="Y4">
+        <v>0.27861323559963602</v>
+      </c>
+      <c r="Z4">
+        <v>0.37350068219920801</v>
+      </c>
+      <c r="AA4">
+        <v>2.9870792074808802E-2</v>
+      </c>
+      <c r="AB4">
+        <v>5.7018797400187497E-2</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.51249995868422804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.97616938925209895</v>
+      </c>
+      <c r="B5">
+        <v>0.58872663558469995</v>
+      </c>
+      <c r="C5">
+        <v>0.88664900697462201</v>
+      </c>
+      <c r="D5">
+        <v>0.95077432614761404</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.955050121210964</v>
+      </c>
+      <c r="G5">
+        <v>0.43876310881800701</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.87681392395651903</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.93758775387439097</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.97030886422489204</v>
+      </c>
+      <c r="K5">
+        <v>0.102234077568993</v>
+      </c>
+      <c r="L5">
+        <v>0.33808535300760101</v>
+      </c>
+      <c r="M5">
+        <v>0.21723090024709599</v>
+      </c>
+      <c r="N5">
+        <v>2.3707414899719201E-2</v>
+      </c>
+      <c r="O5">
+        <v>2.6819183143774499E-2</v>
+      </c>
+      <c r="P5">
+        <v>9.6240256888928594E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.28678332019944303</v>
+      </c>
+      <c r="R5">
+        <v>0.190669196441315</v>
+      </c>
+      <c r="S5">
+        <v>5.32151213224921E-2</v>
+      </c>
+      <c r="T5">
+        <v>3.32698550129449E-3</v>
+      </c>
+      <c r="U5">
+        <v>0.14169602655242799</v>
+      </c>
+      <c r="V5">
+        <v>2.3379572851831398E-2</v>
+      </c>
+      <c r="W5">
+        <v>0.27161490536751098</v>
+      </c>
+      <c r="X5">
+        <v>0.21159421876138099</v>
+      </c>
+      <c r="Y5">
+        <v>0.32856069939799398</v>
+      </c>
+      <c r="Z5">
+        <v>0.35851528053036502</v>
+      </c>
+      <c r="AA5">
+        <v>2.7241844455729702E-2</v>
+      </c>
+      <c r="AB5">
+        <v>0.119289585981304</v>
+      </c>
+      <c r="AC5">
+        <v>0.47543836512395399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.98137486122975104</v>
+      </c>
+      <c r="B6">
+        <v>0.43356675232776998</v>
+      </c>
+      <c r="C6">
+        <v>0.94662956888954497</v>
+      </c>
+      <c r="D6">
+        <v>0.96697598837610099</v>
+      </c>
+      <c r="E6">
+        <v>0.955050121210965</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.33091555966685898</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.96147253989696602</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.98702061780642603</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.97316913301644103</v>
+      </c>
+      <c r="K6">
+        <v>9.8152532327856798E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.31151821756270598</v>
+      </c>
+      <c r="M6">
+        <v>0.20371392362388699</v>
+      </c>
+      <c r="N6">
+        <v>1.3240658932178699E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.8365597685837599E-2</v>
+      </c>
+      <c r="P6">
+        <v>8.2522969546320907E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.26939189092993698</v>
+      </c>
+      <c r="R6">
+        <v>0.172990907685736</v>
+      </c>
+      <c r="S6">
+        <v>3.76344812670718E-2</v>
+      </c>
+      <c r="T6">
+        <v>9.9826812762724305E-3</v>
+      </c>
+      <c r="U6">
+        <v>0.13507339291227899</v>
+      </c>
+      <c r="V6">
+        <v>3.8074252623535101E-2</v>
+      </c>
+      <c r="W6">
+        <v>0.287481087405627</v>
+      </c>
+      <c r="X6">
+        <v>0.21716506842429201</v>
+      </c>
+      <c r="Y6">
+        <v>0.29639544537686402</v>
+      </c>
+      <c r="Z6">
+        <v>0.34052395093610899</v>
+      </c>
+      <c r="AA6">
+        <v>2.8169463494303201E-2</v>
+      </c>
+      <c r="AB6">
+        <v>9.2311675570110094E-2</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.50066790486194701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.32349052254753202</v>
+      </c>
+      <c r="B7">
+        <v>0.83198900960697098</v>
+      </c>
+      <c r="C7">
+        <v>0.109678068076419</v>
+      </c>
+      <c r="D7">
+        <v>0.24883538309894501</v>
+      </c>
+      <c r="E7">
+        <v>0.43876310881800701</v>
+      </c>
+      <c r="F7">
+        <v>0.33091555966685898</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>7.2505618805756705E-2</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="I7">
+        <v>0.25706800873824798</v>
+      </c>
+      <c r="J7">
+        <v>0.49839964028057399</v>
+      </c>
+      <c r="K7">
+        <v>2.60209295863E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.12148833135184001</v>
+      </c>
+      <c r="M7">
+        <v>3.5489305194162102E-3</v>
+      </c>
+      <c r="N7">
+        <v>2.5538830308028299E-2</v>
+      </c>
+      <c r="O7">
+        <v>7.0761124121124702E-2</v>
+      </c>
+      <c r="P7">
+        <v>3.35997975028718E-3</v>
+      </c>
+      <c r="Q7">
+        <v>0.106771533459264</v>
+      </c>
+      <c r="R7">
+        <v>1.60212922204441E-2</v>
+      </c>
+      <c r="S7">
+        <v>3.02479866267789E-3</v>
+      </c>
+      <c r="T7">
+        <v>3.6903519882185397E-2</v>
+      </c>
+      <c r="U7">
+        <v>3.4057813644192997E-2</v>
+      </c>
+      <c r="V7">
+        <v>2.0569883321482001E-2</v>
+      </c>
+      <c r="W7">
+        <v>8.9773986614981094E-2</v>
+      </c>
+      <c r="X7">
+        <v>7.6283795474515997E-2</v>
+      </c>
+      <c r="Y7">
+        <v>0.38088285355722501</v>
+      </c>
+      <c r="Z7">
+        <v>5.7489261053674197E-2</v>
+      </c>
+      <c r="AA7">
+        <v>3.7547392853533E-3</v>
+      </c>
+      <c r="AB7">
+        <v>0.33468462603076199</v>
+      </c>
+      <c r="AC7">
+        <v>0.12601479750699099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.943149557875398</v>
+      </c>
+      <c r="B8">
+        <v>0.22485428264132701</v>
+      </c>
+      <c r="C8">
+        <v>0.97318464003975602</v>
+      </c>
+      <c r="D8">
+        <v>0.94522706795046696</v>
+      </c>
+      <c r="E8">
+        <v>0.87681392395651903</v>
+      </c>
+      <c r="F8">
+        <v>0.96147253989696602</v>
+      </c>
+      <c r="G8">
+        <v>7.2505618805756705E-2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>0.96446581729690795</v>
       </c>
-      <c r="D1">
+      <c r="J8" s="1">
         <v>0.88040216559004203</v>
       </c>
-      <c r="E1">
+      <c r="K8">
         <v>0.111708524411927</v>
       </c>
-      <c r="F1">
+      <c r="L8">
         <v>0.293695974196023</v>
       </c>
-      <c r="G1">
+      <c r="M8">
         <v>0.21545047725956001</v>
       </c>
-      <c r="H1">
+      <c r="N8">
         <v>2.0664738178100699E-2</v>
       </c>
-      <c r="I1">
+      <c r="O8">
         <v>2.1105429861120401E-3</v>
       </c>
-      <c r="J1">
+      <c r="P8">
         <v>8.8389335062319094E-2</v>
       </c>
-      <c r="K1">
+      <c r="Q8">
         <v>0.25409663756643902</v>
       </c>
-      <c r="L1">
+      <c r="R8">
         <v>0.17755671601524101</v>
       </c>
-      <c r="M1">
+      <c r="S8">
         <v>4.0043391024308601E-2</v>
       </c>
-      <c r="N1">
+      <c r="T8">
         <v>3.85567460356028E-4</v>
       </c>
-      <c r="O1">
+      <c r="U8">
         <v>0.13360916117968</v>
       </c>
-      <c r="P1">
+      <c r="V8">
         <v>4.9111205683153199E-2</v>
       </c>
-      <c r="Q1">
+      <c r="W8">
         <v>0.27809022090124202</v>
       </c>
-      <c r="R1">
+      <c r="X8">
         <v>0.20989389764927999</v>
       </c>
-      <c r="S1">
+      <c r="Y8">
         <v>0.19798439495534301</v>
       </c>
-      <c r="T1">
+      <c r="Z8">
         <v>0.334519020715288</v>
       </c>
-      <c r="U1">
+      <c r="AA8">
         <v>2.8237067613845201E-2</v>
       </c>
-      <c r="V1">
+      <c r="AB8">
         <v>1.1360473453915301E-3</v>
       </c>
-      <c r="W1">
+      <c r="AC8">
         <v>0.49546826109992298</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.97081423220053897</v>
+      </c>
+      <c r="B9">
+        <v>0.36513893280976301</v>
+      </c>
+      <c r="C9">
+        <v>0.95257944820042295</v>
+      </c>
+      <c r="D9">
+        <v>0.97700074125868597</v>
+      </c>
+      <c r="E9">
+        <v>0.93758775387439097</v>
+      </c>
+      <c r="F9">
+        <v>0.98702061780642603</v>
+      </c>
+      <c r="G9">
         <v>0.25706800873824798</v>
       </c>
-      <c r="B2">
+      <c r="H9">
         <v>0.96446581729690795</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.95053485713047403</v>
       </c>
-      <c r="E2">
+      <c r="K9">
         <v>0.10444642460588401</v>
       </c>
-      <c r="F2">
+      <c r="L9">
         <v>0.32055404520773301</v>
       </c>
-      <c r="G2">
+      <c r="M9">
         <v>0.21330825245606999</v>
       </c>
-      <c r="H2">
+      <c r="N9">
         <v>1.54911994242073E-2</v>
       </c>
-      <c r="I2">
+      <c r="O9">
         <v>1.68707293700469E-2</v>
       </c>
-      <c r="J2">
+      <c r="P9">
         <v>8.5785852783950303E-2</v>
       </c>
-      <c r="K2">
+      <c r="Q9">
         <v>0.28116662816882398</v>
       </c>
-      <c r="L2">
+      <c r="R9">
         <v>0.17916557675916001</v>
       </c>
-      <c r="M2">
+      <c r="S9">
         <v>3.8402112020317201E-2</v>
       </c>
-      <c r="N2">
+      <c r="T9">
         <v>1.07160408156014E-2</v>
       </c>
-      <c r="O2">
+      <c r="U9">
         <v>0.13627575423867599</v>
       </c>
-      <c r="P2">
+      <c r="V9">
         <v>3.7150996681641797E-2</v>
       </c>
-      <c r="Q2">
+      <c r="W9">
         <v>0.29004014521856802</v>
       </c>
-      <c r="R2">
+      <c r="X9">
         <v>0.219409668827792</v>
       </c>
-      <c r="S2">
+      <c r="Y9">
         <v>0.28107735495657199</v>
       </c>
-      <c r="T2">
+      <c r="Z9">
         <v>0.35348216969228502</v>
       </c>
-      <c r="U2">
+      <c r="AA9">
         <v>2.8463558181706702E-2</v>
       </c>
-      <c r="V2">
+      <c r="AB9">
         <v>6.5922762715809893E-2</v>
       </c>
-      <c r="W2">
+      <c r="AC9" s="2">
         <v>0.50565275980384805</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.95678372979580295</v>
+      </c>
+      <c r="B10">
+        <v>0.555768084101815</v>
+      </c>
+      <c r="C10">
+        <v>0.87702762477229301</v>
+      </c>
+      <c r="D10">
+        <v>0.93349421972059798</v>
+      </c>
+      <c r="E10">
+        <v>0.97030886422489204</v>
+      </c>
+      <c r="F10">
+        <v>0.97316913301644103</v>
+      </c>
+      <c r="G10">
         <v>0.49839964028057399</v>
       </c>
-      <c r="B3">
+      <c r="H10">
         <v>0.88040216559004203</v>
       </c>
-      <c r="C3">
+      <c r="I10">
         <v>0.95053485713047403</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>8.5771258680892207E-2</v>
       </c>
-      <c r="F3">
+      <c r="L10">
         <v>0.31629454025968001</v>
       </c>
-      <c r="G3">
+      <c r="M10">
         <v>0.18920224533485699</v>
       </c>
-      <c r="H3">
+      <c r="N10">
         <v>8.62233906769325E-3</v>
       </c>
-      <c r="I3">
+      <c r="O10">
         <v>3.3486277480909203E-2</v>
       </c>
-      <c r="J3">
+      <c r="P10">
         <v>7.5352871440799801E-2</v>
       </c>
-      <c r="K3">
+      <c r="Q10">
         <v>0.27474795473110403</v>
       </c>
-      <c r="L3">
+      <c r="R10">
         <v>0.163468106177384</v>
       </c>
-      <c r="M3">
+      <c r="S10">
         <v>3.4479073629430597E-2</v>
       </c>
-      <c r="N3">
+      <c r="T10">
         <v>1.8179021595725601E-2</v>
       </c>
-      <c r="O3">
+      <c r="U10">
         <v>0.130780089702798</v>
       </c>
-      <c r="P3">
+      <c r="V10">
         <v>2.7047089215072598E-2</v>
       </c>
-      <c r="Q3">
+      <c r="W10">
         <v>0.28156528148631699</v>
       </c>
-      <c r="R3">
+      <c r="X10">
         <v>0.21389465609417199</v>
       </c>
-      <c r="S3">
+      <c r="Y10">
         <v>0.34789466110508199</v>
       </c>
-      <c r="T3">
+      <c r="Z10">
         <v>0.340923441574291</v>
       </c>
-      <c r="U3">
+      <c r="AA10">
         <v>2.7299588452468299E-2</v>
       </c>
-      <c r="V3">
+      <c r="AB10">
         <v>0.13948395704053701</v>
       </c>
-      <c r="W3">
+      <c r="AC10">
         <v>0.48161433028242401</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.113172987127676</v>
+      </c>
+      <c r="B11">
+        <v>1.20306848564432E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.12575706464198499</v>
+      </c>
+      <c r="D11">
+        <v>0.120083364197064</v>
+      </c>
+      <c r="E11">
+        <v>0.102234077568993</v>
+      </c>
+      <c r="F11">
+        <v>9.8152532327856798E-2</v>
+      </c>
+      <c r="G11">
         <v>2.60209295863E-2</v>
       </c>
-      <c r="B4">
+      <c r="H11">
         <v>0.111708524411927</v>
       </c>
-      <c r="C4">
+      <c r="I11">
         <v>0.10444642460588401</v>
       </c>
-      <c r="D4">
+      <c r="J11">
         <v>8.5771258680892207E-2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.27578626965369002</v>
       </c>
-      <c r="G4">
+      <c r="M11" s="1">
         <v>0.88959817962309495</v>
       </c>
-      <c r="H4">
+      <c r="N11" s="1">
         <v>0.94605131510616403</v>
       </c>
-      <c r="I4">
+      <c r="O11" s="1">
         <v>0.92580282771605404</v>
       </c>
-      <c r="J4">
+      <c r="P11" s="1">
         <v>0.91143713779179003</v>
       </c>
-      <c r="K4">
+      <c r="Q11">
         <v>0.25333865842901299</v>
       </c>
-      <c r="L4">
+      <c r="R11" s="1">
         <v>0.84465465118655803</v>
       </c>
-      <c r="M4">
+      <c r="S11" s="1">
         <v>0.87144200240227798</v>
       </c>
-      <c r="N4">
+      <c r="T11" s="1">
         <v>0.86092911772831304</v>
       </c>
-      <c r="O4">
+      <c r="U11">
         <v>3.99893877289575E-2</v>
       </c>
-      <c r="P4">
+      <c r="V11">
         <v>0.114424569016772</v>
       </c>
-      <c r="Q4">
+      <c r="W11">
         <v>5.4330644181633199E-2</v>
       </c>
-      <c r="R4">
+      <c r="X11">
         <v>0.14202225393239801</v>
       </c>
-      <c r="S4">
+      <c r="Y11">
         <v>3.4410927697284301E-2</v>
       </c>
-      <c r="T4">
+      <c r="Z11">
         <v>9.0095247115325405E-2</v>
       </c>
-      <c r="U4">
+      <c r="AA11">
         <v>7.08177726695698E-3</v>
       </c>
-      <c r="V4">
+      <c r="AB11">
         <v>7.7527476029269696E-2</v>
       </c>
-      <c r="W4">
+      <c r="AC11">
         <v>1.53032477776083E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.34115959471486701</v>
+      </c>
+      <c r="B12">
+        <v>0.14265613661262999</v>
+      </c>
+      <c r="C12">
+        <v>0.33104145704724802</v>
+      </c>
+      <c r="D12">
+        <v>0.35029566246730698</v>
+      </c>
+      <c r="E12">
+        <v>0.33808535300760101</v>
+      </c>
+      <c r="F12">
+        <v>0.31151821756270598</v>
+      </c>
+      <c r="G12">
         <v>0.12148833135184001</v>
       </c>
-      <c r="B5">
+      <c r="H12">
         <v>0.293695974196023</v>
       </c>
-      <c r="C5">
+      <c r="I12">
         <v>0.32055404520773301</v>
       </c>
-      <c r="D5">
+      <c r="J12">
         <v>0.31629454025968001</v>
       </c>
-      <c r="E5">
+      <c r="K12">
         <v>0.27578626965369002</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>2.8545994934970498E-2</v>
       </c>
-      <c r="H5">
+      <c r="N12">
         <v>0.39681062258060201</v>
       </c>
-      <c r="I5">
+      <c r="O12" s="2">
         <v>0.56395009693387899</v>
       </c>
-      <c r="J5">
+      <c r="P12">
         <v>0.19614922397545101</v>
       </c>
-      <c r="K5">
+      <c r="Q12" s="1">
         <v>0.80351147397184997</v>
       </c>
-      <c r="L5">
+      <c r="R12">
         <v>9.5196526602240195E-3</v>
       </c>
-      <c r="M5">
+      <c r="S12">
         <v>0.278263105234971</v>
       </c>
-      <c r="N5">
+      <c r="T12">
         <v>0.38995469728627402</v>
       </c>
-      <c r="O5">
+      <c r="U12">
         <v>0.13260781052419099</v>
       </c>
-      <c r="P5">
+      <c r="V12">
         <v>8.0423512540613404E-2</v>
       </c>
-      <c r="Q5">
+      <c r="W12">
         <v>0.100932393733425</v>
       </c>
-      <c r="R5">
+      <c r="X12">
         <v>7.94956543993105E-2</v>
       </c>
-      <c r="S5">
+      <c r="Y12">
         <v>2.75369069933433E-2</v>
       </c>
-      <c r="T5">
+      <c r="Z12">
         <v>0.21964600176159699</v>
       </c>
-      <c r="U5">
+      <c r="AA12">
         <v>1.5933282565371101E-2</v>
       </c>
-      <c r="V5">
+      <c r="AB12">
         <v>5.8516792658285702E-2</v>
       </c>
-      <c r="W5">
+      <c r="AC12">
         <v>0.28058635577771601</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.22907779885357399</v>
+      </c>
+      <c r="B13">
+        <v>4.4404440573825997E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.23863021470945001</v>
+      </c>
+      <c r="D13">
+        <v>0.23868195888145399</v>
+      </c>
+      <c r="E13">
+        <v>0.21723090024709599</v>
+      </c>
+      <c r="F13">
+        <v>0.20371392362388699</v>
+      </c>
+      <c r="G13">
         <v>3.5489305194162102E-3</v>
       </c>
-      <c r="B6">
+      <c r="H13">
         <v>0.21545047725956001</v>
       </c>
-      <c r="C6">
+      <c r="I13">
         <v>0.21330825245606999</v>
       </c>
-      <c r="D6">
+      <c r="J13">
         <v>0.18920224533485699</v>
       </c>
-      <c r="E6">
+      <c r="K13">
         <v>0.88959817962309495</v>
       </c>
-      <c r="F6">
+      <c r="L13">
         <v>2.8545994934970498E-2</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
         <v>0.80307808142899895</v>
       </c>
-      <c r="I6">
+      <c r="O13" s="2">
         <v>0.69816293932939</v>
       </c>
-      <c r="J6">
+      <c r="P13" s="1">
         <v>0.83800857801575901</v>
       </c>
-      <c r="K6">
+      <c r="Q13">
         <v>2.4965450447680101E-2</v>
       </c>
-      <c r="L6">
+      <c r="R13" s="1">
         <v>0.86811284390945198</v>
       </c>
-      <c r="M6">
+      <c r="S13" s="1">
         <v>0.78587833493759496</v>
       </c>
-      <c r="N6">
+      <c r="T13" s="2">
         <v>0.724579889769006</v>
       </c>
-      <c r="O6">
+      <c r="U13">
         <v>8.8221345039285207E-2</v>
       </c>
-      <c r="P6">
+      <c r="V13">
         <v>8.4883152045470103E-2</v>
       </c>
-      <c r="Q6">
+      <c r="W13">
         <v>5.3339923085464799E-2</v>
       </c>
-      <c r="R6">
+      <c r="X13">
         <v>0.15879850728716199</v>
       </c>
-      <c r="S6">
+      <c r="Y13">
         <v>5.7719905408489897E-2</v>
       </c>
-      <c r="T6">
+      <c r="Z13">
         <v>0.12800628424369301</v>
       </c>
-      <c r="U6">
+      <c r="AA13">
         <v>1.02397837561866E-2</v>
       </c>
-      <c r="V6">
+      <c r="AB13">
         <v>9.9535844623857103E-2</v>
       </c>
-      <c r="W6">
+      <c r="AC13">
         <v>5.1819319994593098E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.5794023288139602E-2</v>
+      </c>
+      <c r="B14">
+        <v>8.0660677562544806E-3</v>
+      </c>
+      <c r="C14">
+        <v>3.0022181442773001E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.0113716672844199E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.3707414899719201E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.3240658932178699E-2</v>
+      </c>
+      <c r="G14">
         <v>2.5538830308028299E-2</v>
       </c>
-      <c r="B7">
+      <c r="H14">
         <v>2.0664738178100699E-2</v>
       </c>
-      <c r="C7">
+      <c r="I14">
         <v>1.54911994242073E-2</v>
       </c>
-      <c r="D7">
+      <c r="J14">
         <v>8.62233906769325E-3</v>
       </c>
-      <c r="E7">
+      <c r="K14">
         <v>0.94605131510616403</v>
       </c>
-      <c r="F7">
+      <c r="L14">
         <v>0.39681062258060201</v>
       </c>
-      <c r="G7">
+      <c r="M14">
         <v>0.80307808142899895</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
         <v>0.896987103390671</v>
       </c>
-      <c r="J7">
+      <c r="P14" s="1">
         <v>0.85955169974949897</v>
       </c>
-      <c r="K7">
+      <c r="Q14">
         <v>0.36095695805411399</v>
       </c>
-      <c r="L7">
+      <c r="R14" s="1">
         <v>0.77568019538506905</v>
       </c>
-      <c r="M7">
+      <c r="S14" s="1">
         <v>0.85352410788555899</v>
       </c>
-      <c r="N7">
+      <c r="T14" s="1">
         <v>0.84259639602301994</v>
       </c>
-      <c r="O7">
+      <c r="U14">
         <v>2.2708113003953902E-2</v>
       </c>
-      <c r="P7">
+      <c r="V14">
         <v>9.9508943386423798E-2</v>
       </c>
-      <c r="Q7">
+      <c r="W14">
         <v>9.7833039906297103E-2</v>
       </c>
-      <c r="R7">
+      <c r="X14">
         <v>0.126006407998906</v>
       </c>
-      <c r="S7">
+      <c r="Y14">
         <v>2.4895158077189401E-2</v>
       </c>
-      <c r="T7">
+      <c r="Z14">
         <v>2.4423703944394099E-2</v>
       </c>
-      <c r="U7">
+      <c r="AA14">
         <v>5.9683856549723599E-3</v>
       </c>
-      <c r="V7">
+      <c r="AB14">
         <v>3.6364814386941897E-2</v>
       </c>
-      <c r="W7">
+      <c r="AC14">
         <v>9.0725433206386194E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.6629435943890301E-2</v>
+      </c>
+      <c r="B15">
+        <v>5.4934721740359502E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.9649318399810799E-4</v>
+      </c>
+      <c r="D15">
+        <v>1.51112313089502E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.6819183143774499E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.8365597685837599E-2</v>
+      </c>
+      <c r="G15">
         <v>7.0761124121124702E-2</v>
       </c>
-      <c r="B8">
+      <c r="H15">
         <v>2.1105429861120401E-3</v>
       </c>
-      <c r="C8">
+      <c r="I15">
         <v>1.68707293700469E-2</v>
       </c>
-      <c r="D8">
+      <c r="J15">
         <v>3.3486277480909203E-2</v>
       </c>
-      <c r="E8">
+      <c r="K15">
         <v>0.92580282771605404</v>
       </c>
-      <c r="F8">
+      <c r="L15">
         <v>0.56395009693387899</v>
       </c>
-      <c r="G8">
+      <c r="M15">
         <v>0.69816293932939</v>
       </c>
-      <c r="H8">
+      <c r="N15">
         <v>0.896987103390671</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
         <v>0.82040879838196601</v>
       </c>
-      <c r="K8">
+      <c r="Q15">
         <v>0.47188232834410498</v>
       </c>
-      <c r="L8">
+      <c r="R15" s="2">
         <v>0.69208860464500799</v>
       </c>
-      <c r="M8">
+      <c r="S15" s="1">
         <v>0.80651056783448105</v>
       </c>
-      <c r="N8">
+      <c r="T15" s="1">
         <v>0.84713875591350496</v>
       </c>
-      <c r="O8">
+      <c r="U15">
         <v>1.83516804865568E-2</v>
       </c>
-      <c r="P8">
+      <c r="V15">
         <v>0.11951422993741399</v>
       </c>
-      <c r="Q8">
+      <c r="W15">
         <v>6.37324317419007E-2</v>
       </c>
-      <c r="R8">
+      <c r="X15">
         <v>8.8726471422439696E-2</v>
       </c>
-      <c r="S8">
+      <c r="Y15">
         <v>4.36375780656275E-2</v>
       </c>
-      <c r="T8">
+      <c r="Z15">
         <v>6.4293287436189197E-3</v>
       </c>
-      <c r="U8">
+      <c r="AA15">
         <v>6.8308415070904998E-4</v>
       </c>
-      <c r="V8">
+      <c r="AB15">
         <v>5.3147237035493997E-2</v>
       </c>
-      <c r="W8">
+      <c r="AC15">
         <v>9.7294595753148E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.10173352688390599</v>
+      </c>
+      <c r="B16">
+        <v>2.3230563325491699E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.105308603384593</v>
+      </c>
+      <c r="D16">
+        <v>0.10628413420221999</v>
+      </c>
+      <c r="E16">
+        <v>9.6240256888928594E-2</v>
+      </c>
+      <c r="F16">
+        <v>8.2522969546320907E-2</v>
+      </c>
+      <c r="G16">
         <v>3.35997975028718E-3</v>
       </c>
-      <c r="B9">
+      <c r="H16">
         <v>8.8389335062319094E-2</v>
       </c>
-      <c r="C9">
+      <c r="I16">
         <v>8.5785852783950303E-2</v>
       </c>
-      <c r="D9">
+      <c r="J16">
         <v>7.5352871440799801E-2</v>
       </c>
-      <c r="E9">
+      <c r="K16">
         <v>0.91143713779179003</v>
       </c>
-      <c r="F9">
+      <c r="L16">
         <v>0.19614922397545101</v>
       </c>
-      <c r="G9">
+      <c r="M16">
         <v>0.83800857801575901</v>
       </c>
-      <c r="H9">
+      <c r="N16">
         <v>0.85955169974949897</v>
       </c>
-      <c r="I9">
+      <c r="O16">
         <v>0.82040879838196601</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>0.284869227632288</v>
       </c>
-      <c r="L9">
+      <c r="R16" s="1">
         <v>0.92765792574171602</v>
       </c>
-      <c r="M9">
+      <c r="S16" s="1">
         <v>0.96214729589258197</v>
       </c>
-      <c r="N9">
+      <c r="T16" s="1">
         <v>0.94619943750638602</v>
       </c>
-      <c r="O9">
+      <c r="U16">
         <v>2.0614724917425501E-2</v>
       </c>
-      <c r="P9">
+      <c r="V16">
         <v>1.8743326660390702E-2</v>
       </c>
-      <c r="Q9">
+      <c r="W16">
         <v>9.4292482708652106E-2</v>
       </c>
-      <c r="R9">
+      <c r="X16">
         <v>0.151122596775564</v>
       </c>
-      <c r="S9">
+      <c r="Y16">
         <v>3.0681722389620501E-2</v>
       </c>
-      <c r="T9">
+      <c r="Z16">
         <v>7.8150168826397401E-2</v>
       </c>
-      <c r="U9">
+      <c r="AA16">
         <v>4.2155212740224096E-3</v>
       </c>
-      <c r="V9">
+      <c r="AB16">
         <v>6.2485741614802602E-2</v>
       </c>
-      <c r="W9">
+      <c r="AC16">
         <v>5.6789763440177499E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.29079711141890202</v>
+      </c>
+      <c r="B17">
+        <v>0.111653601159766</v>
+      </c>
+      <c r="C17">
+        <v>0.28622987983189302</v>
+      </c>
+      <c r="D17">
+        <v>0.30255468416822101</v>
+      </c>
+      <c r="E17">
+        <v>0.28678332019944303</v>
+      </c>
+      <c r="F17">
+        <v>0.26939189092993698</v>
+      </c>
+      <c r="G17">
         <v>0.106771533459264</v>
       </c>
-      <c r="B10">
+      <c r="H17">
         <v>0.25409663756643902</v>
       </c>
-      <c r="C10">
+      <c r="I17">
         <v>0.28116662816882398</v>
       </c>
-      <c r="D10">
+      <c r="J17">
         <v>0.27474795473110403</v>
       </c>
-      <c r="E10">
+      <c r="K17">
         <v>0.25333865842901299</v>
       </c>
-      <c r="F10">
+      <c r="L17">
         <v>0.80351147397184897</v>
       </c>
-      <c r="G10">
+      <c r="M17">
         <v>2.4965450447680101E-2</v>
       </c>
-      <c r="H10">
+      <c r="N17">
         <v>0.36095695805411399</v>
       </c>
-      <c r="I10">
+      <c r="O17">
         <v>0.47188232834410498</v>
       </c>
-      <c r="J10">
+      <c r="P17">
         <v>0.284869227632288</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>4.1804339034018201E-2</v>
       </c>
-      <c r="M10">
+      <c r="S17">
         <v>0.373251983299343</v>
       </c>
-      <c r="N10">
+      <c r="T17" s="2">
         <v>0.52624658190538698</v>
       </c>
-      <c r="O10">
+      <c r="U17">
         <v>0.172938409803049</v>
       </c>
-      <c r="P10">
+      <c r="V17">
         <v>2.6530278405184501E-2</v>
       </c>
-      <c r="Q10">
+      <c r="W17">
         <v>0.105433860361869</v>
       </c>
-      <c r="R10">
+      <c r="X17">
         <v>6.5419711388027699E-2</v>
       </c>
-      <c r="S10">
+      <c r="Y17">
         <v>2.47720044013688E-2</v>
       </c>
-      <c r="T10">
+      <c r="Z17">
         <v>0.19470074750296201</v>
       </c>
-      <c r="U10">
+      <c r="AA17">
         <v>1.5757728143657699E-2</v>
       </c>
-      <c r="V10">
+      <c r="AB17">
         <v>4.7078891148929103E-2</v>
       </c>
-      <c r="W10">
+      <c r="AC17">
         <v>0.30418114825244302</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.198303551289088</v>
+      </c>
+      <c r="B18">
+        <v>5.5075828053192902E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.20124607582510701</v>
+      </c>
+      <c r="D18">
+        <v>0.205781864542148</v>
+      </c>
+      <c r="E18">
+        <v>0.190669196441315</v>
+      </c>
+      <c r="F18">
+        <v>0.172990907685736</v>
+      </c>
+      <c r="G18">
         <v>1.60212922204441E-2</v>
       </c>
-      <c r="B11">
+      <c r="H18">
         <v>0.17755671601524101</v>
       </c>
-      <c r="C11">
+      <c r="I18">
         <v>0.17916557675916001</v>
       </c>
-      <c r="D11">
+      <c r="J18">
         <v>0.163468106177384</v>
       </c>
-      <c r="E11">
+      <c r="K18">
         <v>0.84465465118655803</v>
       </c>
-      <c r="F11">
+      <c r="L18">
         <v>9.5196526602240195E-3</v>
       </c>
-      <c r="G11">
+      <c r="M18">
         <v>0.86811284390945198</v>
       </c>
-      <c r="H11">
+      <c r="N18">
         <v>0.77568019538506905</v>
       </c>
-      <c r="I11">
+      <c r="O18">
         <v>0.69208860464500799</v>
       </c>
-      <c r="J11">
+      <c r="P18">
         <v>0.92765792574171602</v>
       </c>
-      <c r="K11">
+      <c r="Q18">
         <v>4.1804339034018201E-2</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
         <v>0.87039413366157103</v>
       </c>
-      <c r="N11">
+      <c r="T18" s="1">
         <v>0.79651211379422604</v>
       </c>
-      <c r="O11">
+      <c r="U18">
         <v>8.5270726215089507E-2</v>
       </c>
-      <c r="P11">
+      <c r="V18">
         <v>1.1235596416048399E-2</v>
       </c>
-      <c r="Q11">
+      <c r="W18">
         <v>8.6143072550039806E-2</v>
       </c>
-      <c r="R11">
+      <c r="X18">
         <v>0.17133197393784499</v>
       </c>
-      <c r="S11">
+      <c r="Y18">
         <v>3.6169976359886599E-2</v>
       </c>
-      <c r="T11">
+      <c r="Z18">
         <v>0.11833249912396</v>
       </c>
-      <c r="U11">
+      <c r="AA18">
         <v>8.6876660169394899E-3</v>
       </c>
-      <c r="V11">
+      <c r="AB18">
         <v>7.5036475809923703E-2</v>
       </c>
-      <c r="W11">
+      <c r="AC18">
         <v>2.7514883167438099E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5.4098252545088203E-2</v>
+      </c>
+      <c r="B19">
+        <v>1.8748265391059699E-2</v>
+      </c>
+      <c r="C19">
+        <v>5.2952396689144199E-2</v>
+      </c>
+      <c r="D19">
+        <v>5.7241409371948299E-2</v>
+      </c>
+      <c r="E19">
+        <v>5.32151213224921E-2</v>
+      </c>
+      <c r="F19">
+        <v>3.76344812670718E-2</v>
+      </c>
+      <c r="G19">
         <v>3.02479866267789E-3</v>
       </c>
-      <c r="B12">
+      <c r="H19">
         <v>4.0043391024308601E-2</v>
       </c>
-      <c r="C12">
+      <c r="I19">
         <v>3.8402112020317201E-2</v>
       </c>
-      <c r="D12">
+      <c r="J19">
         <v>3.4479073629430597E-2</v>
       </c>
-      <c r="E12">
+      <c r="K19">
         <v>0.87144200240227798</v>
       </c>
-      <c r="F12">
+      <c r="L19">
         <v>0.278263105234971</v>
       </c>
-      <c r="G12">
+      <c r="M19">
         <v>0.78587833493759496</v>
       </c>
-      <c r="H12">
+      <c r="N19">
         <v>0.85352410788555899</v>
       </c>
-      <c r="I12">
+      <c r="O19">
         <v>0.80651056783448105</v>
       </c>
-      <c r="J12">
+      <c r="P19">
         <v>0.96214729589258197</v>
       </c>
-      <c r="K12">
+      <c r="Q19">
         <v>0.373251983299343</v>
       </c>
-      <c r="L12">
+      <c r="R19">
         <v>0.87039413366157103</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
         <v>0.92397326029680804</v>
       </c>
-      <c r="O12">
+      <c r="U19">
         <v>1.34580833299508E-2</v>
       </c>
-      <c r="P12">
+      <c r="V19">
         <v>1.4475297036960001E-2</v>
       </c>
-      <c r="Q12">
+      <c r="W19">
         <v>0.120630199005689</v>
       </c>
-      <c r="R12">
+      <c r="X19">
         <v>0.13656623945659899</v>
       </c>
-      <c r="S12">
+      <c r="Y19">
         <v>2.0119605671268401E-2</v>
       </c>
-      <c r="T12">
+      <c r="Z19">
         <v>4.1432837086401303E-2</v>
       </c>
-      <c r="U12">
+      <c r="AA19">
         <v>7.4809169091167704E-4</v>
       </c>
-      <c r="V12">
+      <c r="AB19">
         <v>3.8102022257466901E-2</v>
       </c>
-      <c r="W12">
+      <c r="AC19">
         <v>9.1711651071656602E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5.7616138312173101E-4</v>
+      </c>
+      <c r="B20">
+        <v>1.47872029919292E-2</v>
+      </c>
+      <c r="C20">
+        <v>5.60587823879831E-3</v>
+      </c>
+      <c r="D20">
+        <v>7.0101573736183395E-4</v>
+      </c>
+      <c r="E20">
+        <v>3.32698550129449E-3</v>
+      </c>
+      <c r="F20">
+        <v>9.9826812762724305E-3</v>
+      </c>
+      <c r="G20">
         <v>3.6903519882185397E-2</v>
       </c>
-      <c r="B13">
+      <c r="H20">
         <v>3.85567460356028E-4</v>
       </c>
-      <c r="C13">
+      <c r="I20">
         <v>1.07160408156014E-2</v>
       </c>
-      <c r="D13">
+      <c r="J20">
         <v>1.8179021595725601E-2</v>
       </c>
-      <c r="E13">
+      <c r="K20">
         <v>0.86092911772831404</v>
       </c>
-      <c r="F13">
+      <c r="L20">
         <v>0.38995469728627402</v>
       </c>
-      <c r="G13">
+      <c r="M20">
         <v>0.724579889769006</v>
       </c>
-      <c r="H13">
+      <c r="N20">
         <v>0.84259639602302105</v>
       </c>
-      <c r="I13">
+      <c r="O20">
         <v>0.84713875591350496</v>
       </c>
-      <c r="J13">
+      <c r="P20">
         <v>0.94619943750638602</v>
       </c>
-      <c r="K13">
+      <c r="Q20">
         <v>0.52624658190538698</v>
       </c>
-      <c r="L13">
+      <c r="R20">
         <v>0.79651211379422604</v>
       </c>
-      <c r="M13">
+      <c r="S20">
         <v>0.92397326029680804</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
         <v>3.9560243350861002E-2</v>
       </c>
-      <c r="P13">
+      <c r="V20">
         <v>2.2686792728117699E-2</v>
       </c>
-      <c r="Q13">
+      <c r="W20">
         <v>0.106431777462989</v>
       </c>
-      <c r="R13">
+      <c r="X20">
         <v>0.10907496275817399</v>
       </c>
-      <c r="S13">
+      <c r="Y20">
         <v>3.5702995203141498E-2</v>
       </c>
-      <c r="T13">
+      <c r="Z20">
         <v>1.28787559395275E-2</v>
       </c>
-      <c r="U13">
+      <c r="AA20">
         <v>1.4824647774797201E-3</v>
       </c>
-      <c r="V13">
+      <c r="AB20">
         <v>4.23632626466127E-2</v>
       </c>
-      <c r="W13">
+      <c r="AC20">
         <v>0.14005560108881099</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.153351903346444</v>
+      </c>
+      <c r="B21">
+        <v>3.7826804352279003E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.157682632490383</v>
+      </c>
+      <c r="D21">
+        <v>0.15681216165957201</v>
+      </c>
+      <c r="E21">
+        <v>0.14169602655242799</v>
+      </c>
+      <c r="F21">
+        <v>0.13507339291227899</v>
+      </c>
+      <c r="G21">
         <v>3.4057813644192997E-2</v>
       </c>
-      <c r="B14">
+      <c r="H21">
         <v>0.13360916117968</v>
       </c>
-      <c r="C14">
+      <c r="I21">
         <v>0.13627575423867599</v>
       </c>
-      <c r="D14">
+      <c r="J21">
         <v>0.130780089702798</v>
       </c>
-      <c r="E14">
+      <c r="K21">
         <v>3.99893877289575E-2</v>
       </c>
-      <c r="F14">
+      <c r="L21">
         <v>0.13260781052419099</v>
       </c>
-      <c r="G14">
+      <c r="M21">
         <v>8.8221345039285207E-2</v>
       </c>
-      <c r="H14">
+      <c r="N21">
         <v>2.2708113003953902E-2</v>
       </c>
-      <c r="I14">
+      <c r="O21">
         <v>1.83516804865568E-2</v>
       </c>
-      <c r="J14">
+      <c r="P21">
         <v>2.0614724917425501E-2</v>
       </c>
-      <c r="K14">
+      <c r="Q21">
         <v>0.172938409803049</v>
       </c>
-      <c r="L14">
+      <c r="R21">
         <v>8.5270726215089507E-2</v>
       </c>
-      <c r="M14">
+      <c r="S21">
         <v>1.34580833299508E-2</v>
       </c>
-      <c r="N14">
+      <c r="T21">
         <v>3.9560243350861002E-2</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
         <v>0.27929124106167702</v>
       </c>
-      <c r="Q14">
+      <c r="W21">
         <v>6.9014292351347206E-2</v>
       </c>
-      <c r="R14">
+      <c r="X21">
         <v>5.5352439518036901E-2</v>
       </c>
-      <c r="S14">
+      <c r="Y21">
         <v>6.0057321952858298E-3</v>
       </c>
-      <c r="T14">
+      <c r="Z21">
         <v>0.12012628219918001</v>
       </c>
-      <c r="U14">
+      <c r="AA21">
         <v>3.0987416661359402E-2</v>
       </c>
-      <c r="V14">
+      <c r="AB21">
         <v>5.46081624747283E-2</v>
       </c>
-      <c r="W14">
+      <c r="AC21">
         <v>0.309394902337157</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3.8087336675637198E-2</v>
+      </c>
+      <c r="B22">
+        <v>1.7142564275032399E-2</v>
+      </c>
+      <c r="C22">
+        <v>5.15444342931973E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.5219300710328597E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.3379572851831398E-2</v>
+      </c>
+      <c r="F22">
+        <v>3.8074252623535101E-2</v>
+      </c>
+      <c r="G22">
         <v>2.0569883321482001E-2</v>
       </c>
-      <c r="B15">
+      <c r="H22">
         <v>4.9111205683153199E-2</v>
       </c>
-      <c r="C15">
+      <c r="I22">
         <v>3.7150996681641797E-2</v>
       </c>
-      <c r="D15">
+      <c r="J22">
         <v>2.7047089215072598E-2</v>
       </c>
-      <c r="E15">
+      <c r="K22">
         <v>0.114424569016772</v>
       </c>
-      <c r="F15">
+      <c r="L22">
         <v>8.0423512540613404E-2</v>
       </c>
-      <c r="G15">
+      <c r="M22">
         <v>8.4883152045470103E-2</v>
       </c>
-      <c r="H15">
+      <c r="N22">
         <v>9.9508943386423701E-2</v>
       </c>
-      <c r="I15">
+      <c r="O22">
         <v>0.11951422993741399</v>
       </c>
-      <c r="J15">
+      <c r="P22">
         <v>1.8743326660390702E-2</v>
       </c>
-      <c r="K15">
+      <c r="Q22">
         <v>2.6530278405184501E-2</v>
       </c>
-      <c r="L15">
+      <c r="R22">
         <v>1.1235596416048399E-2</v>
       </c>
-      <c r="M15">
+      <c r="S22">
         <v>1.4475297036960001E-2</v>
       </c>
-      <c r="N15">
+      <c r="T22">
         <v>2.2686792728117699E-2</v>
       </c>
-      <c r="O15">
+      <c r="U22">
         <v>0.27929124106167702</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>4.2419015328068702E-2</v>
       </c>
-      <c r="R15">
+      <c r="X22">
         <v>0.199698720202309</v>
       </c>
-      <c r="S15">
+      <c r="Y22">
         <v>8.3217358262463501E-2</v>
       </c>
-      <c r="T15">
+      <c r="Z22">
         <v>3.5816546086554997E-2</v>
       </c>
-      <c r="U15">
+      <c r="AA22">
         <v>8.8415260972499292E-3</v>
       </c>
-      <c r="V15">
+      <c r="AB22">
         <v>0.109697311598037</v>
       </c>
-      <c r="W15">
+      <c r="AC22">
         <v>0.16002024632244</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.28204034182511301</v>
+      </c>
+      <c r="B23">
+        <v>0.10216814481931701</v>
+      </c>
+      <c r="C23">
+        <v>0.27914045336700499</v>
+      </c>
+      <c r="D23">
+        <v>0.28321363400245497</v>
+      </c>
+      <c r="E23">
+        <v>0.27161490536751098</v>
+      </c>
+      <c r="F23">
+        <v>0.287481087405627</v>
+      </c>
+      <c r="G23">
         <v>8.9773986614981094E-2</v>
       </c>
-      <c r="B16">
+      <c r="H23">
         <v>0.27809022090124202</v>
       </c>
-      <c r="C16">
+      <c r="I23">
         <v>0.29004014521856802</v>
       </c>
-      <c r="D16">
+      <c r="J23">
         <v>0.28156528148631699</v>
       </c>
-      <c r="E16">
+      <c r="K23">
         <v>5.4330644181633199E-2</v>
       </c>
-      <c r="F16">
+      <c r="L23">
         <v>0.100932393733425</v>
       </c>
-      <c r="G16">
+      <c r="M23">
         <v>5.3339923085464799E-2</v>
       </c>
-      <c r="H16">
+      <c r="N23">
         <v>9.7833039906297103E-2</v>
       </c>
-      <c r="I16">
+      <c r="O23">
         <v>6.37324317419007E-2</v>
       </c>
-      <c r="J16">
+      <c r="P23">
         <v>9.4292482708652106E-2</v>
       </c>
-      <c r="K16">
+      <c r="Q23">
         <v>0.105433860361869</v>
       </c>
-      <c r="L16">
+      <c r="R23">
         <v>8.6143072550039806E-2</v>
       </c>
-      <c r="M16">
+      <c r="S23">
         <v>0.120630199005689</v>
       </c>
-      <c r="N16">
+      <c r="T23">
         <v>0.106431777462989</v>
       </c>
-      <c r="O16">
+      <c r="U23">
         <v>6.9014292351347206E-2</v>
       </c>
-      <c r="P16">
+      <c r="V23">
         <v>4.2419015328068702E-2</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>0.34041460583453798</v>
       </c>
-      <c r="S16">
+      <c r="Y23">
         <v>3.9432359835586302E-2</v>
       </c>
-      <c r="T16">
+      <c r="Z23">
         <v>0.14815097812412401</v>
       </c>
-      <c r="U16">
+      <c r="AA23">
         <v>2.5873677518501701E-2</v>
       </c>
-      <c r="V16">
+      <c r="AB23">
         <v>3.2980110982772197E-2</v>
       </c>
-      <c r="W16">
+      <c r="AC23">
         <v>0.42453009159555299</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.22123013290885299</v>
+      </c>
+      <c r="B24">
+        <v>7.5768095391635301E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.222041978383481</v>
+      </c>
+      <c r="D24">
+        <v>0.224279883312649</v>
+      </c>
+      <c r="E24">
+        <v>0.21159421876138099</v>
+      </c>
+      <c r="F24">
+        <v>0.21716506842429201</v>
+      </c>
+      <c r="G24">
         <v>7.6283795474515997E-2</v>
       </c>
-      <c r="B17">
+      <c r="H24">
         <v>0.20989389764927999</v>
       </c>
-      <c r="C17">
+      <c r="I24">
         <v>0.219409668827792</v>
       </c>
-      <c r="D17">
+      <c r="J24">
         <v>0.21389465609417199</v>
       </c>
-      <c r="E17">
+      <c r="K24">
         <v>0.14202225393239801</v>
       </c>
-      <c r="F17">
+      <c r="L24">
         <v>7.94956543993105E-2</v>
       </c>
-      <c r="G17">
+      <c r="M24">
         <v>0.15879850728716199</v>
       </c>
-      <c r="H17">
+      <c r="N24">
         <v>0.126006407998906</v>
       </c>
-      <c r="I17">
+      <c r="O24">
         <v>8.8726471422439696E-2</v>
       </c>
-      <c r="J17">
+      <c r="P24">
         <v>0.151122596775564</v>
       </c>
-      <c r="K17">
+      <c r="Q24">
         <v>6.5419711388027699E-2</v>
       </c>
-      <c r="L17">
+      <c r="R24">
         <v>0.17133197393784499</v>
       </c>
-      <c r="M17">
+      <c r="S24">
         <v>0.13656623945659899</v>
       </c>
-      <c r="N17">
+      <c r="T24">
         <v>0.10907496275817399</v>
       </c>
-      <c r="O17">
+      <c r="U24">
         <v>5.5352439518036901E-2</v>
       </c>
-      <c r="P17">
+      <c r="V24">
         <v>0.199698720202309</v>
       </c>
-      <c r="Q17">
+      <c r="W24">
         <v>0.34041460583453798</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
         <v>3.19814537714255E-2</v>
       </c>
-      <c r="T17">
+      <c r="Z24">
         <v>0.14238351881369801</v>
       </c>
-      <c r="U17">
+      <c r="AA24">
         <v>2.5867354284198101E-2</v>
       </c>
-      <c r="V17">
+      <c r="AB24">
         <v>7.9617080129373394E-2</v>
       </c>
-      <c r="W17">
+      <c r="AC24">
         <v>0.28866915545397298</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.28950048544475099</v>
+      </c>
+      <c r="B25">
+        <v>0.35094567654212</v>
+      </c>
+      <c r="C25">
+        <v>0.20266403291301199</v>
+      </c>
+      <c r="D25">
+        <v>0.27861323559963602</v>
+      </c>
+      <c r="E25">
+        <v>0.32856069939799398</v>
+      </c>
+      <c r="F25">
+        <v>0.29639544537686402</v>
+      </c>
+      <c r="G25">
         <v>0.38088285355722501</v>
       </c>
-      <c r="B18">
+      <c r="H25">
         <v>0.19798439495534301</v>
       </c>
-      <c r="C18">
+      <c r="I25">
         <v>0.28107735495657199</v>
       </c>
-      <c r="D18">
+      <c r="J25">
         <v>0.34789466110508199</v>
       </c>
-      <c r="E18">
+      <c r="K25">
         <v>3.4410927697284301E-2</v>
       </c>
-      <c r="F18">
+      <c r="L25">
         <v>2.75369069933433E-2</v>
       </c>
-      <c r="G18">
+      <c r="M25">
         <v>5.7719905408489897E-2</v>
       </c>
-      <c r="H18">
+      <c r="N25">
         <v>2.4895158077189401E-2</v>
       </c>
-      <c r="I18">
+      <c r="O25">
         <v>4.36375780656275E-2</v>
       </c>
-      <c r="J18">
+      <c r="P25">
         <v>3.0681722389620501E-2</v>
       </c>
-      <c r="K18">
+      <c r="Q25">
         <v>2.47720044013688E-2</v>
       </c>
-      <c r="L18">
+      <c r="R25">
         <v>3.6169976359886599E-2</v>
       </c>
-      <c r="M18">
+      <c r="S25">
         <v>2.0119605671268401E-2</v>
       </c>
-      <c r="N18">
+      <c r="T25">
         <v>3.5702995203141498E-2</v>
       </c>
-      <c r="O18">
+      <c r="U25">
         <v>6.0057321952858298E-3</v>
       </c>
-      <c r="P18">
+      <c r="V25">
         <v>8.3217358262463501E-2</v>
       </c>
-      <c r="Q18">
+      <c r="W25">
         <v>3.9432359835586302E-2</v>
       </c>
-      <c r="R18">
+      <c r="X25">
         <v>3.19814537714255E-2</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
         <v>2.0752501352939601E-2</v>
       </c>
-      <c r="U18">
+      <c r="AA25">
         <v>1.27447279202923E-2</v>
       </c>
-      <c r="V18">
+      <c r="AB25" s="2">
         <v>0.64470975533145203</v>
       </c>
-      <c r="W18">
+      <c r="AC25">
         <v>1.50527786181428E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.36225121594022403</v>
+      </c>
+      <c r="B26">
+        <v>9.93367989840057E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.35864187491738803</v>
+      </c>
+      <c r="D26">
+        <v>0.37350068219920801</v>
+      </c>
+      <c r="E26">
+        <v>0.35851528053036502</v>
+      </c>
+      <c r="F26">
+        <v>0.34052395093610899</v>
+      </c>
+      <c r="G26">
         <v>5.7489261053674197E-2</v>
       </c>
-      <c r="B19">
+      <c r="H26">
         <v>0.334519020715288</v>
       </c>
-      <c r="C19">
+      <c r="I26">
         <v>0.35348216969228502</v>
       </c>
-      <c r="D19">
+      <c r="J26">
         <v>0.340923441574291</v>
       </c>
-      <c r="E19">
+      <c r="K26">
         <v>9.0095247115325405E-2</v>
       </c>
-      <c r="F19">
+      <c r="L26">
         <v>0.21964600176159699</v>
       </c>
-      <c r="G19">
+      <c r="M26">
         <v>0.12800628424369301</v>
       </c>
-      <c r="H19">
+      <c r="N26">
         <v>2.4423703944394099E-2</v>
       </c>
-      <c r="I19">
+      <c r="O26">
         <v>6.4293287436189197E-3</v>
       </c>
-      <c r="J19">
+      <c r="P26">
         <v>7.8150168826397401E-2</v>
       </c>
-      <c r="K19">
+      <c r="Q26">
         <v>0.19470074750296201</v>
       </c>
-      <c r="L19">
+      <c r="R26">
         <v>0.11833249912396</v>
       </c>
-      <c r="M19">
+      <c r="S26">
         <v>4.1432837086401303E-2</v>
       </c>
-      <c r="N19">
+      <c r="T26">
         <v>1.28787559395275E-2</v>
       </c>
-      <c r="O19">
+      <c r="U26">
         <v>0.12012628219918001</v>
       </c>
-      <c r="P19">
+      <c r="V26">
         <v>3.5816546086554997E-2</v>
       </c>
-      <c r="Q19">
+      <c r="W26">
         <v>0.14815097812412401</v>
       </c>
-      <c r="R19">
+      <c r="X26">
         <v>0.14238351881369801</v>
       </c>
-      <c r="S19">
+      <c r="Y26">
         <v>2.0752501352939601E-2</v>
       </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
         <v>9.1270761905164893E-3</v>
       </c>
-      <c r="V19">
+      <c r="AB26">
         <v>0.43490404258710902</v>
       </c>
-      <c r="W19">
+      <c r="AC26">
         <v>0.24552551147464899</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2.8701061199676799E-2</v>
+      </c>
+      <c r="B27">
+        <v>5.7863509974196998E-3</v>
+      </c>
+      <c r="C27">
+        <v>2.8808248651910302E-2</v>
+      </c>
+      <c r="D27">
+        <v>2.9870792074808802E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.7241844455729702E-2</v>
+      </c>
+      <c r="F27">
+        <v>2.8169463494303201E-2</v>
+      </c>
+      <c r="G27">
         <v>3.7547392853533E-3</v>
       </c>
-      <c r="B20">
+      <c r="H27">
         <v>2.8237067613845201E-2</v>
       </c>
-      <c r="C20">
+      <c r="I27">
         <v>2.8463558181706702E-2</v>
       </c>
-      <c r="D20">
+      <c r="J27">
         <v>2.7299588452468299E-2</v>
       </c>
-      <c r="E20">
+      <c r="K27">
         <v>7.08177726695698E-3</v>
       </c>
-      <c r="F20">
+      <c r="L27">
         <v>1.5933282565371101E-2</v>
       </c>
-      <c r="G20">
+      <c r="M27">
         <v>1.02397837561866E-2</v>
       </c>
-      <c r="H20">
+      <c r="N27">
         <v>5.9683856549723599E-3</v>
       </c>
-      <c r="I20">
+      <c r="O27">
         <v>6.8308415070904998E-4</v>
       </c>
-      <c r="J20">
+      <c r="P27">
         <v>4.2155212740224096E-3</v>
       </c>
-      <c r="K20">
+      <c r="Q27">
         <v>1.5757728143657699E-2</v>
       </c>
-      <c r="L20">
+      <c r="R27">
         <v>8.6876660169394899E-3</v>
       </c>
-      <c r="M20">
+      <c r="S27">
         <v>7.4809169091167704E-4</v>
       </c>
-      <c r="N20">
+      <c r="T27">
         <v>1.4824647774797201E-3</v>
       </c>
-      <c r="O20">
+      <c r="U27">
         <v>3.0987416661359402E-2</v>
       </c>
-      <c r="P20">
+      <c r="V27">
         <v>8.8415260972499292E-3</v>
       </c>
-      <c r="Q20">
+      <c r="W27">
         <v>2.5873677518501701E-2</v>
       </c>
-      <c r="R20">
+      <c r="X27">
         <v>2.5867354284198101E-2</v>
       </c>
-      <c r="S20">
+      <c r="Y27">
         <v>1.27447279202923E-2</v>
       </c>
-      <c r="T20">
+      <c r="Z27">
         <v>9.1270761905164893E-3</v>
       </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
         <v>7.7564473588291102E-3</v>
       </c>
-      <c r="W20">
+      <c r="AC27">
         <v>5.6412648688738798E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7.9374798906019506E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.29467312776758497</v>
+      </c>
+      <c r="C28">
+        <v>4.9020154766130503E-3</v>
+      </c>
+      <c r="D28">
+        <v>5.70187974001874E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.119289585981304</v>
+      </c>
+      <c r="F28">
+        <v>9.2311675570110094E-2</v>
+      </c>
+      <c r="G28">
         <v>0.33468462603076199</v>
       </c>
-      <c r="B21">
+      <c r="H28">
         <v>1.1360473453915301E-3</v>
       </c>
-      <c r="C21">
+      <c r="I28">
         <v>6.5922762715809893E-2</v>
       </c>
-      <c r="D21">
+      <c r="J28">
         <v>0.13948395704053701</v>
       </c>
-      <c r="E21">
+      <c r="K28">
         <v>7.7527476029269696E-2</v>
       </c>
-      <c r="F21">
+      <c r="L28">
         <v>5.8516792658285702E-2</v>
       </c>
-      <c r="G21">
+      <c r="M28">
         <v>9.9535844623857103E-2</v>
       </c>
-      <c r="H21">
+      <c r="N28">
         <v>3.6364814386941897E-2</v>
       </c>
-      <c r="I21">
+      <c r="O28">
         <v>5.3147237035493997E-2</v>
       </c>
-      <c r="J21">
+      <c r="P28">
         <v>6.2485741614802602E-2</v>
       </c>
-      <c r="K21">
+      <c r="Q28">
         <v>4.7078891148929103E-2</v>
       </c>
-      <c r="L21">
+      <c r="R28">
         <v>7.5036475809923703E-2</v>
       </c>
-      <c r="M21">
+      <c r="S28">
         <v>3.8102022257466901E-2</v>
       </c>
-      <c r="N21">
+      <c r="T28">
         <v>4.23632626466127E-2</v>
       </c>
-      <c r="O21">
+      <c r="U28">
         <v>5.46081624747283E-2</v>
       </c>
-      <c r="P21">
+      <c r="V28">
         <v>0.109697311598037</v>
       </c>
-      <c r="Q21">
+      <c r="W28">
         <v>3.2980110982772197E-2</v>
       </c>
-      <c r="R21">
+      <c r="X28">
         <v>7.9617080129373394E-2</v>
       </c>
-      <c r="S21">
+      <c r="Y28">
         <v>0.64470975533145203</v>
       </c>
-      <c r="T21">
+      <c r="Z28">
         <v>0.43490404258710902</v>
       </c>
-      <c r="U21">
+      <c r="AA28">
         <v>7.7564473588291102E-3</v>
       </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
         <v>7.8388782446253996E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.50604064653033698</v>
+      </c>
+      <c r="B29">
+        <v>0.13444547066568699</v>
+      </c>
+      <c r="C29">
+        <v>0.51722745623779798</v>
+      </c>
+      <c r="D29">
+        <v>0.51249995868422804</v>
+      </c>
+      <c r="E29">
+        <v>0.47543836512395399</v>
+      </c>
+      <c r="F29">
+        <v>0.50066790486194701</v>
+      </c>
+      <c r="G29">
         <v>0.12601479750699099</v>
       </c>
-      <c r="B22">
+      <c r="H29">
         <v>0.49546826109992298</v>
       </c>
-      <c r="C22">
+      <c r="I29">
         <v>0.50565275980384805</v>
       </c>
-      <c r="D22">
+      <c r="J29">
         <v>0.48161433028242401</v>
       </c>
-      <c r="E22">
+      <c r="K29">
         <v>1.53032477776083E-2</v>
       </c>
-      <c r="F22">
+      <c r="L29">
         <v>0.28058635577771701</v>
       </c>
-      <c r="G22">
+      <c r="M29">
         <v>5.1819319994593098E-2</v>
       </c>
-      <c r="H22">
+      <c r="N29">
         <v>9.0725433206386194E-2</v>
       </c>
-      <c r="I22">
+      <c r="O29">
         <v>9.7294595753148E-2</v>
       </c>
-      <c r="J22">
+      <c r="P29">
         <v>5.6789763440177499E-2</v>
       </c>
-      <c r="K22">
+      <c r="Q29">
         <v>0.30418114825244302</v>
       </c>
-      <c r="L22">
+      <c r="R29">
         <v>2.7514883167438099E-2</v>
       </c>
-      <c r="M22">
+      <c r="S29">
         <v>9.1711651071656602E-2</v>
       </c>
-      <c r="N22">
+      <c r="T29">
         <v>0.14005560108881099</v>
       </c>
-      <c r="O22">
+      <c r="U29">
         <v>0.309394902337157</v>
       </c>
-      <c r="P22">
+      <c r="V29">
         <v>0.16002024632244</v>
       </c>
-      <c r="Q22">
+      <c r="W29">
         <v>0.42453009159555299</v>
       </c>
-      <c r="R22">
+      <c r="X29">
         <v>0.28866915545397298</v>
       </c>
-      <c r="S22">
+      <c r="Y29">
         <v>1.50527786181428E-2</v>
       </c>
-      <c r="T22">
+      <c r="Z29">
         <v>0.24552551147464899</v>
       </c>
-      <c r="U22">
+      <c r="AA29">
         <v>5.6412648688738798E-2</v>
       </c>
-      <c r="V22">
+      <c r="AB29">
         <v>7.8388782446253996E-2</v>
       </c>
-      <c r="W22">
+      <c r="AC29">
         <v>1</v>
       </c>
     </row>
@@ -1957,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3284AD5B-4565-C34C-8723-D2A522BFCDDD}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>

--- a/CodeForBigDataset/CorrelationMatrix.xlsx
+++ b/CodeForBigDataset/CorrelationMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/GitHub/WIFS2019/CodeForBigDataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192CBA0F-5C2B-D342-975A-7C54FED9C256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED82EF22-BE6E-6540-A698-72CE6C42AF7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="960" windowWidth="27060" windowHeight="16540" xr2:uid="{55118236-F365-C948-9E6E-FBE87E48F168}"/>
+    <workbookView xWindow="1740" yWindow="940" windowWidth="27060" windowHeight="16540" activeTab="1" xr2:uid="{55118236-F365-C948-9E6E-FBE87E48F168}"/>
   </bookViews>
   <sheets>
     <sheet name="Portrait" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +61,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -74,10 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,2592 +399,2772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8583839-AAC1-6841-B64D-C120DD42DBBE}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="30" width="6.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.45852230125281201</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D2" s="1">
         <v>0.95977262639803596</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E2" s="1">
         <v>0.98401540363677498</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F2" s="1">
         <v>0.97616938925209895</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G2" s="1">
         <v>0.98137486122975104</v>
       </c>
-      <c r="G1">
+      <c r="H2">
         <v>0.32349052254753202</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I2" s="1">
         <v>0.943149557875398</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J2" s="1">
         <v>0.97081423220053897</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K2" s="1">
         <v>0.95678372979580295</v>
       </c>
-      <c r="K1">
+      <c r="L2">
         <v>0.113172987127676</v>
       </c>
-      <c r="L1">
+      <c r="M2">
         <v>0.34115959471486701</v>
       </c>
-      <c r="M1">
+      <c r="N2">
         <v>0.22907779885357399</v>
       </c>
-      <c r="N1">
+      <c r="O2">
         <v>2.5794023288139602E-2</v>
       </c>
-      <c r="O1">
+      <c r="P2">
         <v>1.6629435943890301E-2</v>
       </c>
-      <c r="P1">
+      <c r="Q2">
         <v>0.10173352688390599</v>
       </c>
-      <c r="Q1">
+      <c r="R2">
         <v>0.29079711141890202</v>
       </c>
-      <c r="R1">
+      <c r="S2">
         <v>0.198303551289088</v>
       </c>
-      <c r="S1">
+      <c r="T2">
         <v>5.4098252545088203E-2</v>
       </c>
-      <c r="T1">
+      <c r="U2">
         <v>5.7616138312173101E-4</v>
       </c>
-      <c r="U1">
+      <c r="V2">
         <v>0.153351903346443</v>
       </c>
-      <c r="V1">
+      <c r="W2">
         <v>3.8087336675637198E-2</v>
       </c>
-      <c r="W1">
+      <c r="X2">
         <v>0.28204034182511301</v>
       </c>
-      <c r="X1">
+      <c r="Y2">
         <v>0.22123013290885299</v>
       </c>
-      <c r="Y1">
+      <c r="Z2">
         <v>0.28950048544475099</v>
       </c>
-      <c r="Z1">
+      <c r="AA2">
         <v>0.36225121594022403</v>
       </c>
-      <c r="AA1">
+      <c r="AB2">
         <v>2.8701061199676799E-2</v>
       </c>
-      <c r="AB1">
+      <c r="AC2">
         <v>7.9374798906019506E-2</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD2" s="2">
         <v>0.50604064653033698</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>0.45852230125281201</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.21001477442536801</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>0.37187766622141699</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F3" s="2">
         <v>0.58872663558469995</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>0.43356675232776998</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3" s="1">
         <v>0.83198900960697098</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>0.22485428264132701</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>0.36513893280976301</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K3" s="2">
         <v>0.555768084101815</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>1.20306848564432E-3</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>0.14265613661262999</v>
       </c>
-      <c r="M2">
+      <c r="N3">
         <v>4.4404440573825997E-2</v>
       </c>
-      <c r="N2">
+      <c r="O3">
         <v>8.0660677562544806E-3</v>
       </c>
-      <c r="O2">
+      <c r="P3">
         <v>5.4934721740359502E-2</v>
       </c>
-      <c r="P2">
+      <c r="Q3">
         <v>2.3230563325491699E-2</v>
       </c>
-      <c r="Q2">
+      <c r="R3">
         <v>0.111653601159766</v>
       </c>
-      <c r="R2">
+      <c r="S3">
         <v>5.5075828053192902E-2</v>
       </c>
-      <c r="S2">
+      <c r="T3">
         <v>1.8748265391059699E-2</v>
       </c>
-      <c r="T2">
+      <c r="U3">
         <v>1.47872029919292E-2</v>
       </c>
-      <c r="U2">
+      <c r="V3">
         <v>3.7826804352279003E-2</v>
       </c>
-      <c r="V2">
+      <c r="W3">
         <v>1.7142564275032399E-2</v>
       </c>
-      <c r="W2">
+      <c r="X3">
         <v>0.10216814481931701</v>
       </c>
-      <c r="X2">
+      <c r="Y3">
         <v>7.5768095391635301E-2</v>
       </c>
-      <c r="Y2">
+      <c r="Z3">
         <v>0.35094567654212</v>
       </c>
-      <c r="Z2">
+      <c r="AA3">
         <v>9.93367989840057E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AB3">
         <v>5.7863509974196998E-3</v>
       </c>
-      <c r="AB2">
+      <c r="AC3">
         <v>0.29467312776758497</v>
       </c>
-      <c r="AC2">
+      <c r="AD3">
         <v>0.13444547066568699</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>0.95977262639803596</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>0.21001477442536801</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.96210848370451496</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <v>0.88664900697462201</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="1">
         <v>0.94662956888954497</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>0.109678068076419</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I4" s="1">
         <v>0.97318464003975602</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J4" s="1">
         <v>0.95257944820042295</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K4" s="1">
         <v>0.87702762477229301</v>
       </c>
-      <c r="K3">
+      <c r="L4">
         <v>0.12575706464198499</v>
       </c>
-      <c r="L3">
+      <c r="M4">
         <v>0.33104145704724802</v>
       </c>
-      <c r="M3">
+      <c r="N4">
         <v>0.23863021470945001</v>
       </c>
-      <c r="N3">
+      <c r="O4">
         <v>3.0022181442773001E-2</v>
       </c>
-      <c r="O3">
+      <c r="P4">
         <v>1.9649318399810799E-4</v>
       </c>
-      <c r="P3">
+      <c r="Q4">
         <v>0.105308603384593</v>
       </c>
-      <c r="Q3">
+      <c r="R4">
         <v>0.28622987983189302</v>
       </c>
-      <c r="R3">
+      <c r="S4">
         <v>0.20124607582510701</v>
       </c>
-      <c r="S3">
+      <c r="T4">
         <v>5.2952396689144199E-2</v>
       </c>
-      <c r="T3">
+      <c r="U4">
         <v>5.60587823879831E-3</v>
       </c>
-      <c r="U3">
+      <c r="V4">
         <v>0.157682632490383</v>
       </c>
-      <c r="V3">
+      <c r="W4">
         <v>5.15444342931973E-2</v>
       </c>
-      <c r="W3">
+      <c r="X4">
         <v>0.27914045336700499</v>
       </c>
-      <c r="X3">
+      <c r="Y4">
         <v>0.222041978383481</v>
       </c>
-      <c r="Y3">
+      <c r="Z4">
         <v>0.20266403291301199</v>
       </c>
-      <c r="Z3">
+      <c r="AA4">
         <v>0.35864187491738803</v>
       </c>
-      <c r="AA3">
+      <c r="AB4">
         <v>2.8808248651910302E-2</v>
       </c>
-      <c r="AB3">
+      <c r="AC4">
         <v>4.9020154766130503E-3</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AD4" s="2">
         <v>0.51722745623779698</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>0.98401540363677498</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>0.37187766622141699</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>0.96210848370451496</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.95077432614761404</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G5" s="1">
         <v>0.96697598837610099</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>0.24883538309894501</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I5" s="1">
         <v>0.94522706795046796</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J5" s="1">
         <v>0.97700074125868597</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K5" s="1">
         <v>0.93349421972059798</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>0.120083364197064</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>0.35029566246730698</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>0.23868195888145399</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>3.0113716672844199E-2</v>
       </c>
-      <c r="O4">
+      <c r="P5">
         <v>1.51112313089502E-2</v>
       </c>
-      <c r="P4">
+      <c r="Q5">
         <v>0.10628413420221999</v>
       </c>
-      <c r="Q4">
+      <c r="R5">
         <v>0.30255468416822101</v>
       </c>
-      <c r="R4">
+      <c r="S5">
         <v>0.205781864542148</v>
       </c>
-      <c r="S4">
+      <c r="T5">
         <v>5.7241409371948299E-2</v>
       </c>
-      <c r="T4">
+      <c r="U5">
         <v>7.0101573736183504E-4</v>
       </c>
-      <c r="U4">
+      <c r="V5">
         <v>0.15681216165957201</v>
       </c>
-      <c r="V4">
+      <c r="W5">
         <v>3.5219300710328597E-2</v>
       </c>
-      <c r="W4">
+      <c r="X5">
         <v>0.28321363400245497</v>
       </c>
-      <c r="X4">
+      <c r="Y5">
         <v>0.224279883312649</v>
       </c>
-      <c r="Y4">
+      <c r="Z5">
         <v>0.27861323559963602</v>
       </c>
-      <c r="Z4">
+      <c r="AA5">
         <v>0.37350068219920801</v>
       </c>
-      <c r="AA4">
+      <c r="AB5">
         <v>2.9870792074808802E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AC5">
         <v>5.7018797400187497E-2</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD5" s="2">
         <v>0.51249995868422804</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>0.97616938925209895</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>0.58872663558469995</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>0.88664900697462201</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>0.95077432614761404</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.955050121210964</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>0.43876310881800701</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I6" s="1">
         <v>0.87681392395651903</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J6" s="1">
         <v>0.93758775387439097</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K6" s="1">
         <v>0.97030886422489204</v>
       </c>
-      <c r="K5">
+      <c r="L6">
         <v>0.102234077568993</v>
       </c>
-      <c r="L5">
+      <c r="M6">
         <v>0.33808535300760101</v>
       </c>
-      <c r="M5">
+      <c r="N6">
         <v>0.21723090024709599</v>
       </c>
-      <c r="N5">
+      <c r="O6">
         <v>2.3707414899719201E-2</v>
       </c>
-      <c r="O5">
+      <c r="P6">
         <v>2.6819183143774499E-2</v>
       </c>
-      <c r="P5">
+      <c r="Q6">
         <v>9.6240256888928594E-2</v>
       </c>
-      <c r="Q5">
+      <c r="R6">
         <v>0.28678332019944303</v>
       </c>
-      <c r="R5">
+      <c r="S6">
         <v>0.190669196441315</v>
       </c>
-      <c r="S5">
+      <c r="T6">
         <v>5.32151213224921E-2</v>
       </c>
-      <c r="T5">
+      <c r="U6">
         <v>3.32698550129449E-3</v>
       </c>
-      <c r="U5">
+      <c r="V6">
         <v>0.14169602655242799</v>
       </c>
-      <c r="V5">
+      <c r="W6">
         <v>2.3379572851831398E-2</v>
       </c>
-      <c r="W5">
+      <c r="X6">
         <v>0.27161490536751098</v>
       </c>
-      <c r="X5">
+      <c r="Y6">
         <v>0.21159421876138099</v>
       </c>
-      <c r="Y5">
+      <c r="Z6">
         <v>0.32856069939799398</v>
       </c>
-      <c r="Z5">
+      <c r="AA6">
         <v>0.35851528053036502</v>
       </c>
-      <c r="AA5">
+      <c r="AB6">
         <v>2.7241844455729702E-2</v>
       </c>
-      <c r="AB5">
+      <c r="AC6">
         <v>0.119289585981304</v>
       </c>
-      <c r="AC5">
+      <c r="AD6">
         <v>0.47543836512395399</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>0.98137486122975104</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>0.43356675232776998</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>0.94662956888954497</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>0.96697598837610099</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>0.955050121210965</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>0.33091555966685898</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I7" s="1">
         <v>0.96147253989696602</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J7" s="1">
         <v>0.98702061780642603</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K7" s="1">
         <v>0.97316913301644103</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <v>9.8152532327856798E-2</v>
       </c>
-      <c r="L6">
+      <c r="M7">
         <v>0.31151821756270598</v>
       </c>
-      <c r="M6">
+      <c r="N7">
         <v>0.20371392362388699</v>
       </c>
-      <c r="N6">
+      <c r="O7">
         <v>1.3240658932178699E-2</v>
       </c>
-      <c r="O6">
+      <c r="P7">
         <v>1.8365597685837599E-2</v>
       </c>
-      <c r="P6">
+      <c r="Q7">
         <v>8.2522969546320907E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R7">
         <v>0.26939189092993698</v>
       </c>
-      <c r="R6">
+      <c r="S7">
         <v>0.172990907685736</v>
       </c>
-      <c r="S6">
+      <c r="T7">
         <v>3.76344812670718E-2</v>
       </c>
-      <c r="T6">
+      <c r="U7">
         <v>9.9826812762724305E-3</v>
       </c>
-      <c r="U6">
+      <c r="V7">
         <v>0.13507339291227899</v>
       </c>
-      <c r="V6">
+      <c r="W7">
         <v>3.8074252623535101E-2</v>
       </c>
-      <c r="W6">
+      <c r="X7">
         <v>0.287481087405627</v>
       </c>
-      <c r="X6">
+      <c r="Y7">
         <v>0.21716506842429201</v>
       </c>
-      <c r="Y6">
+      <c r="Z7">
         <v>0.29639544537686402</v>
       </c>
-      <c r="Z6">
+      <c r="AA7">
         <v>0.34052395093610899</v>
       </c>
-      <c r="AA6">
+      <c r="AB7">
         <v>2.8169463494303201E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AC7">
         <v>9.2311675570110094E-2</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD7" s="2">
         <v>0.50066790486194701</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>0.32349052254753202</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>0.83198900960697098</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>0.109678068076419</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>0.24883538309894501</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>0.43876310881800701</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>0.33091555966685898</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>7.2505618805756705E-2</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>0.25706800873824798</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>0.49839964028057399</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <v>2.60209295863E-2</v>
       </c>
-      <c r="L7">
+      <c r="M8">
         <v>0.12148833135184001</v>
       </c>
-      <c r="M7">
+      <c r="N8">
         <v>3.5489305194162102E-3</v>
       </c>
-      <c r="N7">
+      <c r="O8">
         <v>2.5538830308028299E-2</v>
       </c>
-      <c r="O7">
+      <c r="P8">
         <v>7.0761124121124702E-2</v>
       </c>
-      <c r="P7">
+      <c r="Q8">
         <v>3.35997975028718E-3</v>
       </c>
-      <c r="Q7">
+      <c r="R8">
         <v>0.106771533459264</v>
       </c>
-      <c r="R7">
+      <c r="S8">
         <v>1.60212922204441E-2</v>
       </c>
-      <c r="S7">
+      <c r="T8">
         <v>3.02479866267789E-3</v>
       </c>
-      <c r="T7">
+      <c r="U8">
         <v>3.6903519882185397E-2</v>
       </c>
-      <c r="U7">
+      <c r="V8">
         <v>3.4057813644192997E-2</v>
       </c>
-      <c r="V7">
+      <c r="W8">
         <v>2.0569883321482001E-2</v>
       </c>
-      <c r="W7">
+      <c r="X8">
         <v>8.9773986614981094E-2</v>
       </c>
-      <c r="X7">
+      <c r="Y8">
         <v>7.6283795474515997E-2</v>
       </c>
-      <c r="Y7">
+      <c r="Z8">
         <v>0.38088285355722501</v>
       </c>
-      <c r="Z7">
+      <c r="AA8">
         <v>5.7489261053674197E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AB8">
         <v>3.7547392853533E-3</v>
       </c>
-      <c r="AB7">
+      <c r="AC8">
         <v>0.33468462603076199</v>
       </c>
-      <c r="AC7">
+      <c r="AD8">
         <v>0.12601479750699099</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>0.943149557875398</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>0.22485428264132701</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>0.97318464003975602</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>0.94522706795046696</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>0.87681392395651903</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>0.96147253989696602</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>7.2505618805756705E-2</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.96446581729690795</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>0.88040216559004203</v>
       </c>
-      <c r="K8">
+      <c r="L9">
         <v>0.111708524411927</v>
       </c>
-      <c r="L8">
+      <c r="M9">
         <v>0.293695974196023</v>
       </c>
-      <c r="M8">
+      <c r="N9">
         <v>0.21545047725956001</v>
       </c>
-      <c r="N8">
+      <c r="O9">
         <v>2.0664738178100699E-2</v>
       </c>
-      <c r="O8">
+      <c r="P9">
         <v>2.1105429861120401E-3</v>
       </c>
-      <c r="P8">
+      <c r="Q9">
         <v>8.8389335062319094E-2</v>
       </c>
-      <c r="Q8">
+      <c r="R9">
         <v>0.25409663756643902</v>
       </c>
-      <c r="R8">
+      <c r="S9">
         <v>0.17755671601524101</v>
       </c>
-      <c r="S8">
+      <c r="T9">
         <v>4.0043391024308601E-2</v>
       </c>
-      <c r="T8">
+      <c r="U9">
         <v>3.85567460356028E-4</v>
       </c>
-      <c r="U8">
+      <c r="V9">
         <v>0.13360916117968</v>
       </c>
-      <c r="V8">
+      <c r="W9">
         <v>4.9111205683153199E-2</v>
       </c>
-      <c r="W8">
+      <c r="X9">
         <v>0.27809022090124202</v>
       </c>
-      <c r="X8">
+      <c r="Y9">
         <v>0.20989389764927999</v>
       </c>
-      <c r="Y8">
+      <c r="Z9">
         <v>0.19798439495534301</v>
       </c>
-      <c r="Z8">
+      <c r="AA9">
         <v>0.334519020715288</v>
       </c>
-      <c r="AA8">
+      <c r="AB9">
         <v>2.8237067613845201E-2</v>
       </c>
-      <c r="AB8">
+      <c r="AC9">
         <v>1.1360473453915301E-3</v>
       </c>
-      <c r="AC8">
+      <c r="AD9">
         <v>0.49546826109992298</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>0.97081423220053897</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>0.36513893280976301</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <v>0.95257944820042295</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>0.97700074125868597</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>0.93758775387439097</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>0.98702061780642603</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>0.25706800873824798</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>0.96446581729690795</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>0.95053485713047403</v>
       </c>
-      <c r="K9">
+      <c r="L10">
         <v>0.10444642460588401</v>
       </c>
-      <c r="L9">
+      <c r="M10">
         <v>0.32055404520773301</v>
       </c>
-      <c r="M9">
+      <c r="N10">
         <v>0.21330825245606999</v>
       </c>
-      <c r="N9">
+      <c r="O10">
         <v>1.54911994242073E-2</v>
       </c>
-      <c r="O9">
+      <c r="P10">
         <v>1.68707293700469E-2</v>
       </c>
-      <c r="P9">
+      <c r="Q10">
         <v>8.5785852783950303E-2</v>
       </c>
-      <c r="Q9">
+      <c r="R10">
         <v>0.28116662816882398</v>
       </c>
-      <c r="R9">
+      <c r="S10">
         <v>0.17916557675916001</v>
       </c>
-      <c r="S9">
+      <c r="T10">
         <v>3.8402112020317201E-2</v>
       </c>
-      <c r="T9">
+      <c r="U10">
         <v>1.07160408156014E-2</v>
       </c>
-      <c r="U9">
+      <c r="V10">
         <v>0.13627575423867599</v>
       </c>
-      <c r="V9">
+      <c r="W10">
         <v>3.7150996681641797E-2</v>
       </c>
-      <c r="W9">
+      <c r="X10">
         <v>0.29004014521856802</v>
       </c>
-      <c r="X9">
+      <c r="Y10">
         <v>0.219409668827792</v>
       </c>
-      <c r="Y9">
+      <c r="Z10">
         <v>0.28107735495657199</v>
       </c>
-      <c r="Z9">
+      <c r="AA10">
         <v>0.35348216969228502</v>
       </c>
-      <c r="AA9">
+      <c r="AB10">
         <v>2.8463558181706702E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AC10">
         <v>6.5922762715809893E-2</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD10" s="2">
         <v>0.50565275980384805</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>0.95678372979580295</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>0.555768084101815</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>0.87702762477229301</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>0.93349421972059798</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>0.97030886422489204</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>0.97316913301644103</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>0.49839964028057399</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>0.88040216559004203</v>
       </c>
-      <c r="I10">
+      <c r="J11">
         <v>0.95053485713047403</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>8.5771258680892207E-2</v>
       </c>
-      <c r="L10">
+      <c r="M11">
         <v>0.31629454025968001</v>
       </c>
-      <c r="M10">
+      <c r="N11">
         <v>0.18920224533485699</v>
       </c>
-      <c r="N10">
+      <c r="O11">
         <v>8.62233906769325E-3</v>
       </c>
-      <c r="O10">
+      <c r="P11">
         <v>3.3486277480909203E-2</v>
       </c>
-      <c r="P10">
+      <c r="Q11">
         <v>7.5352871440799801E-2</v>
       </c>
-      <c r="Q10">
+      <c r="R11">
         <v>0.27474795473110403</v>
       </c>
-      <c r="R10">
+      <c r="S11">
         <v>0.163468106177384</v>
       </c>
-      <c r="S10">
+      <c r="T11">
         <v>3.4479073629430597E-2</v>
       </c>
-      <c r="T10">
+      <c r="U11">
         <v>1.8179021595725601E-2</v>
       </c>
-      <c r="U10">
+      <c r="V11">
         <v>0.130780089702798</v>
       </c>
-      <c r="V10">
+      <c r="W11">
         <v>2.7047089215072598E-2</v>
       </c>
-      <c r="W10">
+      <c r="X11">
         <v>0.28156528148631699</v>
       </c>
-      <c r="X10">
+      <c r="Y11">
         <v>0.21389465609417199</v>
       </c>
-      <c r="Y10">
+      <c r="Z11">
         <v>0.34789466110508199</v>
       </c>
-      <c r="Z10">
+      <c r="AA11">
         <v>0.340923441574291</v>
       </c>
-      <c r="AA10">
+      <c r="AB11">
         <v>2.7299588452468299E-2</v>
       </c>
-      <c r="AB10">
+      <c r="AC11">
         <v>0.13948395704053701</v>
       </c>
-      <c r="AC10">
+      <c r="AD11">
         <v>0.48161433028242401</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>0.113172987127676</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>1.20306848564432E-3</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>0.12575706464198499</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>0.120083364197064</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>0.102234077568993</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>9.8152532327856798E-2</v>
       </c>
-      <c r="G11">
+      <c r="H12">
         <v>2.60209295863E-2</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>0.111708524411927</v>
       </c>
-      <c r="I11">
+      <c r="J12">
         <v>0.10444642460588401</v>
       </c>
-      <c r="J11">
+      <c r="K12">
         <v>8.5771258680892207E-2</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>0.27578626965369002</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N12" s="1">
         <v>0.88959817962309495</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O12" s="1">
         <v>0.94605131510616403</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P12" s="1">
         <v>0.92580282771605404</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q12" s="1">
         <v>0.91143713779179003</v>
       </c>
-      <c r="Q11">
+      <c r="R12">
         <v>0.25333865842901299</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S12" s="1">
         <v>0.84465465118655803</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T12" s="1">
         <v>0.87144200240227798</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U12" s="1">
         <v>0.86092911772831304</v>
       </c>
-      <c r="U11">
+      <c r="V12">
         <v>3.99893877289575E-2</v>
       </c>
-      <c r="V11">
+      <c r="W12">
         <v>0.114424569016772</v>
       </c>
-      <c r="W11">
+      <c r="X12">
         <v>5.4330644181633199E-2</v>
       </c>
-      <c r="X11">
+      <c r="Y12">
         <v>0.14202225393239801</v>
       </c>
-      <c r="Y11">
+      <c r="Z12">
         <v>3.4410927697284301E-2</v>
       </c>
-      <c r="Z11">
+      <c r="AA12">
         <v>9.0095247115325405E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AB12">
         <v>7.08177726695698E-3</v>
       </c>
-      <c r="AB11">
+      <c r="AC12">
         <v>7.7527476029269696E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AD12">
         <v>1.53032477776083E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>0.34115959471486701</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>0.14265613661262999</v>
       </c>
-      <c r="C12">
+      <c r="D13">
         <v>0.33104145704724802</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <v>0.35029566246730698</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>0.33808535300760101</v>
       </c>
-      <c r="F12">
+      <c r="G13">
         <v>0.31151821756270598</v>
       </c>
-      <c r="G12">
+      <c r="H13">
         <v>0.12148833135184001</v>
       </c>
-      <c r="H12">
+      <c r="I13">
         <v>0.293695974196023</v>
       </c>
-      <c r="I12">
+      <c r="J13">
         <v>0.32055404520773301</v>
       </c>
-      <c r="J12">
+      <c r="K13">
         <v>0.31629454025968001</v>
       </c>
-      <c r="K12">
+      <c r="L13">
         <v>0.27578626965369002</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>2.8545994934970498E-2</v>
       </c>
-      <c r="N12">
+      <c r="O13">
         <v>0.39681062258060201</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P13" s="2">
         <v>0.56395009693387899</v>
       </c>
-      <c r="P12">
+      <c r="Q13">
         <v>0.19614922397545101</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R13" s="1">
         <v>0.80351147397184997</v>
       </c>
-      <c r="R12">
+      <c r="S13">
         <v>9.5196526602240195E-3</v>
       </c>
-      <c r="S12">
+      <c r="T13">
         <v>0.278263105234971</v>
       </c>
-      <c r="T12">
+      <c r="U13">
         <v>0.38995469728627402</v>
       </c>
-      <c r="U12">
+      <c r="V13">
         <v>0.13260781052419099</v>
       </c>
-      <c r="V12">
+      <c r="W13">
         <v>8.0423512540613404E-2</v>
       </c>
-      <c r="W12">
+      <c r="X13">
         <v>0.100932393733425</v>
       </c>
-      <c r="X12">
+      <c r="Y13">
         <v>7.94956543993105E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Z13">
         <v>2.75369069933433E-2</v>
       </c>
-      <c r="Z12">
+      <c r="AA13">
         <v>0.21964600176159699</v>
       </c>
-      <c r="AA12">
+      <c r="AB13">
         <v>1.5933282565371101E-2</v>
       </c>
-      <c r="AB12">
+      <c r="AC13">
         <v>5.8516792658285702E-2</v>
       </c>
-      <c r="AC12">
+      <c r="AD13">
         <v>0.28058635577771601</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>0.22907779885357399</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>4.4404440573825997E-2</v>
       </c>
-      <c r="C13">
+      <c r="D14">
         <v>0.23863021470945001</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <v>0.23868195888145399</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <v>0.21723090024709599</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>0.20371392362388699</v>
       </c>
-      <c r="G13">
+      <c r="H14">
         <v>3.5489305194162102E-3</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>0.21545047725956001</v>
       </c>
-      <c r="I13">
+      <c r="J14">
         <v>0.21330825245606999</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <v>0.18920224533485699</v>
       </c>
-      <c r="K13">
+      <c r="L14">
         <v>0.88959817962309495</v>
       </c>
-      <c r="L13">
+      <c r="M14">
         <v>2.8545994934970498E-2</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
         <v>0.80307808142899895</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P14" s="2">
         <v>0.69816293932939</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q14" s="1">
         <v>0.83800857801575901</v>
       </c>
-      <c r="Q13">
+      <c r="R14">
         <v>2.4965450447680101E-2</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S14" s="1">
         <v>0.86811284390945198</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T14" s="1">
         <v>0.78587833493759496</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U14" s="2">
         <v>0.724579889769006</v>
       </c>
-      <c r="U13">
+      <c r="V14">
         <v>8.8221345039285207E-2</v>
       </c>
-      <c r="V13">
+      <c r="W14">
         <v>8.4883152045470103E-2</v>
       </c>
-      <c r="W13">
+      <c r="X14">
         <v>5.3339923085464799E-2</v>
       </c>
-      <c r="X13">
+      <c r="Y14">
         <v>0.15879850728716199</v>
       </c>
-      <c r="Y13">
+      <c r="Z14">
         <v>5.7719905408489897E-2</v>
       </c>
-      <c r="Z13">
+      <c r="AA14">
         <v>0.12800628424369301</v>
       </c>
-      <c r="AA13">
+      <c r="AB14">
         <v>1.02397837561866E-2</v>
       </c>
-      <c r="AB13">
+      <c r="AC14">
         <v>9.9535844623857103E-2</v>
       </c>
-      <c r="AC13">
+      <c r="AD14">
         <v>5.1819319994593098E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>2.5794023288139602E-2</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>8.0660677562544806E-3</v>
       </c>
-      <c r="C14">
+      <c r="D15">
         <v>3.0022181442773001E-2</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>3.0113716672844199E-2</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>2.3707414899719201E-2</v>
       </c>
-      <c r="F14">
+      <c r="G15">
         <v>1.3240658932178699E-2</v>
       </c>
-      <c r="G14">
+      <c r="H15">
         <v>2.5538830308028299E-2</v>
       </c>
-      <c r="H14">
+      <c r="I15">
         <v>2.0664738178100699E-2</v>
       </c>
-      <c r="I14">
+      <c r="J15">
         <v>1.54911994242073E-2</v>
       </c>
-      <c r="J14">
+      <c r="K15">
         <v>8.62233906769325E-3</v>
       </c>
-      <c r="K14">
+      <c r="L15">
         <v>0.94605131510616403</v>
       </c>
-      <c r="L14">
+      <c r="M15">
         <v>0.39681062258060201</v>
       </c>
-      <c r="M14">
+      <c r="N15">
         <v>0.80307808142899895</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
         <v>0.896987103390671</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q15" s="1">
         <v>0.85955169974949897</v>
       </c>
-      <c r="Q14">
+      <c r="R15">
         <v>0.36095695805411399</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S15" s="1">
         <v>0.77568019538506905</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T15" s="1">
         <v>0.85352410788555899</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U15" s="1">
         <v>0.84259639602301994</v>
       </c>
-      <c r="U14">
+      <c r="V15">
         <v>2.2708113003953902E-2</v>
       </c>
-      <c r="V14">
+      <c r="W15">
         <v>9.9508943386423798E-2</v>
       </c>
-      <c r="W14">
+      <c r="X15">
         <v>9.7833039906297103E-2</v>
       </c>
-      <c r="X14">
+      <c r="Y15">
         <v>0.126006407998906</v>
       </c>
-      <c r="Y14">
+      <c r="Z15">
         <v>2.4895158077189401E-2</v>
       </c>
-      <c r="Z14">
+      <c r="AA15">
         <v>2.4423703944394099E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AB15">
         <v>5.9683856549723599E-3</v>
       </c>
-      <c r="AB14">
+      <c r="AC15">
         <v>3.6364814386941897E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AD15">
         <v>9.0725433206386194E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>1.6629435943890301E-2</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>5.4934721740359502E-2</v>
       </c>
-      <c r="C15">
+      <c r="D16">
         <v>1.9649318399810799E-4</v>
       </c>
-      <c r="D15">
+      <c r="E16">
         <v>1.51112313089502E-2</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>2.6819183143774499E-2</v>
       </c>
-      <c r="F15">
+      <c r="G16">
         <v>1.8365597685837599E-2</v>
       </c>
-      <c r="G15">
+      <c r="H16">
         <v>7.0761124121124702E-2</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>2.1105429861120401E-3</v>
       </c>
-      <c r="I15">
+      <c r="J16">
         <v>1.68707293700469E-2</v>
       </c>
-      <c r="J15">
+      <c r="K16">
         <v>3.3486277480909203E-2</v>
       </c>
-      <c r="K15">
+      <c r="L16">
         <v>0.92580282771605404</v>
       </c>
-      <c r="L15">
+      <c r="M16">
         <v>0.56395009693387899</v>
       </c>
-      <c r="M15">
+      <c r="N16">
         <v>0.69816293932939</v>
       </c>
-      <c r="N15">
+      <c r="O16">
         <v>0.896987103390671</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
         <v>0.82040879838196601</v>
       </c>
-      <c r="Q15">
+      <c r="R16">
         <v>0.47188232834410498</v>
       </c>
-      <c r="R15" s="2">
+      <c r="S16" s="2">
         <v>0.69208860464500799</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T16" s="1">
         <v>0.80651056783448105</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U16" s="1">
         <v>0.84713875591350496</v>
       </c>
-      <c r="U15">
+      <c r="V16">
         <v>1.83516804865568E-2</v>
       </c>
-      <c r="V15">
+      <c r="W16">
         <v>0.11951422993741399</v>
       </c>
-      <c r="W15">
+      <c r="X16">
         <v>6.37324317419007E-2</v>
       </c>
-      <c r="X15">
+      <c r="Y16">
         <v>8.8726471422439696E-2</v>
       </c>
-      <c r="Y15">
+      <c r="Z16">
         <v>4.36375780656275E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AA16">
         <v>6.4293287436189197E-3</v>
       </c>
-      <c r="AA15">
+      <c r="AB16">
         <v>6.8308415070904998E-4</v>
       </c>
-      <c r="AB15">
+      <c r="AC16">
         <v>5.3147237035493997E-2</v>
       </c>
-      <c r="AC15">
+      <c r="AD16">
         <v>9.7294595753148E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>0.10173352688390599</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>2.3230563325491699E-2</v>
       </c>
-      <c r="C16">
+      <c r="D17">
         <v>0.105308603384593</v>
       </c>
-      <c r="D16">
+      <c r="E17">
         <v>0.10628413420221999</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>9.6240256888928594E-2</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>8.2522969546320907E-2</v>
       </c>
-      <c r="G16">
+      <c r="H17">
         <v>3.35997975028718E-3</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <v>8.8389335062319094E-2</v>
       </c>
-      <c r="I16">
+      <c r="J17">
         <v>8.5785852783950303E-2</v>
       </c>
-      <c r="J16">
+      <c r="K17">
         <v>7.5352871440799801E-2</v>
       </c>
-      <c r="K16">
+      <c r="L17">
         <v>0.91143713779179003</v>
       </c>
-      <c r="L16">
+      <c r="M17">
         <v>0.19614922397545101</v>
       </c>
-      <c r="M16">
+      <c r="N17">
         <v>0.83800857801575901</v>
       </c>
-      <c r="N16">
+      <c r="O17">
         <v>0.85955169974949897</v>
       </c>
-      <c r="O16">
+      <c r="P17">
         <v>0.82040879838196601</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>0.284869227632288</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S17" s="1">
         <v>0.92765792574171602</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T17" s="1">
         <v>0.96214729589258197</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U17" s="1">
         <v>0.94619943750638602</v>
       </c>
-      <c r="U16">
+      <c r="V17">
         <v>2.0614724917425501E-2</v>
       </c>
-      <c r="V16">
+      <c r="W17">
         <v>1.8743326660390702E-2</v>
       </c>
-      <c r="W16">
+      <c r="X17">
         <v>9.4292482708652106E-2</v>
       </c>
-      <c r="X16">
+      <c r="Y17">
         <v>0.151122596775564</v>
       </c>
-      <c r="Y16">
+      <c r="Z17">
         <v>3.0681722389620501E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AA17">
         <v>7.8150168826397401E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AB17">
         <v>4.2155212740224096E-3</v>
       </c>
-      <c r="AB16">
+      <c r="AC17">
         <v>6.2485741614802602E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AD17">
         <v>5.6789763440177499E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>0.29079711141890202</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>0.111653601159766</v>
       </c>
-      <c r="C17">
+      <c r="D18">
         <v>0.28622987983189302</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <v>0.30255468416822101</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>0.28678332019944303</v>
       </c>
-      <c r="F17">
+      <c r="G18">
         <v>0.26939189092993698</v>
       </c>
-      <c r="G17">
+      <c r="H18">
         <v>0.106771533459264</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>0.25409663756643902</v>
       </c>
-      <c r="I17">
+      <c r="J18">
         <v>0.28116662816882398</v>
       </c>
-      <c r="J17">
+      <c r="K18">
         <v>0.27474795473110403</v>
       </c>
-      <c r="K17">
+      <c r="L18">
         <v>0.25333865842901299</v>
       </c>
-      <c r="L17">
+      <c r="M18">
         <v>0.80351147397184897</v>
       </c>
-      <c r="M17">
+      <c r="N18">
         <v>2.4965450447680101E-2</v>
       </c>
-      <c r="N17">
+      <c r="O18">
         <v>0.36095695805411399</v>
       </c>
-      <c r="O17">
+      <c r="P18">
         <v>0.47188232834410498</v>
       </c>
-      <c r="P17">
+      <c r="Q18">
         <v>0.284869227632288</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
         <v>4.1804339034018201E-2</v>
       </c>
-      <c r="S17">
+      <c r="T18">
         <v>0.373251983299343</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U18" s="2">
         <v>0.52624658190538698</v>
       </c>
-      <c r="U17">
+      <c r="V18">
         <v>0.172938409803049</v>
       </c>
-      <c r="V17">
+      <c r="W18">
         <v>2.6530278405184501E-2</v>
       </c>
-      <c r="W17">
+      <c r="X18">
         <v>0.105433860361869</v>
       </c>
-      <c r="X17">
+      <c r="Y18">
         <v>6.5419711388027699E-2</v>
       </c>
-      <c r="Y17">
+      <c r="Z18">
         <v>2.47720044013688E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AA18">
         <v>0.19470074750296201</v>
       </c>
-      <c r="AA17">
+      <c r="AB18">
         <v>1.5757728143657699E-2</v>
       </c>
-      <c r="AB17">
+      <c r="AC18">
         <v>4.7078891148929103E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AD18">
         <v>0.30418114825244302</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>0.198303551289088</v>
       </c>
-      <c r="B18">
+      <c r="C19">
         <v>5.5075828053192902E-2</v>
       </c>
-      <c r="C18">
+      <c r="D19">
         <v>0.20124607582510701</v>
       </c>
-      <c r="D18">
+      <c r="E19">
         <v>0.205781864542148</v>
       </c>
-      <c r="E18">
+      <c r="F19">
         <v>0.190669196441315</v>
       </c>
-      <c r="F18">
+      <c r="G19">
         <v>0.172990907685736</v>
       </c>
-      <c r="G18">
+      <c r="H19">
         <v>1.60212922204441E-2</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <v>0.17755671601524101</v>
       </c>
-      <c r="I18">
+      <c r="J19">
         <v>0.17916557675916001</v>
       </c>
-      <c r="J18">
+      <c r="K19">
         <v>0.163468106177384</v>
       </c>
-      <c r="K18">
+      <c r="L19">
         <v>0.84465465118655803</v>
       </c>
-      <c r="L18">
+      <c r="M19">
         <v>9.5196526602240195E-3</v>
       </c>
-      <c r="M18">
+      <c r="N19">
         <v>0.86811284390945198</v>
       </c>
-      <c r="N18">
+      <c r="O19">
         <v>0.77568019538506905</v>
       </c>
-      <c r="O18">
+      <c r="P19">
         <v>0.69208860464500799</v>
       </c>
-      <c r="P18">
+      <c r="Q19">
         <v>0.92765792574171602</v>
       </c>
-      <c r="Q18">
+      <c r="R19">
         <v>4.1804339034018201E-2</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
         <v>0.87039413366157103</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U19" s="1">
         <v>0.79651211379422604</v>
       </c>
-      <c r="U18">
+      <c r="V19">
         <v>8.5270726215089507E-2</v>
       </c>
-      <c r="V18">
+      <c r="W19">
         <v>1.1235596416048399E-2</v>
       </c>
-      <c r="W18">
+      <c r="X19">
         <v>8.6143072550039806E-2</v>
       </c>
-      <c r="X18">
+      <c r="Y19">
         <v>0.17133197393784499</v>
       </c>
-      <c r="Y18">
+      <c r="Z19">
         <v>3.6169976359886599E-2</v>
       </c>
-      <c r="Z18">
+      <c r="AA19">
         <v>0.11833249912396</v>
       </c>
-      <c r="AA18">
+      <c r="AB19">
         <v>8.6876660169394899E-3</v>
       </c>
-      <c r="AB18">
+      <c r="AC19">
         <v>7.5036475809923703E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AD19">
         <v>2.7514883167438099E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>5.4098252545088203E-2</v>
       </c>
-      <c r="B19">
+      <c r="C20">
         <v>1.8748265391059699E-2</v>
       </c>
-      <c r="C19">
+      <c r="D20">
         <v>5.2952396689144199E-2</v>
       </c>
-      <c r="D19">
+      <c r="E20">
         <v>5.7241409371948299E-2</v>
       </c>
-      <c r="E19">
+      <c r="F20">
         <v>5.32151213224921E-2</v>
       </c>
-      <c r="F19">
+      <c r="G20">
         <v>3.76344812670718E-2</v>
       </c>
-      <c r="G19">
+      <c r="H20">
         <v>3.02479866267789E-3</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <v>4.0043391024308601E-2</v>
       </c>
-      <c r="I19">
+      <c r="J20">
         <v>3.8402112020317201E-2</v>
       </c>
-      <c r="J19">
+      <c r="K20">
         <v>3.4479073629430597E-2</v>
       </c>
-      <c r="K19">
+      <c r="L20">
         <v>0.87144200240227798</v>
       </c>
-      <c r="L19">
+      <c r="M20">
         <v>0.278263105234971</v>
       </c>
-      <c r="M19">
+      <c r="N20">
         <v>0.78587833493759496</v>
       </c>
-      <c r="N19">
+      <c r="O20">
         <v>0.85352410788555899</v>
       </c>
-      <c r="O19">
+      <c r="P20">
         <v>0.80651056783448105</v>
       </c>
-      <c r="P19">
+      <c r="Q20">
         <v>0.96214729589258197</v>
       </c>
-      <c r="Q19">
+      <c r="R20">
         <v>0.373251983299343</v>
       </c>
-      <c r="R19">
+      <c r="S20">
         <v>0.87039413366157103</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
         <v>0.92397326029680804</v>
       </c>
-      <c r="U19">
+      <c r="V20">
         <v>1.34580833299508E-2</v>
       </c>
-      <c r="V19">
+      <c r="W20">
         <v>1.4475297036960001E-2</v>
       </c>
-      <c r="W19">
+      <c r="X20">
         <v>0.120630199005689</v>
       </c>
-      <c r="X19">
+      <c r="Y20">
         <v>0.13656623945659899</v>
       </c>
-      <c r="Y19">
+      <c r="Z20">
         <v>2.0119605671268401E-2</v>
       </c>
-      <c r="Z19">
+      <c r="AA20">
         <v>4.1432837086401303E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AB20">
         <v>7.4809169091167704E-4</v>
       </c>
-      <c r="AB19">
+      <c r="AC20">
         <v>3.8102022257466901E-2</v>
       </c>
-      <c r="AC19">
+      <c r="AD20">
         <v>9.1711651071656602E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>5.7616138312173101E-4</v>
       </c>
-      <c r="B20">
+      <c r="C21">
         <v>1.47872029919292E-2</v>
       </c>
-      <c r="C20">
+      <c r="D21">
         <v>5.60587823879831E-3</v>
       </c>
-      <c r="D20">
+      <c r="E21">
         <v>7.0101573736183395E-4</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>3.32698550129449E-3</v>
       </c>
-      <c r="F20">
+      <c r="G21">
         <v>9.9826812762724305E-3</v>
       </c>
-      <c r="G20">
+      <c r="H21">
         <v>3.6903519882185397E-2</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>3.85567460356028E-4</v>
       </c>
-      <c r="I20">
+      <c r="J21">
         <v>1.07160408156014E-2</v>
       </c>
-      <c r="J20">
+      <c r="K21">
         <v>1.8179021595725601E-2</v>
       </c>
-      <c r="K20">
+      <c r="L21">
         <v>0.86092911772831404</v>
       </c>
-      <c r="L20">
+      <c r="M21">
         <v>0.38995469728627402</v>
       </c>
-      <c r="M20">
+      <c r="N21">
         <v>0.724579889769006</v>
       </c>
-      <c r="N20">
+      <c r="O21">
         <v>0.84259639602302105</v>
       </c>
-      <c r="O20">
+      <c r="P21">
         <v>0.84713875591350496</v>
       </c>
-      <c r="P20">
+      <c r="Q21">
         <v>0.94619943750638602</v>
       </c>
-      <c r="Q20">
+      <c r="R21">
         <v>0.52624658190538698</v>
       </c>
-      <c r="R20">
+      <c r="S21">
         <v>0.79651211379422604</v>
       </c>
-      <c r="S20">
+      <c r="T21">
         <v>0.92397326029680804</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
         <v>3.9560243350861002E-2</v>
       </c>
-      <c r="V20">
+      <c r="W21">
         <v>2.2686792728117699E-2</v>
       </c>
-      <c r="W20">
+      <c r="X21">
         <v>0.106431777462989</v>
       </c>
-      <c r="X20">
+      <c r="Y21">
         <v>0.10907496275817399</v>
       </c>
-      <c r="Y20">
+      <c r="Z21">
         <v>3.5702995203141498E-2</v>
       </c>
-      <c r="Z20">
+      <c r="AA21">
         <v>1.28787559395275E-2</v>
       </c>
-      <c r="AA20">
+      <c r="AB21">
         <v>1.4824647774797201E-3</v>
       </c>
-      <c r="AB20">
+      <c r="AC21">
         <v>4.23632626466127E-2</v>
       </c>
-      <c r="AC20">
+      <c r="AD21">
         <v>0.14005560108881099</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>0.153351903346444</v>
       </c>
-      <c r="B21">
+      <c r="C22">
         <v>3.7826804352279003E-2</v>
       </c>
-      <c r="C21">
+      <c r="D22">
         <v>0.157682632490383</v>
       </c>
-      <c r="D21">
+      <c r="E22">
         <v>0.15681216165957201</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>0.14169602655242799</v>
       </c>
-      <c r="F21">
+      <c r="G22">
         <v>0.13507339291227899</v>
       </c>
-      <c r="G21">
+      <c r="H22">
         <v>3.4057813644192997E-2</v>
       </c>
-      <c r="H21">
+      <c r="I22">
         <v>0.13360916117968</v>
       </c>
-      <c r="I21">
+      <c r="J22">
         <v>0.13627575423867599</v>
       </c>
-      <c r="J21">
+      <c r="K22">
         <v>0.130780089702798</v>
       </c>
-      <c r="K21">
+      <c r="L22">
         <v>3.99893877289575E-2</v>
       </c>
-      <c r="L21">
+      <c r="M22">
         <v>0.13260781052419099</v>
       </c>
-      <c r="M21">
+      <c r="N22">
         <v>8.8221345039285207E-2</v>
       </c>
-      <c r="N21">
+      <c r="O22">
         <v>2.2708113003953902E-2</v>
       </c>
-      <c r="O21">
+      <c r="P22">
         <v>1.83516804865568E-2</v>
       </c>
-      <c r="P21">
+      <c r="Q22">
         <v>2.0614724917425501E-2</v>
       </c>
-      <c r="Q21">
+      <c r="R22">
         <v>0.172938409803049</v>
       </c>
-      <c r="R21">
+      <c r="S22">
         <v>8.5270726215089507E-2</v>
       </c>
-      <c r="S21">
+      <c r="T22">
         <v>1.34580833299508E-2</v>
       </c>
-      <c r="T21">
+      <c r="U22">
         <v>3.9560243350861002E-2</v>
       </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>0.27929124106167702</v>
       </c>
-      <c r="W21">
+      <c r="X22">
         <v>6.9014292351347206E-2</v>
       </c>
-      <c r="X21">
+      <c r="Y22">
         <v>5.5352439518036901E-2</v>
       </c>
-      <c r="Y21">
+      <c r="Z22">
         <v>6.0057321952858298E-3</v>
       </c>
-      <c r="Z21">
+      <c r="AA22">
         <v>0.12012628219918001</v>
       </c>
-      <c r="AA21">
+      <c r="AB22">
         <v>3.0987416661359402E-2</v>
       </c>
-      <c r="AB21">
+      <c r="AC22">
         <v>5.46081624747283E-2</v>
       </c>
-      <c r="AC21">
+      <c r="AD22">
         <v>0.309394902337157</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>3.8087336675637198E-2</v>
       </c>
-      <c r="B22">
+      <c r="C23">
         <v>1.7142564275032399E-2</v>
       </c>
-      <c r="C22">
+      <c r="D23">
         <v>5.15444342931973E-2</v>
       </c>
-      <c r="D22">
+      <c r="E23">
         <v>3.5219300710328597E-2</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <v>2.3379572851831398E-2</v>
       </c>
-      <c r="F22">
+      <c r="G23">
         <v>3.8074252623535101E-2</v>
       </c>
-      <c r="G22">
+      <c r="H23">
         <v>2.0569883321482001E-2</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <v>4.9111205683153199E-2</v>
       </c>
-      <c r="I22">
+      <c r="J23">
         <v>3.7150996681641797E-2</v>
       </c>
-      <c r="J22">
+      <c r="K23">
         <v>2.7047089215072598E-2</v>
       </c>
-      <c r="K22">
+      <c r="L23">
         <v>0.114424569016772</v>
       </c>
-      <c r="L22">
+      <c r="M23">
         <v>8.0423512540613404E-2</v>
       </c>
-      <c r="M22">
+      <c r="N23">
         <v>8.4883152045470103E-2</v>
       </c>
-      <c r="N22">
+      <c r="O23">
         <v>9.9508943386423701E-2</v>
       </c>
-      <c r="O22">
+      <c r="P23">
         <v>0.11951422993741399</v>
       </c>
-      <c r="P22">
+      <c r="Q23">
         <v>1.8743326660390702E-2</v>
       </c>
-      <c r="Q22">
+      <c r="R23">
         <v>2.6530278405184501E-2</v>
       </c>
-      <c r="R22">
+      <c r="S23">
         <v>1.1235596416048399E-2</v>
       </c>
-      <c r="S22">
+      <c r="T23">
         <v>1.4475297036960001E-2</v>
       </c>
-      <c r="T22">
+      <c r="U23">
         <v>2.2686792728117699E-2</v>
       </c>
-      <c r="U22">
+      <c r="V23">
         <v>0.27929124106167702</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>4.2419015328068702E-2</v>
       </c>
-      <c r="X22">
+      <c r="Y23">
         <v>0.199698720202309</v>
       </c>
-      <c r="Y22">
+      <c r="Z23">
         <v>8.3217358262463501E-2</v>
       </c>
-      <c r="Z22">
+      <c r="AA23">
         <v>3.5816546086554997E-2</v>
       </c>
-      <c r="AA22">
+      <c r="AB23">
         <v>8.8415260972499292E-3</v>
       </c>
-      <c r="AB22">
+      <c r="AC23">
         <v>0.109697311598037</v>
       </c>
-      <c r="AC22">
+      <c r="AD23">
         <v>0.16002024632244</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>0.28204034182511301</v>
       </c>
-      <c r="B23">
+      <c r="C24">
         <v>0.10216814481931701</v>
       </c>
-      <c r="C23">
+      <c r="D24">
         <v>0.27914045336700499</v>
       </c>
-      <c r="D23">
+      <c r="E24">
         <v>0.28321363400245497</v>
       </c>
-      <c r="E23">
+      <c r="F24">
         <v>0.27161490536751098</v>
       </c>
-      <c r="F23">
+      <c r="G24">
         <v>0.287481087405627</v>
       </c>
-      <c r="G23">
+      <c r="H24">
         <v>8.9773986614981094E-2</v>
       </c>
-      <c r="H23">
+      <c r="I24">
         <v>0.27809022090124202</v>
       </c>
-      <c r="I23">
+      <c r="J24">
         <v>0.29004014521856802</v>
       </c>
-      <c r="J23">
+      <c r="K24">
         <v>0.28156528148631699</v>
       </c>
-      <c r="K23">
+      <c r="L24">
         <v>5.4330644181633199E-2</v>
       </c>
-      <c r="L23">
+      <c r="M24">
         <v>0.100932393733425</v>
       </c>
-      <c r="M23">
+      <c r="N24">
         <v>5.3339923085464799E-2</v>
       </c>
-      <c r="N23">
+      <c r="O24">
         <v>9.7833039906297103E-2</v>
       </c>
-      <c r="O23">
+      <c r="P24">
         <v>6.37324317419007E-2</v>
       </c>
-      <c r="P23">
+      <c r="Q24">
         <v>9.4292482708652106E-2</v>
       </c>
-      <c r="Q23">
+      <c r="R24">
         <v>0.105433860361869</v>
       </c>
-      <c r="R23">
+      <c r="S24">
         <v>8.6143072550039806E-2</v>
       </c>
-      <c r="S23">
+      <c r="T24">
         <v>0.120630199005689</v>
       </c>
-      <c r="T23">
+      <c r="U24">
         <v>0.106431777462989</v>
       </c>
-      <c r="U23">
+      <c r="V24">
         <v>6.9014292351347206E-2</v>
       </c>
-      <c r="V23">
+      <c r="W24">
         <v>4.2419015328068702E-2</v>
       </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
         <v>0.34041460583453798</v>
       </c>
-      <c r="Y23">
+      <c r="Z24">
         <v>3.9432359835586302E-2</v>
       </c>
-      <c r="Z23">
+      <c r="AA24">
         <v>0.14815097812412401</v>
       </c>
-      <c r="AA23">
+      <c r="AB24">
         <v>2.5873677518501701E-2</v>
       </c>
-      <c r="AB23">
+      <c r="AC24">
         <v>3.2980110982772197E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AD24">
         <v>0.42453009159555299</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>0.22123013290885299</v>
       </c>
-      <c r="B24">
+      <c r="C25">
         <v>7.5768095391635301E-2</v>
       </c>
-      <c r="C24">
+      <c r="D25">
         <v>0.222041978383481</v>
       </c>
-      <c r="D24">
+      <c r="E25">
         <v>0.224279883312649</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <v>0.21159421876138099</v>
       </c>
-      <c r="F24">
+      <c r="G25">
         <v>0.21716506842429201</v>
       </c>
-      <c r="G24">
+      <c r="H25">
         <v>7.6283795474515997E-2</v>
       </c>
-      <c r="H24">
+      <c r="I25">
         <v>0.20989389764927999</v>
       </c>
-      <c r="I24">
+      <c r="J25">
         <v>0.219409668827792</v>
       </c>
-      <c r="J24">
+      <c r="K25">
         <v>0.21389465609417199</v>
       </c>
-      <c r="K24">
+      <c r="L25">
         <v>0.14202225393239801</v>
       </c>
-      <c r="L24">
+      <c r="M25">
         <v>7.94956543993105E-2</v>
       </c>
-      <c r="M24">
+      <c r="N25">
         <v>0.15879850728716199</v>
       </c>
-      <c r="N24">
+      <c r="O25">
         <v>0.126006407998906</v>
       </c>
-      <c r="O24">
+      <c r="P25">
         <v>8.8726471422439696E-2</v>
       </c>
-      <c r="P24">
+      <c r="Q25">
         <v>0.151122596775564</v>
       </c>
-      <c r="Q24">
+      <c r="R25">
         <v>6.5419711388027699E-2</v>
       </c>
-      <c r="R24">
+      <c r="S25">
         <v>0.17133197393784499</v>
       </c>
-      <c r="S24">
+      <c r="T25">
         <v>0.13656623945659899</v>
       </c>
-      <c r="T24">
+      <c r="U25">
         <v>0.10907496275817399</v>
       </c>
-      <c r="U24">
+      <c r="V25">
         <v>5.5352439518036901E-2</v>
       </c>
-      <c r="V24">
+      <c r="W25">
         <v>0.199698720202309</v>
       </c>
-      <c r="W24">
+      <c r="X25">
         <v>0.34041460583453798</v>
       </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
         <v>3.19814537714255E-2</v>
       </c>
-      <c r="Z24">
+      <c r="AA25">
         <v>0.14238351881369801</v>
       </c>
-      <c r="AA24">
+      <c r="AB25">
         <v>2.5867354284198101E-2</v>
       </c>
-      <c r="AB24">
+      <c r="AC25">
         <v>7.9617080129373394E-2</v>
       </c>
-      <c r="AC24">
+      <c r="AD25">
         <v>0.28866915545397298</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>0.28950048544475099</v>
       </c>
-      <c r="B25">
+      <c r="C26">
         <v>0.35094567654212</v>
       </c>
-      <c r="C25">
+      <c r="D26">
         <v>0.20266403291301199</v>
       </c>
-      <c r="D25">
+      <c r="E26">
         <v>0.27861323559963602</v>
       </c>
-      <c r="E25">
+      <c r="F26">
         <v>0.32856069939799398</v>
       </c>
-      <c r="F25">
+      <c r="G26">
         <v>0.29639544537686402</v>
       </c>
-      <c r="G25">
+      <c r="H26">
         <v>0.38088285355722501</v>
       </c>
-      <c r="H25">
+      <c r="I26">
         <v>0.19798439495534301</v>
       </c>
-      <c r="I25">
+      <c r="J26">
         <v>0.28107735495657199</v>
       </c>
-      <c r="J25">
+      <c r="K26">
         <v>0.34789466110508199</v>
       </c>
-      <c r="K25">
+      <c r="L26">
         <v>3.4410927697284301E-2</v>
       </c>
-      <c r="L25">
+      <c r="M26">
         <v>2.75369069933433E-2</v>
       </c>
-      <c r="M25">
+      <c r="N26">
         <v>5.7719905408489897E-2</v>
       </c>
-      <c r="N25">
+      <c r="O26">
         <v>2.4895158077189401E-2</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>4.36375780656275E-2</v>
       </c>
-      <c r="P25">
+      <c r="Q26">
         <v>3.0681722389620501E-2</v>
       </c>
-      <c r="Q25">
+      <c r="R26">
         <v>2.47720044013688E-2</v>
       </c>
-      <c r="R25">
+      <c r="S26">
         <v>3.6169976359886599E-2</v>
       </c>
-      <c r="S25">
+      <c r="T26">
         <v>2.0119605671268401E-2</v>
       </c>
-      <c r="T25">
+      <c r="U26">
         <v>3.5702995203141498E-2</v>
       </c>
-      <c r="U25">
+      <c r="V26">
         <v>6.0057321952858298E-3</v>
       </c>
-      <c r="V25">
+      <c r="W26">
         <v>8.3217358262463501E-2</v>
       </c>
-      <c r="W25">
+      <c r="X26">
         <v>3.9432359835586302E-2</v>
       </c>
-      <c r="X25">
+      <c r="Y26">
         <v>3.19814537714255E-2</v>
       </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
         <v>2.0752501352939601E-2</v>
       </c>
-      <c r="AA25">
+      <c r="AB26">
         <v>1.27447279202923E-2</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AC26" s="2">
         <v>0.64470975533145203</v>
       </c>
-      <c r="AC25">
+      <c r="AD26">
         <v>1.50527786181428E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>0.36225121594022403</v>
       </c>
-      <c r="B26">
+      <c r="C27">
         <v>9.93367989840057E-2</v>
       </c>
-      <c r="C26">
+      <c r="D27">
         <v>0.35864187491738803</v>
       </c>
-      <c r="D26">
+      <c r="E27">
         <v>0.37350068219920801</v>
       </c>
-      <c r="E26">
+      <c r="F27">
         <v>0.35851528053036502</v>
       </c>
-      <c r="F26">
+      <c r="G27">
         <v>0.34052395093610899</v>
       </c>
-      <c r="G26">
+      <c r="H27">
         <v>5.7489261053674197E-2</v>
       </c>
-      <c r="H26">
+      <c r="I27">
         <v>0.334519020715288</v>
       </c>
-      <c r="I26">
+      <c r="J27">
         <v>0.35348216969228502</v>
       </c>
-      <c r="J26">
+      <c r="K27">
         <v>0.340923441574291</v>
       </c>
-      <c r="K26">
+      <c r="L27">
         <v>9.0095247115325405E-2</v>
       </c>
-      <c r="L26">
+      <c r="M27">
         <v>0.21964600176159699</v>
       </c>
-      <c r="M26">
+      <c r="N27">
         <v>0.12800628424369301</v>
       </c>
-      <c r="N26">
+      <c r="O27">
         <v>2.4423703944394099E-2</v>
       </c>
-      <c r="O26">
+      <c r="P27">
         <v>6.4293287436189197E-3</v>
       </c>
-      <c r="P26">
+      <c r="Q27">
         <v>7.8150168826397401E-2</v>
       </c>
-      <c r="Q26">
+      <c r="R27">
         <v>0.19470074750296201</v>
       </c>
-      <c r="R26">
+      <c r="S27">
         <v>0.11833249912396</v>
       </c>
-      <c r="S26">
+      <c r="T27">
         <v>4.1432837086401303E-2</v>
       </c>
-      <c r="T26">
+      <c r="U27">
         <v>1.28787559395275E-2</v>
       </c>
-      <c r="U26">
+      <c r="V27">
         <v>0.12012628219918001</v>
       </c>
-      <c r="V26">
+      <c r="W27">
         <v>3.5816546086554997E-2</v>
       </c>
-      <c r="W26">
+      <c r="X27">
         <v>0.14815097812412401</v>
       </c>
-      <c r="X26">
+      <c r="Y27">
         <v>0.14238351881369801</v>
       </c>
-      <c r="Y26">
+      <c r="Z27">
         <v>2.0752501352939601E-2</v>
       </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
         <v>9.1270761905164893E-3</v>
       </c>
-      <c r="AB26">
+      <c r="AC27">
         <v>0.43490404258710902</v>
       </c>
-      <c r="AC26">
+      <c r="AD27">
         <v>0.24552551147464899</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>2.8701061199676799E-2</v>
       </c>
-      <c r="B27">
+      <c r="C28">
         <v>5.7863509974196998E-3</v>
       </c>
-      <c r="C27">
+      <c r="D28">
         <v>2.8808248651910302E-2</v>
       </c>
-      <c r="D27">
+      <c r="E28">
         <v>2.9870792074808802E-2</v>
       </c>
-      <c r="E27">
+      <c r="F28">
         <v>2.7241844455729702E-2</v>
       </c>
-      <c r="F27">
+      <c r="G28">
         <v>2.8169463494303201E-2</v>
       </c>
-      <c r="G27">
+      <c r="H28">
         <v>3.7547392853533E-3</v>
       </c>
-      <c r="H27">
+      <c r="I28">
         <v>2.8237067613845201E-2</v>
       </c>
-      <c r="I27">
+      <c r="J28">
         <v>2.8463558181706702E-2</v>
       </c>
-      <c r="J27">
+      <c r="K28">
         <v>2.7299588452468299E-2</v>
       </c>
-      <c r="K27">
+      <c r="L28">
         <v>7.08177726695698E-3</v>
       </c>
-      <c r="L27">
+      <c r="M28">
         <v>1.5933282565371101E-2</v>
       </c>
-      <c r="M27">
+      <c r="N28">
         <v>1.02397837561866E-2</v>
       </c>
-      <c r="N27">
+      <c r="O28">
         <v>5.9683856549723599E-3</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>6.8308415070904998E-4</v>
       </c>
-      <c r="P27">
+      <c r="Q28">
         <v>4.2155212740224096E-3</v>
       </c>
-      <c r="Q27">
+      <c r="R28">
         <v>1.5757728143657699E-2</v>
       </c>
-      <c r="R27">
+      <c r="S28">
         <v>8.6876660169394899E-3</v>
       </c>
-      <c r="S27">
+      <c r="T28">
         <v>7.4809169091167704E-4</v>
       </c>
-      <c r="T27">
+      <c r="U28">
         <v>1.4824647774797201E-3</v>
       </c>
-      <c r="U27">
+      <c r="V28">
         <v>3.0987416661359402E-2</v>
       </c>
-      <c r="V27">
+      <c r="W28">
         <v>8.8415260972499292E-3</v>
       </c>
-      <c r="W27">
+      <c r="X28">
         <v>2.5873677518501701E-2</v>
       </c>
-      <c r="X27">
+      <c r="Y28">
         <v>2.5867354284198101E-2</v>
       </c>
-      <c r="Y27">
+      <c r="Z28">
         <v>1.27447279202923E-2</v>
       </c>
-      <c r="Z27">
+      <c r="AA28">
         <v>9.1270761905164893E-3</v>
       </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
         <v>7.7564473588291102E-3</v>
       </c>
-      <c r="AC27">
+      <c r="AD28">
         <v>5.6412648688738798E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>7.9374798906019506E-2</v>
       </c>
-      <c r="B28">
+      <c r="C29">
         <v>0.29467312776758497</v>
       </c>
-      <c r="C28">
+      <c r="D29">
         <v>4.9020154766130503E-3</v>
       </c>
-      <c r="D28">
+      <c r="E29">
         <v>5.70187974001874E-2</v>
       </c>
-      <c r="E28">
+      <c r="F29">
         <v>0.119289585981304</v>
       </c>
-      <c r="F28">
+      <c r="G29">
         <v>9.2311675570110094E-2</v>
       </c>
-      <c r="G28">
+      <c r="H29">
         <v>0.33468462603076199</v>
       </c>
-      <c r="H28">
+      <c r="I29">
         <v>1.1360473453915301E-3</v>
       </c>
-      <c r="I28">
+      <c r="J29">
         <v>6.5922762715809893E-2</v>
       </c>
-      <c r="J28">
+      <c r="K29">
         <v>0.13948395704053701</v>
       </c>
-      <c r="K28">
+      <c r="L29">
         <v>7.7527476029269696E-2</v>
       </c>
-      <c r="L28">
+      <c r="M29">
         <v>5.8516792658285702E-2</v>
       </c>
-      <c r="M28">
+      <c r="N29">
         <v>9.9535844623857103E-2</v>
       </c>
-      <c r="N28">
+      <c r="O29">
         <v>3.6364814386941897E-2</v>
       </c>
-      <c r="O28">
+      <c r="P29">
         <v>5.3147237035493997E-2</v>
       </c>
-      <c r="P28">
+      <c r="Q29">
         <v>6.2485741614802602E-2</v>
       </c>
-      <c r="Q28">
+      <c r="R29">
         <v>4.7078891148929103E-2</v>
       </c>
-      <c r="R28">
+      <c r="S29">
         <v>7.5036475809923703E-2</v>
       </c>
-      <c r="S28">
+      <c r="T29">
         <v>3.8102022257466901E-2</v>
       </c>
-      <c r="T28">
+      <c r="U29">
         <v>4.23632626466127E-2</v>
       </c>
-      <c r="U28">
+      <c r="V29">
         <v>5.46081624747283E-2</v>
       </c>
-      <c r="V28">
+      <c r="W29">
         <v>0.109697311598037</v>
       </c>
-      <c r="W28">
+      <c r="X29">
         <v>3.2980110982772197E-2</v>
       </c>
-      <c r="X28">
+      <c r="Y29">
         <v>7.9617080129373394E-2</v>
       </c>
-      <c r="Y28">
+      <c r="Z29">
         <v>0.64470975533145203</v>
       </c>
-      <c r="Z28">
+      <c r="AA29">
         <v>0.43490404258710902</v>
       </c>
-      <c r="AA28">
+      <c r="AB29">
         <v>7.7564473588291102E-3</v>
       </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
         <v>7.8388782446253996E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>0.50604064653033698</v>
       </c>
-      <c r="B29">
+      <c r="C30">
         <v>0.13444547066568699</v>
       </c>
-      <c r="C29">
+      <c r="D30">
         <v>0.51722745623779798</v>
       </c>
-      <c r="D29">
+      <c r="E30">
         <v>0.51249995868422804</v>
       </c>
-      <c r="E29">
+      <c r="F30">
         <v>0.47543836512395399</v>
       </c>
-      <c r="F29">
+      <c r="G30">
         <v>0.50066790486194701</v>
       </c>
-      <c r="G29">
+      <c r="H30">
         <v>0.12601479750699099</v>
       </c>
-      <c r="H29">
+      <c r="I30">
         <v>0.49546826109992298</v>
       </c>
-      <c r="I29">
+      <c r="J30">
         <v>0.50565275980384805</v>
       </c>
-      <c r="J29">
+      <c r="K30">
         <v>0.48161433028242401</v>
       </c>
-      <c r="K29">
+      <c r="L30">
         <v>1.53032477776083E-2</v>
       </c>
-      <c r="L29">
+      <c r="M30">
         <v>0.28058635577771701</v>
       </c>
-      <c r="M29">
+      <c r="N30">
         <v>5.1819319994593098E-2</v>
       </c>
-      <c r="N29">
+      <c r="O30">
         <v>9.0725433206386194E-2</v>
       </c>
-      <c r="O29">
+      <c r="P30">
         <v>9.7294595753148E-2</v>
       </c>
-      <c r="P29">
+      <c r="Q30">
         <v>5.6789763440177499E-2</v>
       </c>
-      <c r="Q29">
+      <c r="R30">
         <v>0.30418114825244302</v>
       </c>
-      <c r="R29">
+      <c r="S30">
         <v>2.7514883167438099E-2</v>
       </c>
-      <c r="S29">
+      <c r="T30">
         <v>9.1711651071656602E-2</v>
       </c>
-      <c r="T29">
+      <c r="U30">
         <v>0.14005560108881099</v>
       </c>
-      <c r="U29">
+      <c r="V30">
         <v>0.309394902337157</v>
       </c>
-      <c r="V29">
+      <c r="W30">
         <v>0.16002024632244</v>
       </c>
-      <c r="W29">
+      <c r="X30">
         <v>0.42453009159555299</v>
       </c>
-      <c r="X29">
+      <c r="Y30">
         <v>0.28866915545397298</v>
       </c>
-      <c r="Y29">
+      <c r="Z30">
         <v>1.50527786181428E-2</v>
       </c>
-      <c r="Z29">
+      <c r="AA30">
         <v>0.24552551147464899</v>
       </c>
-      <c r="AA29">
+      <c r="AB30">
         <v>5.6412648688738798E-2</v>
       </c>
-      <c r="AB29">
+      <c r="AC30">
         <v>7.8388782446253996E-2</v>
       </c>
-      <c r="AC29">
+      <c r="AD30">
         <v>1</v>
       </c>
     </row>
@@ -2988,2592 +3175,2772 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3284AD5B-4565-C34C-8723-D2A522BFCDDD}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="30" width="6.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.48579014142723098</v>
       </c>
-      <c r="C1">
+      <c r="D2" s="1">
         <v>0.97561996197566203</v>
       </c>
-      <c r="D1">
+      <c r="E2" s="1">
         <v>0.99192004006161605</v>
       </c>
-      <c r="E1">
+      <c r="F2" s="1">
         <v>0.98428457528805302</v>
       </c>
-      <c r="F1">
+      <c r="G2" s="1">
         <v>0.98465195186041199</v>
       </c>
-      <c r="G1">
+      <c r="H2">
         <v>0.29888679001860502</v>
       </c>
-      <c r="H1">
+      <c r="I2" s="1">
         <v>0.96204130174661595</v>
       </c>
-      <c r="I1">
+      <c r="J2" s="1">
         <v>0.97995202613072296</v>
       </c>
-      <c r="J1">
+      <c r="K2" s="1">
         <v>0.97039131308314697</v>
       </c>
-      <c r="K1">
+      <c r="L2">
         <v>5.5635448617436002E-2</v>
       </c>
-      <c r="L1">
+      <c r="M2">
         <v>0.33739810437117101</v>
       </c>
-      <c r="M1">
+      <c r="N2">
         <v>0.17915867282286099</v>
       </c>
-      <c r="N1">
+      <c r="O2">
         <v>1.1904843402524999E-2</v>
       </c>
-      <c r="O1">
+      <c r="P2">
         <v>5.7703504651642298E-2</v>
       </c>
-      <c r="P1">
+      <c r="Q2">
         <v>0.111106232201895</v>
       </c>
-      <c r="Q1">
+      <c r="R2">
         <v>0.26524061282475803</v>
       </c>
-      <c r="R1">
+      <c r="S2">
         <v>0.19901026988265999</v>
       </c>
-      <c r="S1">
+      <c r="T2">
         <v>7.0862522818734702E-2</v>
       </c>
-      <c r="T1">
+      <c r="U2">
         <v>2.3531912956766599E-2</v>
       </c>
-      <c r="U1">
+      <c r="V2">
         <v>0.19539200410814</v>
       </c>
-      <c r="V1">
+      <c r="W2">
         <v>9.89578933165534E-2</v>
       </c>
-      <c r="W1">
+      <c r="X2">
         <v>0.29972486650048002</v>
       </c>
-      <c r="X1">
+      <c r="Y2">
         <v>0.16630453037631601</v>
       </c>
-      <c r="Y1">
+      <c r="Z2">
         <v>0.45773584101779102</v>
       </c>
-      <c r="Z1">
+      <c r="AA2">
         <v>0.36548850552794698</v>
       </c>
-      <c r="AA1">
+      <c r="AB2">
         <v>3.6657621361249303E-2</v>
       </c>
-      <c r="AB1">
+      <c r="AC2">
         <v>0.23950349967184301</v>
       </c>
-      <c r="AC1">
+      <c r="AD2" s="3">
         <v>0.62062935434418998</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>0.48579014142723098</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.29672421676525601</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>0.44967049164094203</v>
       </c>
-      <c r="E2">
+      <c r="F3" s="3">
         <v>0.60899490928084199</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>0.46176508467985</v>
       </c>
-      <c r="G2">
+      <c r="H3" s="1">
         <v>0.78662570738898696</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>0.31738593238293</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>0.43792437806192802</v>
       </c>
-      <c r="J2">
+      <c r="K3" s="3">
         <v>0.56426055497347405</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>1.42981444223367E-3</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>0.15350102681151601</v>
       </c>
-      <c r="M2">
+      <c r="N3">
         <v>4.6814865710847302E-2</v>
       </c>
-      <c r="N2">
+      <c r="O3">
         <v>2.13991596059427E-2</v>
       </c>
-      <c r="O2">
+      <c r="P3">
         <v>4.6122124980650402E-2</v>
       </c>
-      <c r="P2">
+      <c r="Q3">
         <v>9.5604412732126394E-3</v>
       </c>
-      <c r="Q2">
+      <c r="R3">
         <v>0.146135584611115</v>
       </c>
-      <c r="R2">
+      <c r="S3">
         <v>4.5175694005973002E-2</v>
       </c>
-      <c r="S2">
+      <c r="T3">
         <v>1.0340209102848601E-2</v>
       </c>
-      <c r="T2">
+      <c r="U3">
         <v>2.8616545398639202E-2</v>
       </c>
-      <c r="U2">
+      <c r="V3">
         <v>7.5770773109040401E-2</v>
       </c>
-      <c r="V2">
+      <c r="W3">
         <v>6.1134483841449198E-2</v>
       </c>
-      <c r="W2">
+      <c r="X3">
         <v>0.19975271862243599</v>
       </c>
-      <c r="X2">
+      <c r="Y3">
         <v>0.106563882441313</v>
       </c>
-      <c r="Y2">
+      <c r="Z3">
         <v>0.38460685837130199</v>
       </c>
-      <c r="Z2">
+      <c r="AA3">
         <v>0.12906224433267699</v>
       </c>
-      <c r="AA2">
+      <c r="AB3">
         <v>2.44092811508414E-2</v>
       </c>
-      <c r="AB2">
+      <c r="AC3">
         <v>0.335702041207599</v>
       </c>
-      <c r="AC2">
+      <c r="AD3">
         <v>0.32187950458713299</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>0.97561996197566203</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>0.29672421676525601</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.97320065880713702</v>
       </c>
-      <c r="E3">
+      <c r="F4" s="1">
         <v>0.92634621852391597</v>
       </c>
-      <c r="F3">
+      <c r="G4" s="1">
         <v>0.96391094891724305</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>0.138634824553758</v>
       </c>
-      <c r="H3">
+      <c r="I4" s="1">
         <v>0.97752280125912205</v>
       </c>
-      <c r="I3">
+      <c r="J4" s="1">
         <v>0.96413770118897202</v>
       </c>
-      <c r="J3">
+      <c r="K4" s="1">
         <v>0.92130291204803405</v>
       </c>
-      <c r="K3">
+      <c r="L4">
         <v>5.8843497853110702E-2</v>
       </c>
-      <c r="L3">
+      <c r="M4">
         <v>0.33493808355618698</v>
       </c>
-      <c r="M3">
+      <c r="N4">
         <v>0.18331381283569201</v>
       </c>
-      <c r="N3">
+      <c r="O4">
         <v>9.9465650504333408E-3</v>
       </c>
-      <c r="O3">
+      <c r="P4">
         <v>5.4113743079063803E-2</v>
       </c>
-      <c r="P3">
+      <c r="Q4">
         <v>0.11754281281171</v>
       </c>
-      <c r="Q3">
+      <c r="R4">
         <v>0.2581714737202</v>
       </c>
-      <c r="R3">
+      <c r="S4">
         <v>0.205329153064679</v>
       </c>
-      <c r="S3">
+      <c r="T4">
         <v>7.7784515185054096E-2</v>
       </c>
-      <c r="T3">
+      <c r="U4">
         <v>3.0479112329775501E-2</v>
       </c>
-      <c r="U3">
+      <c r="V4">
         <v>0.19531932135561</v>
       </c>
-      <c r="V3">
+      <c r="W4">
         <v>9.5410612519391896E-2</v>
       </c>
-      <c r="W3">
+      <c r="X4">
         <v>0.27990565546299201</v>
       </c>
-      <c r="X3">
+      <c r="Y4">
         <v>0.15960996167893701</v>
       </c>
-      <c r="Y3">
+      <c r="Z4">
         <v>0.40734689396699703</v>
       </c>
-      <c r="Z3">
+      <c r="AA4">
         <v>0.36167504838595899</v>
       </c>
-      <c r="AA3">
+      <c r="AB4">
         <v>3.3961926618353497E-2</v>
       </c>
-      <c r="AB3">
+      <c r="AC4">
         <v>0.185201655789591</v>
       </c>
-      <c r="AC3">
+      <c r="AD4" s="3">
         <v>0.60450200435653101</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>0.99192004006161605</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>0.44967049164094203</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>0.97320065880713702</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.97204441442639</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="1">
         <v>0.97829239233391396</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>0.276138243571383</v>
       </c>
-      <c r="H4">
+      <c r="I5" s="1">
         <v>0.959067914791355</v>
       </c>
-      <c r="I4">
+      <c r="J5" s="1">
         <v>0.98256666527160996</v>
       </c>
-      <c r="J4">
+      <c r="K5" s="1">
         <v>0.96207561314503998</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>6.18501768717621E-2</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>0.33948567035566701</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>0.186243144098588</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>6.9629678418058798E-3</v>
       </c>
-      <c r="O4">
+      <c r="P5">
         <v>5.3993560279043097E-2</v>
       </c>
-      <c r="P4">
+      <c r="Q5">
         <v>0.11793669431449801</v>
       </c>
-      <c r="Q4">
+      <c r="R5">
         <v>0.26829504891883299</v>
       </c>
-      <c r="R4">
+      <c r="S5">
         <v>0.20652138433273701</v>
       </c>
-      <c r="S4">
+      <c r="T5">
         <v>7.6740332985161905E-2</v>
       </c>
-      <c r="T4">
+      <c r="U5">
         <v>2.83049328660668E-2</v>
       </c>
-      <c r="U4">
+      <c r="V5">
         <v>0.196471125055586</v>
       </c>
-      <c r="V4">
+      <c r="W5">
         <v>9.5912998676929595E-2</v>
       </c>
-      <c r="W4">
+      <c r="X5">
         <v>0.296487848908003</v>
       </c>
-      <c r="X4">
+      <c r="Y5">
         <v>0.167909482767549</v>
       </c>
-      <c r="Y4">
+      <c r="Z5">
         <v>0.45834511024969599</v>
       </c>
-      <c r="Z4">
+      <c r="AA5">
         <v>0.37321985841501798</v>
       </c>
-      <c r="AA4">
+      <c r="AB5">
         <v>3.54021154987832E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AC5">
         <v>0.23171619904923599</v>
       </c>
-      <c r="AC4">
+      <c r="AD5" s="3">
         <v>0.61696854724164796</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>0.98428457528805302</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>0.60899490928084199</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>0.92634621852391597</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>0.97204441442639</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0.966972529914223</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>0.41014877758814999</v>
       </c>
-      <c r="H5">
+      <c r="I6" s="1">
         <v>0.91839565604095097</v>
       </c>
-      <c r="I5">
+      <c r="J6" s="1">
         <v>0.95946323646342402</v>
       </c>
-      <c r="J5">
+      <c r="K6" s="1">
         <v>0.978199490113696</v>
       </c>
-      <c r="K5">
+      <c r="L6">
         <v>5.4812580995250902E-2</v>
       </c>
-      <c r="L5">
+      <c r="M6">
         <v>0.33179113001307697</v>
       </c>
-      <c r="M5">
+      <c r="N6">
         <v>0.17447923939928001</v>
       </c>
-      <c r="N5">
+      <c r="O6">
         <v>1.0989403932385599E-2</v>
       </c>
-      <c r="O5">
+      <c r="P6">
         <v>5.6860533592309803E-2</v>
       </c>
-      <c r="P5">
+      <c r="Q6">
         <v>0.106371101029008</v>
       </c>
-      <c r="Q5">
+      <c r="R6">
         <v>0.265227108512889</v>
       </c>
-      <c r="R5">
+      <c r="S6">
         <v>0.19225805687765599</v>
       </c>
-      <c r="S5">
+      <c r="T6">
         <v>6.6101415362780802E-2</v>
       </c>
-      <c r="T5">
+      <c r="U6">
         <v>1.99854642858294E-2</v>
       </c>
-      <c r="U5">
+      <c r="V6">
         <v>0.190638530311633</v>
       </c>
-      <c r="V5">
+      <c r="W6">
         <v>9.8388270828788801E-2</v>
       </c>
-      <c r="W5">
+      <c r="X6">
         <v>0.304453461460237</v>
       </c>
-      <c r="X5">
+      <c r="Y6">
         <v>0.16604216827784299</v>
       </c>
-      <c r="Y5">
+      <c r="Z6">
         <v>0.47976055538273499</v>
       </c>
-      <c r="Z5">
+      <c r="AA6">
         <v>0.36555235259740698</v>
       </c>
-      <c r="AA5">
+      <c r="AB6">
         <v>3.5633794377622298E-2</v>
       </c>
-      <c r="AB5">
+      <c r="AC6">
         <v>0.264761265931442</v>
       </c>
-      <c r="AC5">
+      <c r="AD6" s="3">
         <v>0.61340175145009301</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>0.98465195186041199</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>0.46176508467985</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>0.96391094891724305</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>0.97829239233391396</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>0.966972529914223</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>0.29615984693865599</v>
       </c>
-      <c r="H6">
+      <c r="I7" s="1">
         <v>0.97867438315573796</v>
       </c>
-      <c r="I6">
+      <c r="J7" s="1">
         <v>0.99388689624394899</v>
       </c>
-      <c r="J6">
+      <c r="K7" s="1">
         <v>0.98304619150189998</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <v>5.11001632240866E-2</v>
       </c>
-      <c r="L6">
+      <c r="M7">
         <v>0.31594762517059199</v>
       </c>
-      <c r="M6">
+      <c r="N7">
         <v>0.1672575561936</v>
       </c>
-      <c r="N6">
+      <c r="O7">
         <v>1.4817360105827199E-2</v>
       </c>
-      <c r="O6">
+      <c r="P7">
         <v>5.4442066250398297E-2</v>
       </c>
-      <c r="P6">
+      <c r="Q7">
         <v>0.105474311610085</v>
       </c>
-      <c r="Q6">
+      <c r="R7">
         <v>0.24548390542688001</v>
       </c>
-      <c r="R6">
+      <c r="S7">
         <v>0.18828682613248399</v>
       </c>
-      <c r="S6">
+      <c r="T7">
         <v>6.7245968997461103E-2</v>
       </c>
-      <c r="T6">
+      <c r="U7">
         <v>2.3577403921983299E-2</v>
       </c>
-      <c r="U6">
+      <c r="V7">
         <v>0.195419222572699</v>
       </c>
-      <c r="V6">
+      <c r="W7">
         <v>8.2928226096811497E-2</v>
       </c>
-      <c r="W6">
+      <c r="X7">
         <v>0.29752043088269098</v>
       </c>
-      <c r="X6">
+      <c r="Y7">
         <v>0.15633692463464699</v>
       </c>
-      <c r="Y6">
+      <c r="Z7">
         <v>0.45759137550990098</v>
       </c>
-      <c r="Z6">
+      <c r="AA7">
         <v>0.34890185238913701</v>
       </c>
-      <c r="AA6">
+      <c r="AB7">
         <v>3.4867475866378103E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AC7">
         <v>0.24558841595394901</v>
       </c>
-      <c r="AC6">
+      <c r="AD7" s="3">
         <v>0.59699353948445599</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>0.29888679001860502</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>0.78662570738898696</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>0.138634824553758</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>0.276138243571383</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>0.41014877758814999</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>0.29615984693865599</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.104238497995714</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>0.27348859027255401</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>0.44703327437629398</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <v>3.9880753600331801E-3</v>
       </c>
-      <c r="L7">
+      <c r="M8">
         <v>0.10787213453254001</v>
       </c>
-      <c r="M7">
+      <c r="N8">
         <v>5.9387091640538099E-3</v>
       </c>
-      <c r="N7">
+      <c r="O8">
         <v>1.53177165903415E-2</v>
       </c>
-      <c r="O7">
+      <c r="P8">
         <v>3.8310180075002101E-2</v>
       </c>
-      <c r="P7">
+      <c r="Q8">
         <v>8.4655617383125098E-4</v>
       </c>
-      <c r="Q7">
+      <c r="R8">
         <v>0.116409294240484</v>
       </c>
-      <c r="R7">
+      <c r="S8">
         <v>1.3221204187013299E-2</v>
       </c>
-      <c r="S7">
+      <c r="T8">
         <v>1.17575309287465E-2</v>
       </c>
-      <c r="T7">
+      <c r="U8">
         <v>2.88424056749273E-2</v>
       </c>
-      <c r="U7">
+      <c r="V8">
         <v>6.1248400317943402E-2</v>
       </c>
-      <c r="V7">
+      <c r="W8">
         <v>2.8766681780060099E-2</v>
       </c>
-      <c r="W7">
+      <c r="X8">
         <v>0.136367474383218</v>
       </c>
-      <c r="X7">
+      <c r="Y8">
         <v>8.3396342220039305E-2</v>
       </c>
-      <c r="Y7">
+      <c r="Z8">
         <v>0.424897001665197</v>
       </c>
-      <c r="Z7">
+      <c r="AA8">
         <v>6.7745664191694102E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AB8">
         <v>2.2872170249284899E-2</v>
       </c>
-      <c r="AB7">
+      <c r="AC8">
         <v>0.39883616652050102</v>
       </c>
-      <c r="AC7">
+      <c r="AD8">
         <v>0.22807225244520499</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>0.96204130174661595</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>0.31738593238293</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>0.97752280125912205</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>0.959067914791355</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>0.91839565604095097</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>0.97867438315573796</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>0.104238497995714</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.97587946935707703</v>
       </c>
-      <c r="J8">
+      <c r="K9" s="1">
         <v>0.92783641722312105</v>
       </c>
-      <c r="K8">
+      <c r="L9">
         <v>5.24064745050523E-2</v>
       </c>
-      <c r="L8">
+      <c r="M9">
         <v>0.30937127384051699</v>
       </c>
-      <c r="M8">
+      <c r="N9">
         <v>0.17145990921405499</v>
       </c>
-      <c r="N8">
+      <c r="O9">
         <v>1.4283432897007901E-2</v>
       </c>
-      <c r="O8">
+      <c r="P9">
         <v>5.0731391699440298E-2</v>
       </c>
-      <c r="P8">
+      <c r="Q9">
         <v>0.108349939306252</v>
       </c>
-      <c r="Q8">
+      <c r="R9">
         <v>0.23401238485803899</v>
       </c>
-      <c r="R8">
+      <c r="S9">
         <v>0.19203641931343801</v>
       </c>
-      <c r="S8">
+      <c r="T9">
         <v>7.0858886327594794E-2</v>
       </c>
-      <c r="T8">
+      <c r="U9">
         <v>2.8938981388684001E-2</v>
       </c>
-      <c r="U8">
+      <c r="V9">
         <v>0.190394217176796</v>
       </c>
-      <c r="V8">
+      <c r="W9">
         <v>8.1263732803893998E-2</v>
       </c>
-      <c r="W8">
+      <c r="X9">
         <v>0.280862747107476</v>
       </c>
-      <c r="X8">
+      <c r="Y9">
         <v>0.14872798702287901</v>
       </c>
-      <c r="Y8">
+      <c r="Z9">
         <v>0.38772157374615002</v>
       </c>
-      <c r="Z8">
+      <c r="AA9">
         <v>0.34313644536292798</v>
       </c>
-      <c r="AA8">
+      <c r="AB9">
         <v>3.1682759727210297E-2</v>
       </c>
-      <c r="AB8">
+      <c r="AC9">
         <v>0.176150765578794</v>
       </c>
-      <c r="AC8">
+      <c r="AD9" s="3">
         <v>0.57612017479979705</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>0.97995202613072296</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>0.43792437806192802</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <v>0.96413770118897202</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>0.98256666527160996</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>0.95946323646342402</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>0.99388689624394899</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>0.27348859027255401</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>0.97587946935707703</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>0.97423062454082199</v>
       </c>
-      <c r="K9">
+      <c r="L10">
         <v>5.6194851921353497E-2</v>
       </c>
-      <c r="L9">
+      <c r="M10">
         <v>0.32006503931553099</v>
       </c>
-      <c r="M9">
+      <c r="N10">
         <v>0.173850760988396</v>
       </c>
-      <c r="N9">
+      <c r="O10">
         <v>1.1831519764144699E-2</v>
       </c>
-      <c r="O9">
+      <c r="P10">
         <v>5.2105053696645101E-2</v>
       </c>
-      <c r="P9">
+      <c r="Q10">
         <v>0.11049587057418001</v>
       </c>
-      <c r="Q9">
+      <c r="R10">
         <v>0.25042675533458802</v>
       </c>
-      <c r="R9">
+      <c r="S10">
         <v>0.19459214485979301</v>
       </c>
-      <c r="S9">
+      <c r="T10">
         <v>7.09173016860489E-2</v>
       </c>
-      <c r="T9">
+      <c r="U10">
         <v>2.6365640013143999E-2</v>
       </c>
-      <c r="U9">
+      <c r="V10">
         <v>0.19491286832836499</v>
       </c>
-      <c r="V9">
+      <c r="W10">
         <v>8.3123411058852806E-2</v>
       </c>
-      <c r="W9">
+      <c r="X10">
         <v>0.29685217105085998</v>
       </c>
-      <c r="X9">
+      <c r="Y10">
         <v>0.159537358410445</v>
       </c>
-      <c r="Y9">
+      <c r="Z10">
         <v>0.45643892440158701</v>
       </c>
-      <c r="Z9">
+      <c r="AA10">
         <v>0.35833973885808401</v>
       </c>
-      <c r="AA9">
+      <c r="AB10">
         <v>3.3736264441292803E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AC10">
         <v>0.235219360835765</v>
       </c>
-      <c r="AC9">
+      <c r="AD10" s="3">
         <v>0.59779960410219102</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>0.97039131308314697</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>0.56426055497347405</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>0.92130291204803405</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>0.96207561314503998</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>0.978199490113697</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>0.98304619150189998</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>0.44703327437629398</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>0.92783641722312105</v>
       </c>
-      <c r="I10">
+      <c r="J11">
         <v>0.97423062454082199</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>5.1507273298573901E-2</v>
       </c>
-      <c r="L10">
+      <c r="M11">
         <v>0.31578190871114697</v>
       </c>
-      <c r="M10">
+      <c r="N11">
         <v>0.16177437059074301</v>
       </c>
-      <c r="N10">
+      <c r="O11">
         <v>1.29113175603094E-2</v>
       </c>
-      <c r="O10">
+      <c r="P11">
         <v>5.46729373826337E-2</v>
       </c>
-      <c r="P10">
+      <c r="Q11">
         <v>0.10318285281931799</v>
       </c>
-      <c r="Q10">
+      <c r="R11">
         <v>0.25147569954296001</v>
       </c>
-      <c r="R10">
+      <c r="S11">
         <v>0.182887808775619</v>
       </c>
-      <c r="S10">
+      <c r="T11">
         <v>6.4660774794276593E-2</v>
       </c>
-      <c r="T10">
+      <c r="U11">
         <v>2.0467224173034201E-2</v>
       </c>
-      <c r="U10">
+      <c r="V11">
         <v>0.19438122721283199</v>
       </c>
-      <c r="V10">
+      <c r="W11">
         <v>8.1415886511840105E-2</v>
       </c>
-      <c r="W10">
+      <c r="X11">
         <v>0.301593682248053</v>
       </c>
-      <c r="X10">
+      <c r="Y11">
         <v>0.158134516183256</v>
       </c>
-      <c r="Y10">
+      <c r="Z11" s="3">
         <v>0.50105812812994099</v>
       </c>
-      <c r="Z10">
+      <c r="AA11">
         <v>0.35354322248898401</v>
       </c>
-      <c r="AA10">
+      <c r="AB11">
         <v>3.5584894814981803E-2</v>
       </c>
-      <c r="AB10">
+      <c r="AC11">
         <v>0.28692349870127598</v>
       </c>
-      <c r="AC10">
+      <c r="AD11" s="3">
         <v>0.59720637455823</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>5.5635448617436002E-2</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>1.42981444223367E-3</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>5.8843497853110702E-2</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>6.18501768717621E-2</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>5.4812580995250902E-2</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>5.11001632240866E-2</v>
       </c>
-      <c r="G11">
+      <c r="H12">
         <v>3.9880753600331697E-3</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>5.24064745050523E-2</v>
       </c>
-      <c r="I11">
+      <c r="J12">
         <v>5.6194851921353497E-2</v>
       </c>
-      <c r="J11">
+      <c r="K12">
         <v>5.1507273298573901E-2</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>0.37994717204101602</v>
       </c>
-      <c r="M11">
+      <c r="N12" s="1">
         <v>0.90375966831549603</v>
       </c>
-      <c r="N11">
+      <c r="O12" s="1">
         <v>0.96036297572198404</v>
       </c>
-      <c r="O11">
+      <c r="P12" s="1">
         <v>0.94436390425250405</v>
       </c>
-      <c r="P11">
+      <c r="Q12" s="1">
         <v>0.91050270424928004</v>
       </c>
-      <c r="Q11">
+      <c r="R12">
         <v>0.33428546506907197</v>
       </c>
-      <c r="R11">
+      <c r="S12" s="1">
         <v>0.84379184360616699</v>
       </c>
-      <c r="S11">
+      <c r="T12" s="1">
         <v>0.87934416471274901</v>
       </c>
-      <c r="T11">
+      <c r="U12" s="1">
         <v>0.88048212998040898</v>
       </c>
-      <c r="U11">
+      <c r="V12">
         <v>3.0291735533985099E-2</v>
       </c>
-      <c r="V11">
+      <c r="W12">
         <v>5.2786062601580301E-2</v>
       </c>
-      <c r="W11">
+      <c r="X12">
         <v>5.5582319357944103E-2</v>
       </c>
-      <c r="X11">
+      <c r="Y12">
         <v>6.3375728146241705E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Z12">
         <v>1.34314251661197E-2</v>
       </c>
-      <c r="Z11">
+      <c r="AA12">
         <v>8.2436399634728597E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AB12">
         <v>9.2836290345971895E-3</v>
       </c>
-      <c r="AB11">
+      <c r="AC12">
         <v>3.8461318523224E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AD12">
         <v>8.6660132966536393E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>0.33739810437117101</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>0.15350102681151601</v>
       </c>
-      <c r="C12">
+      <c r="D13">
         <v>0.33493808355618698</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <v>0.33948567035566701</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>0.33179113001307697</v>
       </c>
-      <c r="F12">
+      <c r="G13">
         <v>0.31594762517059199</v>
       </c>
-      <c r="G12">
+      <c r="H13">
         <v>0.10787213453254001</v>
       </c>
-      <c r="H12">
+      <c r="I13">
         <v>0.30937127384051699</v>
       </c>
-      <c r="I12">
+      <c r="J13">
         <v>0.32006503931553099</v>
       </c>
-      <c r="J12">
+      <c r="K13">
         <v>0.31578190871114697</v>
       </c>
-      <c r="K12">
+      <c r="L13">
         <v>0.37994717204101602</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>9.3062720668216498E-2</v>
       </c>
-      <c r="N12">
+      <c r="O13">
         <v>0.48914543680847999</v>
       </c>
-      <c r="O12">
+      <c r="P13">
         <v>0.62050910893304201</v>
       </c>
-      <c r="P12">
+      <c r="Q13">
         <v>0.25930196302379899</v>
       </c>
-      <c r="Q12">
+      <c r="R13" s="1">
         <v>0.79968723668461095</v>
       </c>
-      <c r="R12">
+      <c r="S13">
         <v>8.5090687001023901E-2</v>
       </c>
-      <c r="S12">
+      <c r="T13">
         <v>0.33316265821381802</v>
       </c>
-      <c r="T12">
+      <c r="U13">
         <v>0.42716455958329402</v>
       </c>
-      <c r="U12">
+      <c r="V13">
         <v>7.3119929112624799E-2</v>
       </c>
-      <c r="V12">
+      <c r="W13">
         <v>0.13635839524877</v>
       </c>
-      <c r="W12">
+      <c r="X13">
         <v>5.0063846103550698E-2</v>
       </c>
-      <c r="X12">
+      <c r="Y13">
         <v>0.122591987255014</v>
       </c>
-      <c r="Y12">
+      <c r="Z13">
         <v>6.15235744856856E-2</v>
       </c>
-      <c r="Z12">
+      <c r="AA13">
         <v>0.21150691285696699</v>
       </c>
-      <c r="AA12">
+      <c r="AB13">
         <v>4.1474297597588798E-2</v>
       </c>
-      <c r="AB12">
+      <c r="AC13">
         <v>2.35654281882508E-2</v>
       </c>
-      <c r="AC12">
+      <c r="AD13">
         <v>0.327723865377538</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>0.17915867282286099</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>4.6814865710847302E-2</v>
       </c>
-      <c r="C13">
+      <c r="D14">
         <v>0.18331381283569201</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <v>0.186243144098588</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <v>0.17447923939928001</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>0.1672575561936</v>
       </c>
-      <c r="G13">
+      <c r="H14">
         <v>5.9387091640538099E-3</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>0.17145990921405499</v>
       </c>
-      <c r="I13">
+      <c r="J14">
         <v>0.173850760988396</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <v>0.16177437059074301</v>
       </c>
-      <c r="K13">
+      <c r="L14">
         <v>0.90375966831549603</v>
       </c>
-      <c r="L13">
+      <c r="M14">
         <v>9.3062720668216498E-2</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
         <v>0.83164828388379297</v>
       </c>
-      <c r="O13">
+      <c r="P14">
         <v>0.74898485670318504</v>
       </c>
-      <c r="P13">
+      <c r="Q14" s="1">
         <v>0.85921462597973297</v>
       </c>
-      <c r="Q13">
+      <c r="R14">
         <v>0.12203234108170601</v>
       </c>
-      <c r="R13">
+      <c r="S14" s="1">
         <v>0.87662075009835805</v>
       </c>
-      <c r="S13">
+      <c r="T14" s="1">
         <v>0.81512065974721604</v>
       </c>
-      <c r="T13">
+      <c r="U14" s="1">
         <v>0.77323464231850703</v>
       </c>
-      <c r="U13">
+      <c r="V14">
         <v>7.2948334734809902E-3</v>
       </c>
-      <c r="V13">
+      <c r="W14">
         <v>6.1388567356180602E-3</v>
       </c>
-      <c r="W13">
+      <c r="X14">
         <v>5.0805746741437299E-2</v>
       </c>
-      <c r="X13">
+      <c r="Y14">
         <v>0.111333780317269</v>
       </c>
-      <c r="Y13">
+      <c r="Z14">
         <v>2.4248484293892199E-2</v>
       </c>
-      <c r="Z13">
+      <c r="AA14">
         <v>0.131745986676163</v>
       </c>
-      <c r="AA13">
+      <c r="AB14">
         <v>4.4545478695779198E-3</v>
       </c>
-      <c r="AB13">
+      <c r="AC14">
         <v>6.1177038092803199E-2</v>
       </c>
-      <c r="AC13">
+      <c r="AD14">
         <v>1.7341899840095001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>1.1904843402524999E-2</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>2.13991596059427E-2</v>
       </c>
-      <c r="C14">
+      <c r="D15">
         <v>9.9465650504333408E-3</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>6.9629678418058798E-3</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>1.0989403932385599E-2</v>
       </c>
-      <c r="F14">
+      <c r="G15">
         <v>1.4817360105827199E-2</v>
       </c>
-      <c r="G14">
+      <c r="H15">
         <v>1.53177165903415E-2</v>
       </c>
-      <c r="H14">
+      <c r="I15">
         <v>1.4283432897007901E-2</v>
       </c>
-      <c r="I14">
+      <c r="J15">
         <v>1.1831519764144699E-2</v>
       </c>
-      <c r="J14">
+      <c r="K15">
         <v>1.29113175603094E-2</v>
       </c>
-      <c r="K14">
+      <c r="L15">
         <v>0.96036297572198404</v>
       </c>
-      <c r="L14">
+      <c r="M15">
         <v>0.48914543680847999</v>
       </c>
-      <c r="M14">
+      <c r="N15">
         <v>0.83164828388379297</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
         <v>0.92744218785316102</v>
       </c>
-      <c r="P14">
+      <c r="Q15" s="1">
         <v>0.86290937884580898</v>
       </c>
-      <c r="Q14">
+      <c r="R15">
         <v>0.43171214989429002</v>
       </c>
-      <c r="R14">
+      <c r="S15" s="3">
         <v>0.778731362659559</v>
       </c>
-      <c r="S14">
+      <c r="T15" s="1">
         <v>0.85876117729385204</v>
       </c>
-      <c r="T14">
+      <c r="U15" s="1">
         <v>0.86109126348500797</v>
       </c>
-      <c r="U14">
+      <c r="V15">
         <v>4.1349578379254903E-2</v>
       </c>
-      <c r="V14">
+      <c r="W15">
         <v>6.6163837650316498E-2</v>
       </c>
-      <c r="W14">
+      <c r="X15">
         <v>7.9651706086152199E-2</v>
       </c>
-      <c r="X14">
+      <c r="Y15">
         <v>3.6021144522373601E-2</v>
       </c>
-      <c r="Y14">
+      <c r="Z15">
         <v>1.6023903271051899E-2</v>
       </c>
-      <c r="Z14">
+      <c r="AA15">
         <v>2.4409410500094601E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AB15">
         <v>1.46392005637317E-2</v>
       </c>
-      <c r="AB14">
+      <c r="AC15">
         <v>1.49357178187676E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AD15">
         <v>0.12960794854817001</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>5.7703504651642298E-2</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>4.6122124980650402E-2</v>
       </c>
-      <c r="C15">
+      <c r="D16">
         <v>5.4113743079063803E-2</v>
       </c>
-      <c r="D15">
+      <c r="E16">
         <v>5.3993560279043097E-2</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>5.6860533592309803E-2</v>
       </c>
-      <c r="F15">
+      <c r="G16">
         <v>5.4442066250398297E-2</v>
       </c>
-      <c r="G15">
+      <c r="H16">
         <v>3.8310180075002101E-2</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>5.0731391699440298E-2</v>
       </c>
-      <c r="I15">
+      <c r="J16">
         <v>5.2105053696645101E-2</v>
       </c>
-      <c r="J15">
+      <c r="K16">
         <v>5.46729373826337E-2</v>
       </c>
-      <c r="K15">
+      <c r="L16">
         <v>0.94436390425250405</v>
       </c>
-      <c r="L15">
+      <c r="M16">
         <v>0.62050910893304201</v>
       </c>
-      <c r="M15">
+      <c r="N16">
         <v>0.74898485670318504</v>
       </c>
-      <c r="N15">
+      <c r="O16">
         <v>0.92744218785316102</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
         <v>0.82898849257361096</v>
       </c>
-      <c r="Q15">
+      <c r="R16" s="3">
         <v>0.51318312029634305</v>
       </c>
-      <c r="R15">
+      <c r="S16" s="3">
         <v>0.71250732479523105</v>
       </c>
-      <c r="S15">
+      <c r="T16" s="1">
         <v>0.81955049763050003</v>
       </c>
-      <c r="T15">
+      <c r="U16" s="1">
         <v>0.85850370202872595</v>
       </c>
-      <c r="U15">
+      <c r="V16">
         <v>4.77706413802629E-2</v>
       </c>
-      <c r="V15">
+      <c r="W16">
         <v>8.4354490768672893E-2</v>
       </c>
-      <c r="W15">
+      <c r="X16">
         <v>5.44749577938268E-2</v>
       </c>
-      <c r="X15">
+      <c r="Y16">
         <v>9.2554976626726508E-3</v>
       </c>
-      <c r="Y15">
+      <c r="Z16">
         <v>3.6911113629726801E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AA16">
         <v>8.8413357687207508E-3</v>
       </c>
-      <c r="AA15">
+      <c r="AB16">
         <v>2.0826834621489598E-2</v>
       </c>
-      <c r="AB15">
+      <c r="AC16">
         <v>3.3129711389044601E-2</v>
       </c>
-      <c r="AC15">
+      <c r="AD16">
         <v>0.17349904882066999</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>0.111106232201895</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>9.5604412732126394E-3</v>
       </c>
-      <c r="C16">
+      <c r="D17">
         <v>0.11754281281171</v>
       </c>
-      <c r="D16">
+      <c r="E17">
         <v>0.11793669431449801</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>0.106371101029008</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>0.105474311610085</v>
       </c>
-      <c r="G16">
+      <c r="H17">
         <v>8.4655617383125098E-4</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <v>0.108349939306252</v>
       </c>
-      <c r="I16">
+      <c r="J17">
         <v>0.11049587057418001</v>
       </c>
-      <c r="J16">
+      <c r="K17">
         <v>0.10318285281931799</v>
       </c>
-      <c r="K16">
+      <c r="L17">
         <v>0.91050270424928004</v>
       </c>
-      <c r="L16">
+      <c r="M17">
         <v>0.25930196302379899</v>
       </c>
-      <c r="M16">
+      <c r="N17">
         <v>0.85921462597973297</v>
       </c>
-      <c r="N16">
+      <c r="O17">
         <v>0.86290937884580898</v>
       </c>
-      <c r="O16">
+      <c r="P17">
         <v>0.82898849257361096</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>0.32990184872065798</v>
       </c>
-      <c r="R16">
+      <c r="S17" s="1">
         <v>0.94005848089154997</v>
       </c>
-      <c r="S16">
+      <c r="T17" s="1">
         <v>0.96867393433784099</v>
       </c>
-      <c r="T16">
+      <c r="U17" s="1">
         <v>0.95676220596420702</v>
       </c>
-      <c r="U16">
+      <c r="V17">
         <v>4.80790032362719E-2</v>
       </c>
-      <c r="V16">
+      <c r="W17">
         <v>6.8981613525655903E-3</v>
       </c>
-      <c r="W16">
+      <c r="X17">
         <v>2.5138336743403801E-2</v>
       </c>
-      <c r="X16">
+      <c r="Y17">
         <v>0.12673918450101901</v>
       </c>
-      <c r="Y16">
+      <c r="Z17">
         <v>1.3529747227233701E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AA17">
         <v>0.104584906681987</v>
       </c>
-      <c r="AA16">
+      <c r="AB17">
         <v>1.6587726788644E-3</v>
       </c>
-      <c r="AB16">
+      <c r="AC17">
         <v>4.3585916400718398E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AD17">
         <v>3.4767008228421797E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>0.26524061282475803</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>0.146135584611115</v>
       </c>
-      <c r="C17">
+      <c r="D18">
         <v>0.2581714737202</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <v>0.26829504891883299</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>0.265227108512889</v>
       </c>
-      <c r="F17">
+      <c r="G18">
         <v>0.24548390542688001</v>
       </c>
-      <c r="G17">
+      <c r="H18">
         <v>0.116409294240484</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>0.23401238485803899</v>
       </c>
-      <c r="I17">
+      <c r="J18">
         <v>0.25042675533458802</v>
       </c>
-      <c r="J17">
+      <c r="K18">
         <v>0.25147569954296001</v>
       </c>
-      <c r="K17">
+      <c r="L18">
         <v>0.33428546506907197</v>
       </c>
-      <c r="L17">
+      <c r="M18">
         <v>0.79968723668461095</v>
       </c>
-      <c r="M17">
+      <c r="N18">
         <v>0.12203234108170601</v>
       </c>
-      <c r="N17">
+      <c r="O18">
         <v>0.43171214989429002</v>
       </c>
-      <c r="O17">
+      <c r="P18">
         <v>0.51318312029634305</v>
       </c>
-      <c r="P17">
+      <c r="Q18">
         <v>0.32990184872065897</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
         <v>0.109584742818864</v>
       </c>
-      <c r="S17">
+      <c r="T18">
         <v>0.41510465479145098</v>
       </c>
-      <c r="T17">
+      <c r="U18" s="3">
         <v>0.541525275159218</v>
       </c>
-      <c r="U17">
+      <c r="V18">
         <v>6.4739089964445402E-3</v>
       </c>
-      <c r="V17">
+      <c r="W18">
         <v>0.136797858323702</v>
       </c>
-      <c r="W17">
+      <c r="X18">
         <v>3.6665204784152E-2</v>
       </c>
-      <c r="X17">
+      <c r="Y18">
         <v>7.9838822761449199E-2</v>
       </c>
-      <c r="Y17">
+      <c r="Z18">
         <v>5.5656584348394302E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AA18">
         <v>0.17919871279437299</v>
       </c>
-      <c r="AA17">
+      <c r="AB18">
         <v>2.81495895999491E-2</v>
       </c>
-      <c r="AB17">
+      <c r="AC18">
         <v>1.54313590318714E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AD18">
         <v>0.27147934442817101</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>0.19901026988265999</v>
       </c>
-      <c r="B18">
+      <c r="C19">
         <v>4.5175694005973002E-2</v>
       </c>
-      <c r="C18">
+      <c r="D19">
         <v>0.205329153064679</v>
       </c>
-      <c r="D18">
+      <c r="E19">
         <v>0.20652138433273701</v>
       </c>
-      <c r="E18">
+      <c r="F19">
         <v>0.19225805687765599</v>
       </c>
-      <c r="F18">
+      <c r="G19">
         <v>0.18828682613248399</v>
       </c>
-      <c r="G18">
+      <c r="H19">
         <v>1.3221204187013299E-2</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <v>0.19203641931343801</v>
       </c>
-      <c r="I18">
+      <c r="J19">
         <v>0.19459214485979301</v>
       </c>
-      <c r="J18">
+      <c r="K19">
         <v>0.182887808775619</v>
       </c>
-      <c r="K18">
+      <c r="L19">
         <v>0.84379184360616699</v>
       </c>
-      <c r="L18">
+      <c r="M19">
         <v>8.5090687001023901E-2</v>
       </c>
-      <c r="M18">
+      <c r="N19">
         <v>0.87662075009835805</v>
       </c>
-      <c r="N18">
+      <c r="O19">
         <v>0.778731362659559</v>
       </c>
-      <c r="O18">
+      <c r="P19">
         <v>0.71250732479523105</v>
       </c>
-      <c r="P18">
+      <c r="Q19">
         <v>0.94005848089154997</v>
       </c>
-      <c r="Q18">
+      <c r="R19">
         <v>0.109584742818864</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
         <v>0.88911720643805403</v>
       </c>
-      <c r="T18">
+      <c r="U19" s="1">
         <v>0.832415473886847</v>
       </c>
-      <c r="U18">
+      <c r="V19">
         <v>4.8853768672865602E-2</v>
       </c>
-      <c r="V18">
+      <c r="W19">
         <v>4.3635845292901099E-2</v>
       </c>
-      <c r="W18">
+      <c r="X19">
         <v>1.90222849141343E-2</v>
       </c>
-      <c r="X18">
+      <c r="Y19">
         <v>0.16301164817195499</v>
       </c>
-      <c r="Y18">
+      <c r="Z19">
         <v>1.45520792672064E-2</v>
       </c>
-      <c r="Z18">
+      <c r="AA19">
         <v>0.144922002526232</v>
       </c>
-      <c r="AA18">
+      <c r="AB19">
         <v>1.0210142128615299E-2</v>
       </c>
-      <c r="AB18">
+      <c r="AC19">
         <v>5.6474786304818898E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AD19">
         <v>3.8808162017459902E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>7.0862522818734702E-2</v>
       </c>
-      <c r="B19">
+      <c r="C20">
         <v>1.0340209102848601E-2</v>
       </c>
-      <c r="C19">
+      <c r="D20">
         <v>7.7784515185054096E-2</v>
       </c>
-      <c r="D19">
+      <c r="E20">
         <v>7.6740332985161905E-2</v>
       </c>
-      <c r="E19">
+      <c r="F20">
         <v>6.6101415362780802E-2</v>
       </c>
-      <c r="F19">
+      <c r="G20">
         <v>6.7245968997461103E-2</v>
       </c>
-      <c r="G19">
+      <c r="H20">
         <v>1.17575309287465E-2</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <v>7.0858886327594794E-2</v>
       </c>
-      <c r="I19">
+      <c r="J20">
         <v>7.09173016860489E-2</v>
       </c>
-      <c r="J19">
+      <c r="K20">
         <v>6.4660774794276593E-2</v>
       </c>
-      <c r="K19">
+      <c r="L20">
         <v>0.87934416471274901</v>
       </c>
-      <c r="L19">
+      <c r="M20">
         <v>0.33316265821381802</v>
       </c>
-      <c r="M19">
+      <c r="N20">
         <v>0.81512065974721604</v>
       </c>
-      <c r="N19">
+      <c r="O20">
         <v>0.85876117729385204</v>
       </c>
-      <c r="O19">
+      <c r="P20">
         <v>0.81955049763050003</v>
       </c>
-      <c r="P19">
+      <c r="Q20">
         <v>0.96867393433784099</v>
       </c>
-      <c r="Q19">
+      <c r="R20">
         <v>0.41510465479145098</v>
       </c>
-      <c r="R19">
+      <c r="S20">
         <v>0.88911720643805403</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
         <v>0.93933857321536696</v>
       </c>
-      <c r="U19">
+      <c r="V20">
         <v>4.7412707564249201E-2</v>
       </c>
-      <c r="V19">
+      <c r="W20">
         <v>1.5022414158916E-2</v>
       </c>
-      <c r="W19">
+      <c r="X20">
         <v>3.8213310947012101E-2</v>
       </c>
-      <c r="X19">
+      <c r="Y20">
         <v>0.114113346683952</v>
       </c>
-      <c r="Y19">
+      <c r="Z20">
         <v>7.8875668848972392E-3</v>
       </c>
-      <c r="Z19">
+      <c r="AA20">
         <v>7.0814569370241998E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AB20">
         <v>4.7473265763363299E-3</v>
       </c>
-      <c r="AB19">
+      <c r="AC20">
         <v>2.4358567246783099E-2</v>
       </c>
-      <c r="AC19">
+      <c r="AD20">
         <v>6.4659800920835397E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>2.3531912956766599E-2</v>
       </c>
-      <c r="B20">
+      <c r="C21">
         <v>2.8616545398639202E-2</v>
       </c>
-      <c r="C20">
+      <c r="D21">
         <v>3.0479112329775501E-2</v>
       </c>
-      <c r="D20">
+      <c r="E21">
         <v>2.83049328660668E-2</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>1.99854642858294E-2</v>
       </c>
-      <c r="F20">
+      <c r="G21">
         <v>2.3577403921983299E-2</v>
       </c>
-      <c r="G20">
+      <c r="H21">
         <v>2.88424056749273E-2</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>2.8938981388684001E-2</v>
       </c>
-      <c r="I20">
+      <c r="J21">
         <v>2.6365640013143999E-2</v>
       </c>
-      <c r="J20">
+      <c r="K21">
         <v>2.0467224173034201E-2</v>
       </c>
-      <c r="K20">
+      <c r="L21">
         <v>0.88048212998040898</v>
       </c>
-      <c r="L20">
+      <c r="M21">
         <v>0.42716455958329402</v>
       </c>
-      <c r="M20">
+      <c r="N21">
         <v>0.77323464231850703</v>
       </c>
-      <c r="N20">
+      <c r="O21">
         <v>0.86109126348500797</v>
       </c>
-      <c r="O20">
+      <c r="P21">
         <v>0.85850370202872595</v>
       </c>
-      <c r="P20">
+      <c r="Q21">
         <v>0.95676220596420702</v>
       </c>
-      <c r="Q20">
+      <c r="R21">
         <v>0.541525275159218</v>
       </c>
-      <c r="R20">
+      <c r="S21">
         <v>0.832415473886847</v>
       </c>
-      <c r="S20">
+      <c r="T21">
         <v>0.93933857321536696</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
         <v>3.7923018963037999E-2</v>
       </c>
-      <c r="V20">
+      <c r="W21">
         <v>4.6936212190263102E-2</v>
       </c>
-      <c r="W20">
+      <c r="X21">
         <v>3.1842426646941702E-2</v>
       </c>
-      <c r="X20">
+      <c r="Y21">
         <v>8.5539331314293907E-2</v>
       </c>
-      <c r="Y20">
+      <c r="Z21">
         <v>2.9899218166025299E-2</v>
       </c>
-      <c r="Z20">
+      <c r="AA21">
         <v>4.2910157965384201E-2</v>
       </c>
-      <c r="AA20">
+      <c r="AB21">
         <v>6.5698089979438603E-3</v>
       </c>
-      <c r="AB20">
+      <c r="AC21">
         <v>3.6905073216457203E-2</v>
       </c>
-      <c r="AC20">
+      <c r="AD21">
         <v>0.101735587347614</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>0.19539200410814</v>
       </c>
-      <c r="B21">
+      <c r="C22">
         <v>7.5770773109040401E-2</v>
       </c>
-      <c r="C21">
+      <c r="D22">
         <v>0.19531932135561</v>
       </c>
-      <c r="D21">
+      <c r="E22">
         <v>0.196471125055586</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>0.190638530311633</v>
       </c>
-      <c r="F21">
+      <c r="G22">
         <v>0.195419222572699</v>
       </c>
-      <c r="G21">
+      <c r="H22">
         <v>6.1248400317943402E-2</v>
       </c>
-      <c r="H21">
+      <c r="I22">
         <v>0.190394217176796</v>
       </c>
-      <c r="I21">
+      <c r="J22">
         <v>0.19491286832836499</v>
       </c>
-      <c r="J21">
+      <c r="K22">
         <v>0.19438122721283199</v>
       </c>
-      <c r="K21">
+      <c r="L22">
         <v>3.0291735533985099E-2</v>
       </c>
-      <c r="L21">
+      <c r="M22">
         <v>7.3119929112624799E-2</v>
       </c>
-      <c r="M21">
+      <c r="N22">
         <v>7.2948334734809902E-3</v>
       </c>
-      <c r="N21">
+      <c r="O22">
         <v>4.1349578379254903E-2</v>
       </c>
-      <c r="O21">
+      <c r="P22">
         <v>4.77706413802629E-2</v>
       </c>
-      <c r="P21">
+      <c r="Q22">
         <v>4.80790032362719E-2</v>
       </c>
-      <c r="Q21">
+      <c r="R22">
         <v>6.4739089964445402E-3</v>
       </c>
-      <c r="R21">
+      <c r="S22">
         <v>4.8853768672865602E-2</v>
       </c>
-      <c r="S21">
+      <c r="T22">
         <v>4.7412707564249201E-2</v>
       </c>
-      <c r="T21">
+      <c r="U22">
         <v>3.7923018963037999E-2</v>
       </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>2.8045478806526001E-2</v>
       </c>
-      <c r="W21">
+      <c r="X22" s="3">
         <v>0.619926729486866</v>
       </c>
-      <c r="X21">
+      <c r="Y22">
         <v>6.7334934250857903E-2</v>
       </c>
-      <c r="Y21">
+      <c r="Z22">
         <v>0.15985897668394899</v>
       </c>
-      <c r="Z21">
+      <c r="AA22">
         <v>7.8120879835473403E-2</v>
       </c>
-      <c r="AA21">
+      <c r="AB22">
         <v>6.3472470280505303E-2</v>
       </c>
-      <c r="AB21">
+      <c r="AC22">
         <v>0.103148723780533</v>
       </c>
-      <c r="AC21">
+      <c r="AD22">
         <v>0.21539673897209499</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>9.89578933165534E-2</v>
       </c>
-      <c r="B22">
+      <c r="C23">
         <v>6.1134483841449198E-2</v>
       </c>
-      <c r="C22">
+      <c r="D23">
         <v>9.5410612519391896E-2</v>
       </c>
-      <c r="D22">
+      <c r="E23">
         <v>9.5912998676929595E-2</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <v>9.8388270828788801E-2</v>
       </c>
-      <c r="F22">
+      <c r="G23">
         <v>8.2928226096811497E-2</v>
       </c>
-      <c r="G22">
+      <c r="H23">
         <v>2.8766681780060099E-2</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <v>8.1263732803893998E-2</v>
       </c>
-      <c r="I22">
+      <c r="J23">
         <v>8.3123411058852806E-2</v>
       </c>
-      <c r="J22">
+      <c r="K23">
         <v>8.1415886511840105E-2</v>
       </c>
-      <c r="K22">
+      <c r="L23">
         <v>5.2786062601580301E-2</v>
       </c>
-      <c r="L22">
+      <c r="M23">
         <v>0.13635839524877</v>
       </c>
-      <c r="M22">
+      <c r="N23">
         <v>6.1388567356180602E-3</v>
       </c>
-      <c r="N22">
+      <c r="O23">
         <v>6.6163837650316498E-2</v>
       </c>
-      <c r="O22">
+      <c r="P23">
         <v>8.4354490768672893E-2</v>
       </c>
-      <c r="P22">
+      <c r="Q23">
         <v>6.8981613525655903E-3</v>
       </c>
-      <c r="Q22">
+      <c r="R23">
         <v>0.136797858323702</v>
       </c>
-      <c r="R22">
+      <c r="S23">
         <v>4.3635845292901099E-2</v>
       </c>
-      <c r="S22">
+      <c r="T23">
         <v>1.5022414158916E-2</v>
       </c>
-      <c r="T22">
+      <c r="U23">
         <v>4.6936212190263102E-2</v>
       </c>
-      <c r="U22">
+      <c r="V23">
         <v>2.8045478806526001E-2</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>8.7747571090543902E-2</v>
       </c>
-      <c r="X22">
+      <c r="Y23">
         <v>6.2758512879447406E-2</v>
       </c>
-      <c r="Y22">
+      <c r="Z23">
         <v>4.6030227503317499E-2</v>
       </c>
-      <c r="Z22">
+      <c r="AA23">
         <v>7.3285534432925598E-2</v>
       </c>
-      <c r="AA22">
+      <c r="AB23">
         <v>1.9901721933956701E-2</v>
       </c>
-      <c r="AB22">
+      <c r="AC23">
         <v>4.3424291155387998E-2</v>
       </c>
-      <c r="AC22">
+      <c r="AD23">
         <v>6.53485093310954E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>0.29972486650048002</v>
       </c>
-      <c r="B23">
+      <c r="C24">
         <v>0.19975271862243599</v>
       </c>
-      <c r="C23">
+      <c r="D24">
         <v>0.27990565546299201</v>
       </c>
-      <c r="D23">
+      <c r="E24">
         <v>0.296487848908003</v>
       </c>
-      <c r="E23">
+      <c r="F24">
         <v>0.304453461460237</v>
       </c>
-      <c r="F23">
+      <c r="G24">
         <v>0.29752043088269098</v>
       </c>
-      <c r="G23">
+      <c r="H24">
         <v>0.136367474383218</v>
       </c>
-      <c r="H23">
+      <c r="I24">
         <v>0.280862747107476</v>
       </c>
-      <c r="I23">
+      <c r="J24">
         <v>0.29685217105085998</v>
       </c>
-      <c r="J23">
+      <c r="K24">
         <v>0.301593682248052</v>
       </c>
-      <c r="K23">
+      <c r="L24">
         <v>5.5582319357944103E-2</v>
       </c>
-      <c r="L23">
+      <c r="M24">
         <v>5.0063846103550698E-2</v>
       </c>
-      <c r="M23">
+      <c r="N24">
         <v>5.0805746741437299E-2</v>
       </c>
-      <c r="N23">
+      <c r="O24">
         <v>7.9651706086152199E-2</v>
       </c>
-      <c r="O23">
+      <c r="P24">
         <v>5.4474957793826703E-2</v>
       </c>
-      <c r="P23">
+      <c r="Q24">
         <v>2.5138336743403801E-2</v>
       </c>
-      <c r="Q23">
+      <c r="R24">
         <v>3.6665204784152E-2</v>
       </c>
-      <c r="R23">
+      <c r="S24">
         <v>1.90222849141343E-2</v>
       </c>
-      <c r="S23">
+      <c r="T24">
         <v>3.8213310947012101E-2</v>
       </c>
-      <c r="T23">
+      <c r="U24">
         <v>3.1842426646941702E-2</v>
       </c>
-      <c r="U23">
+      <c r="V24">
         <v>0.619926729486866</v>
       </c>
-      <c r="V23">
+      <c r="W24">
         <v>8.7747571090543902E-2</v>
       </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
         <v>0.17729073058973299</v>
       </c>
-      <c r="Y23">
+      <c r="Z24">
         <v>0.16839579702209501</v>
       </c>
-      <c r="Z23">
+      <c r="AA24">
         <v>0.112079459244472</v>
       </c>
-      <c r="AA23">
+      <c r="AB24">
         <v>5.6933253432477002E-2</v>
       </c>
-      <c r="AB23">
+      <c r="AC24">
         <v>9.5652004760228407E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AD24">
         <v>0.308899856624054</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>0.16630453037631601</v>
       </c>
-      <c r="B24">
+      <c r="C25">
         <v>0.106563882441313</v>
       </c>
-      <c r="C24">
+      <c r="D25">
         <v>0.15960996167893701</v>
       </c>
-      <c r="D24">
+      <c r="E25">
         <v>0.167909482767549</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <v>0.16604216827784299</v>
       </c>
-      <c r="F24">
+      <c r="G25">
         <v>0.15633692463464699</v>
       </c>
-      <c r="G24">
+      <c r="H25">
         <v>8.3396342220039194E-2</v>
       </c>
-      <c r="H24">
+      <c r="I25">
         <v>0.14872798702287901</v>
       </c>
-      <c r="I24">
+      <c r="J25">
         <v>0.159537358410445</v>
       </c>
-      <c r="J24">
+      <c r="K25">
         <v>0.158134516183256</v>
       </c>
-      <c r="K24">
+      <c r="L25">
         <v>6.3375728146241705E-2</v>
       </c>
-      <c r="L24">
+      <c r="M25">
         <v>0.122591987255014</v>
       </c>
-      <c r="M24">
+      <c r="N25">
         <v>0.111333780317269</v>
       </c>
-      <c r="N24">
+      <c r="O25">
         <v>3.6021144522373601E-2</v>
       </c>
-      <c r="O24">
+      <c r="P25">
         <v>9.2554976626726508E-3</v>
       </c>
-      <c r="P24">
+      <c r="Q25">
         <v>0.12673918450101901</v>
       </c>
-      <c r="Q24">
+      <c r="R25">
         <v>7.9838822761449199E-2</v>
       </c>
-      <c r="R24">
+      <c r="S25">
         <v>0.16301164817195499</v>
       </c>
-      <c r="S24">
+      <c r="T25">
         <v>0.114113346683952</v>
       </c>
-      <c r="T24">
+      <c r="U25">
         <v>8.5539331314293907E-2</v>
       </c>
-      <c r="U24">
+      <c r="V25">
         <v>6.7334934250857903E-2</v>
       </c>
-      <c r="V24">
+      <c r="W25">
         <v>6.2758512879447406E-2</v>
       </c>
-      <c r="W24">
+      <c r="X25">
         <v>0.17729073058973299</v>
       </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
         <v>4.0808728409024102E-2</v>
       </c>
-      <c r="Z24">
+      <c r="AA25">
         <v>9.57331877742158E-2</v>
       </c>
-      <c r="AA24">
+      <c r="AB25">
         <v>3.65540496948785E-2</v>
       </c>
-      <c r="AB24">
+      <c r="AC25">
         <v>3.57784921535204E-2</v>
       </c>
-      <c r="AC24">
+      <c r="AD25">
         <v>0.16517877561531899</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>0.45773584101779102</v>
       </c>
-      <c r="B25">
+      <c r="C26">
         <v>0.38460685837130199</v>
       </c>
-      <c r="C25">
+      <c r="D26">
         <v>0.40734689396699703</v>
       </c>
-      <c r="D25">
+      <c r="E26">
         <v>0.45834511024969599</v>
       </c>
-      <c r="E25">
+      <c r="F26">
         <v>0.47976055538273499</v>
       </c>
-      <c r="F25">
+      <c r="G26">
         <v>0.45759137550990098</v>
       </c>
-      <c r="G25">
+      <c r="H26">
         <v>0.424897001665197</v>
       </c>
-      <c r="H25">
+      <c r="I26">
         <v>0.38772157374615002</v>
       </c>
-      <c r="I25">
+      <c r="J26">
         <v>0.45643892440158701</v>
       </c>
-      <c r="J25">
+      <c r="K26">
         <v>0.50105812812994099</v>
       </c>
-      <c r="K25">
+      <c r="L26">
         <v>1.34314251661197E-2</v>
       </c>
-      <c r="L25">
+      <c r="M26">
         <v>6.15235744856856E-2</v>
       </c>
-      <c r="M25">
+      <c r="N26">
         <v>2.4248484293892199E-2</v>
       </c>
-      <c r="N25">
+      <c r="O26">
         <v>1.6023903271051899E-2</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>3.6911113629726801E-2</v>
       </c>
-      <c r="P25">
+      <c r="Q26">
         <v>1.3529747227233701E-2</v>
       </c>
-      <c r="Q25">
+      <c r="R26">
         <v>5.5656584348394302E-2</v>
       </c>
-      <c r="R25">
+      <c r="S26">
         <v>1.45520792672064E-2</v>
       </c>
-      <c r="S25">
+      <c r="T26">
         <v>7.8875668848972392E-3</v>
       </c>
-      <c r="T25">
+      <c r="U26">
         <v>2.9899218166025299E-2</v>
       </c>
-      <c r="U25">
+      <c r="V26">
         <v>0.15985897668394899</v>
       </c>
-      <c r="V25">
+      <c r="W26">
         <v>4.6030227503317499E-2</v>
       </c>
-      <c r="W25">
+      <c r="X26">
         <v>0.16839579702209501</v>
       </c>
-      <c r="X25">
+      <c r="Y26">
         <v>4.0808728409024102E-2</v>
       </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
         <v>7.2948037581727701E-2</v>
       </c>
-      <c r="AA25">
+      <c r="AB26">
         <v>8.34010512234757E-3</v>
       </c>
-      <c r="AB25">
+      <c r="AC26">
         <v>0.73966377347490697</v>
       </c>
-      <c r="AC25">
+      <c r="AD26">
         <v>0.26225892672269202</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>0.36548850552794698</v>
       </c>
-      <c r="B26">
+      <c r="C27">
         <v>0.12906224433267699</v>
       </c>
-      <c r="C26">
+      <c r="D27">
         <v>0.36167504838595899</v>
       </c>
-      <c r="D26">
+      <c r="E27">
         <v>0.37321985841501798</v>
       </c>
-      <c r="E26">
+      <c r="F27">
         <v>0.36555235259740698</v>
       </c>
-      <c r="F26">
+      <c r="G27">
         <v>0.34890185238913701</v>
       </c>
-      <c r="G26">
+      <c r="H27">
         <v>6.7745664191694102E-2</v>
       </c>
-      <c r="H26">
+      <c r="I27">
         <v>0.34313644536292798</v>
       </c>
-      <c r="I26">
+      <c r="J27">
         <v>0.35833973885808401</v>
       </c>
-      <c r="J26">
+      <c r="K27">
         <v>0.35354322248898401</v>
       </c>
-      <c r="K26">
+      <c r="L27">
         <v>8.2436399634728499E-2</v>
       </c>
-      <c r="L26">
+      <c r="M27">
         <v>0.21150691285696699</v>
       </c>
-      <c r="M26">
+      <c r="N27">
         <v>0.131745986676163</v>
       </c>
-      <c r="N26">
+      <c r="O27">
         <v>2.4409410500094601E-2</v>
       </c>
-      <c r="O26">
+      <c r="P27">
         <v>8.8413357687207508E-3</v>
       </c>
-      <c r="P26">
+      <c r="Q27">
         <v>0.104584906681987</v>
       </c>
-      <c r="Q26">
+      <c r="R27">
         <v>0.17919871279437299</v>
       </c>
-      <c r="R26">
+      <c r="S27">
         <v>0.144922002526232</v>
       </c>
-      <c r="S26">
+      <c r="T27">
         <v>7.0814569370241998E-2</v>
       </c>
-      <c r="T26">
+      <c r="U27">
         <v>4.2910157965384201E-2</v>
       </c>
-      <c r="U26">
+      <c r="V27">
         <v>7.8120879835473403E-2</v>
       </c>
-      <c r="V26">
+      <c r="W27">
         <v>7.3285534432925598E-2</v>
       </c>
-      <c r="W26">
+      <c r="X27">
         <v>0.112079459244472</v>
       </c>
-      <c r="X26">
+      <c r="Y27">
         <v>9.57331877742158E-2</v>
       </c>
-      <c r="Y26">
+      <c r="Z27">
         <v>7.2948037581727701E-2</v>
       </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
         <v>1.8637400664892698E-2</v>
       </c>
-      <c r="AB26">
+      <c r="AC27">
         <v>0.31723325307969402</v>
       </c>
-      <c r="AC26">
+      <c r="AD27">
         <v>0.23716967164219899</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>3.6657621361249303E-2</v>
       </c>
-      <c r="B27">
+      <c r="C28">
         <v>2.44092811508414E-2</v>
       </c>
-      <c r="C27">
+      <c r="D28">
         <v>3.3961926618353497E-2</v>
       </c>
-      <c r="D27">
+      <c r="E28">
         <v>3.54021154987832E-2</v>
       </c>
-      <c r="E27">
+      <c r="F28">
         <v>3.5633794377622298E-2</v>
       </c>
-      <c r="F27">
+      <c r="G28">
         <v>3.4867475866378103E-2</v>
       </c>
-      <c r="G27">
+      <c r="H28">
         <v>2.2872170249284899E-2</v>
       </c>
-      <c r="H27">
+      <c r="I28">
         <v>3.1682759727210297E-2</v>
       </c>
-      <c r="I27">
+      <c r="J28">
         <v>3.3736264441292803E-2</v>
       </c>
-      <c r="J27">
+      <c r="K28">
         <v>3.5584894814981803E-2</v>
       </c>
-      <c r="K27">
+      <c r="L28">
         <v>9.2836290345971895E-3</v>
       </c>
-      <c r="L27">
+      <c r="M28">
         <v>4.1474297597588798E-2</v>
       </c>
-      <c r="M27">
+      <c r="N28">
         <v>4.4545478695779198E-3</v>
       </c>
-      <c r="N27">
+      <c r="O28">
         <v>1.46392005637317E-2</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>2.0826834621489598E-2</v>
       </c>
-      <c r="P27">
+      <c r="Q28">
         <v>1.6587726788644E-3</v>
       </c>
-      <c r="Q27">
+      <c r="R28">
         <v>2.81495895999491E-2</v>
       </c>
-      <c r="R27">
+      <c r="S28">
         <v>1.0210142128615299E-2</v>
       </c>
-      <c r="S27">
+      <c r="T28">
         <v>4.7473265763363299E-3</v>
       </c>
-      <c r="T27">
+      <c r="U28">
         <v>6.5698089979438603E-3</v>
       </c>
-      <c r="U27">
+      <c r="V28">
         <v>6.3472470280505303E-2</v>
       </c>
-      <c r="V27">
+      <c r="W28">
         <v>1.9901721933956701E-2</v>
       </c>
-      <c r="W27">
+      <c r="X28">
         <v>5.6933253432477002E-2</v>
       </c>
-      <c r="X27">
+      <c r="Y28">
         <v>3.65540496948785E-2</v>
       </c>
-      <c r="Y27">
+      <c r="Z28">
         <v>8.34010512234757E-3</v>
       </c>
-      <c r="Z27">
+      <c r="AA28">
         <v>1.8637400664892698E-2</v>
       </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
         <v>5.0371658469161203E-3</v>
       </c>
-      <c r="AC27">
+      <c r="AD28">
         <v>5.3336107760566E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>0.23950349967184301</v>
       </c>
-      <c r="B28">
+      <c r="C29">
         <v>0.335702041207599</v>
       </c>
-      <c r="C28">
+      <c r="D29">
         <v>0.185201655789591</v>
       </c>
-      <c r="D28">
+      <c r="E29">
         <v>0.23171619904923599</v>
       </c>
-      <c r="E28">
+      <c r="F29">
         <v>0.264761265931442</v>
       </c>
-      <c r="F28">
+      <c r="G29">
         <v>0.24558841595394901</v>
       </c>
-      <c r="G28">
+      <c r="H29">
         <v>0.39883616652050002</v>
       </c>
-      <c r="H28">
+      <c r="I29">
         <v>0.176150765578794</v>
       </c>
-      <c r="I28">
+      <c r="J29">
         <v>0.235219360835765</v>
       </c>
-      <c r="J28">
+      <c r="K29">
         <v>0.28692349870127598</v>
       </c>
-      <c r="K28">
+      <c r="L29">
         <v>3.8461318523224E-2</v>
       </c>
-      <c r="L28">
+      <c r="M29">
         <v>2.35654281882508E-2</v>
       </c>
-      <c r="M28">
+      <c r="N29">
         <v>6.1177038092803199E-2</v>
       </c>
-      <c r="N28">
+      <c r="O29">
         <v>1.49357178187676E-2</v>
       </c>
-      <c r="O28">
+      <c r="P29">
         <v>3.3129711389044601E-2</v>
       </c>
-      <c r="P28">
+      <c r="Q29">
         <v>4.3585916400718398E-2</v>
       </c>
-      <c r="Q28">
+      <c r="R29">
         <v>1.54313590318714E-2</v>
       </c>
-      <c r="R28">
+      <c r="S29">
         <v>5.6474786304818898E-2</v>
       </c>
-      <c r="S28">
+      <c r="T29">
         <v>2.4358567246783099E-2</v>
       </c>
-      <c r="T28">
+      <c r="U29">
         <v>3.6905073216457203E-2</v>
       </c>
-      <c r="U28">
+      <c r="V29">
         <v>0.103148723780533</v>
       </c>
-      <c r="V28">
+      <c r="W29">
         <v>4.3424291155387998E-2</v>
       </c>
-      <c r="W28">
+      <c r="X29">
         <v>9.5652004760228407E-2</v>
       </c>
-      <c r="X28">
+      <c r="Y29">
         <v>3.57784921535204E-2</v>
       </c>
-      <c r="Y28">
+      <c r="Z29">
         <v>0.73966377347490697</v>
       </c>
-      <c r="Z28">
+      <c r="AA29">
         <v>0.31723325307969402</v>
       </c>
-      <c r="AA28">
+      <c r="AB29">
         <v>5.0371658469161203E-3</v>
       </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
         <v>0.132342284475642</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>0.62062935434418998</v>
       </c>
-      <c r="B29">
+      <c r="C30">
         <v>0.32187950458713299</v>
       </c>
-      <c r="C29">
+      <c r="D30">
         <v>0.60450200435653101</v>
       </c>
-      <c r="D29">
+      <c r="E30">
         <v>0.61696854724164796</v>
       </c>
-      <c r="E29">
+      <c r="F30">
         <v>0.61340175145009301</v>
       </c>
-      <c r="F29">
+      <c r="G30">
         <v>0.59699353948445599</v>
       </c>
-      <c r="G29">
+      <c r="H30">
         <v>0.22807225244520499</v>
       </c>
-      <c r="H29">
+      <c r="I30">
         <v>0.57612017479979705</v>
       </c>
-      <c r="I29">
+      <c r="J30">
         <v>0.59779960410219102</v>
       </c>
-      <c r="J29">
+      <c r="K30">
         <v>0.59720637455823</v>
       </c>
-      <c r="K29">
+      <c r="L30">
         <v>8.6660132966536393E-2</v>
       </c>
-      <c r="L29">
+      <c r="M30">
         <v>0.327723865377538</v>
       </c>
-      <c r="M29">
+      <c r="N30">
         <v>1.7341899840095001E-2</v>
       </c>
-      <c r="N29">
+      <c r="O30">
         <v>0.12960794854817001</v>
       </c>
-      <c r="O29">
+      <c r="P30">
         <v>0.17349904882066999</v>
       </c>
-      <c r="P29">
+      <c r="Q30">
         <v>3.4767008228421797E-2</v>
       </c>
-      <c r="Q29">
+      <c r="R30">
         <v>0.27147934442817101</v>
       </c>
-      <c r="R29">
+      <c r="S30">
         <v>3.8808162017459902E-2</v>
       </c>
-      <c r="S29">
+      <c r="T30">
         <v>6.4659800920835397E-2</v>
       </c>
-      <c r="T29">
+      <c r="U30">
         <v>0.101735587347614</v>
       </c>
-      <c r="U29">
+      <c r="V30">
         <v>0.21539673897209499</v>
       </c>
-      <c r="V29">
+      <c r="W30">
         <v>6.53485093310954E-2</v>
       </c>
-      <c r="W29">
+      <c r="X30">
         <v>0.308899856624054</v>
       </c>
-      <c r="X29">
+      <c r="Y30">
         <v>0.16517877561531899</v>
       </c>
-      <c r="Y29">
+      <c r="Z30">
         <v>0.26225892672269202</v>
       </c>
-      <c r="Z29">
+      <c r="AA30">
         <v>0.23716967164219899</v>
       </c>
-      <c r="AA29">
+      <c r="AB30">
         <v>5.3336107760566E-2</v>
       </c>
-      <c r="AB29">
+      <c r="AC30">
         <v>0.132342284475642</v>
       </c>
-      <c r="AC29">
+      <c r="AD30">
         <v>1</v>
       </c>
     </row>
